--- a/dcomtestcasegeneration/Database/DB_SAIC_AS28_R1.0_DCOM.xlsx
+++ b/dcomtestcasegeneration/Database/DB_SAIC_AS28_R1.0_DCOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HuyNA_repo\dcomtestcasegeneration\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F26455D6-A289-4C71-9A34-D566E1D65E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A674A89-DFC8-4192-9377-9D5AC361378A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6690" yWindow="3360" windowWidth="21600" windowHeight="13185" tabRatio="903" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/dcomtestcasegeneration/Database/DB_SAIC_AS28_R1.0_DCOM.xlsx
+++ b/dcomtestcasegeneration/Database/DB_SAIC_AS28_R1.0_DCOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HuyNA_repo\dcomtestcasegeneration\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BOSCH_WORK\DCOM_TestcaseTool\dcomtestcasegeneration\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{702F0376-73CC-4E33-B1D5-26972B7C84EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFEC92A0-2860-4555-B5AE-E2D19EFEED06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13980" yWindow="2280" windowWidth="12555" windowHeight="12915" tabRatio="903" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1320" windowWidth="11280" windowHeight="10356" tabRatio="903" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Common_settings" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -46,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2283" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2295" uniqueCount="201">
   <si>
     <t>Sub_function</t>
   </si>
@@ -600,9 +598,6 @@
     <t>Testcase Directory</t>
   </si>
   <si>
-    <t>Local</t>
-  </si>
-  <si>
     <t>Data Path Information</t>
   </si>
   <si>
@@ -660,16 +655,19 @@
     <t>RC01</t>
   </si>
   <si>
-    <t>D:\HuyNA_repo\dcomtestcasegeneration\Database\DB_SAIC_AS28_R1.0_DCOM.xlsx</t>
+    <t>Local</t>
   </si>
   <si>
-    <t>D:\HuyNA_repo\dcomtestcasegeneration\Template</t>
+    <t>D:\BOSCH_WORK\DCOM_TestcaseTool\dcomtestcasegeneration\Database\DB_SAIC_AS28_R1.0_DCOM.xlsx</t>
   </si>
   <si>
-    <t>D:\HuyNA_repo\dcomtestcasegeneration\Template\Template.xlsx</t>
+    <t>D:\BOSCH_WORK\DCOM_TestcaseTool\dcomtestcasegeneration\Template</t>
   </si>
   <si>
-    <t>D:\HuyNA_repo\dcomtestcasegeneration\Database</t>
+    <t>D:\BOSCH_WORK\DCOM_TestcaseTool\dcomtestcasegeneration\Template\Template.xlsx</t>
+  </si>
+  <si>
+    <t>D:\BOSCH_WORK\DCOM_TestcaseTool\dcomtestcasegeneration\Database</t>
   </si>
 </sst>
 </file>
@@ -10806,21 +10804,21 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B42" sqref="B42:B47"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B47" sqref="B41:B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="39.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="12" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="4" max="4" width="13.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>53</v>
       </c>
@@ -10834,7 +10832,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
@@ -10848,7 +10846,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>49</v>
       </c>
@@ -10862,7 +10860,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>50</v>
       </c>
@@ -10876,7 +10874,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>51</v>
       </c>
@@ -10890,7 +10888,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>52</v>
       </c>
@@ -10904,7 +10902,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>54</v>
       </c>
@@ -10915,7 +10913,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>59</v>
       </c>
@@ -10926,7 +10924,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>60</v>
       </c>
@@ -10937,7 +10935,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>61</v>
       </c>
@@ -10948,13 +10946,13 @@
         <v>590209</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>92</v>
       </c>
@@ -10964,7 +10962,7 @@
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="1:4" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>97</v>
       </c>
@@ -10974,7 +10972,7 @@
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>95</v>
       </c>
@@ -10984,7 +10982,7 @@
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>107</v>
       </c>
@@ -10994,45 +10992,45 @@
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:4" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>169</v>
@@ -11040,61 +11038,61 @@
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
     </row>
-    <row r="31" spans="1:4" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>170</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>171</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>172</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>173</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>174</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>175</v>
       </c>
@@ -11102,19 +11100,19 @@
         <v>197</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B43" s="9"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="B43" s="9"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="7" t="s">
-        <v>190</v>
-      </c>
       <c r="B44" s="9"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>176</v>
       </c>
@@ -11122,101 +11120,125 @@
         <v>198</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B46" s="104" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="103" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B47" s="104" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B51" s="8"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B51" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B52" s="8"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B52" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B53" s="8"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B53" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="B54" s="8"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B55" s="8"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B55" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="B56" s="8"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="7" t="s">
+      <c r="B57" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="B57" s="8"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="7" t="s">
+      <c r="B58" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="B58" s="8"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="B59" s="8"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B59" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B60" s="8"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B60" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="B61" s="8"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="B62" s="8"/>
+      <c r="B62" s="8" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -11238,31 +11260,31 @@
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="2" customWidth="1"/>
-    <col min="11" max="12" width="7.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.85546875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="4.7109375" style="2" customWidth="1"/>
-    <col min="18" max="19" width="5.140625" style="2" customWidth="1"/>
-    <col min="20" max="24" width="4.85546875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="8.7109375" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="17.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="2" customWidth="1"/>
+    <col min="11" max="12" width="7.5546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.88671875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="4.88671875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.6640625" style="2" customWidth="1"/>
+    <col min="18" max="19" width="5.109375" style="2" customWidth="1"/>
+    <col min="20" max="24" width="4.88671875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="8.6640625" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="105" t="s">
         <v>29</v>
       </c>
@@ -11296,7 +11318,7 @@
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
-    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -11372,7 +11394,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
@@ -11442,7 +11464,7 @@
       </c>
       <c r="Z3" s="29"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>12</v>
       </c>
@@ -11488,7 +11510,7 @@
       <c r="Y4" s="33"/>
       <c r="Z4" s="34"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>13</v>
       </c>
@@ -11526,7 +11548,7 @@
       <c r="Y5" s="21"/>
       <c r="Z5" s="34"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>14</v>
       </c>
@@ -11566,7 +11588,7 @@
       <c r="Y6" s="21"/>
       <c r="Z6" s="34"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>15</v>
       </c>
@@ -11608,7 +11630,7 @@
       <c r="Y7" s="21"/>
       <c r="Z7" s="34"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>12</v>
       </c>
@@ -11652,7 +11674,7 @@
       <c r="Y8" s="21"/>
       <c r="Z8" s="34"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>13</v>
       </c>
@@ -11698,7 +11720,7 @@
       <c r="Y9" s="21"/>
       <c r="Z9" s="34"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>14</v>
       </c>
@@ -11746,7 +11768,7 @@
       <c r="Y10" s="21"/>
       <c r="Z10" s="34"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>15</v>
       </c>
@@ -11796,7 +11818,7 @@
       <c r="Y11" s="21"/>
       <c r="Z11" s="34"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>12</v>
       </c>
@@ -11848,7 +11870,7 @@
       <c r="Y12" s="21"/>
       <c r="Z12" s="34"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>13</v>
       </c>
@@ -11902,7 +11924,7 @@
       <c r="Y13" s="21"/>
       <c r="Z13" s="34"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>14</v>
       </c>
@@ -11958,7 +11980,7 @@
       <c r="Y14" s="21"/>
       <c r="Z14" s="34"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -12012,7 +12034,7 @@
       <c r="Y15" s="21"/>
       <c r="Z15" s="34"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="21"/>
       <c r="C16" s="37"/>
@@ -12068,7 +12090,7 @@
       <c r="Y16" s="21"/>
       <c r="Z16" s="34"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="39"/>
@@ -12096,7 +12118,7 @@
       <c r="Y17" s="37"/>
       <c r="Z17" s="34"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="37"/>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
@@ -12107,7 +12129,7 @@
       <c r="H18" s="37"/>
       <c r="I18" s="21"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -12118,7 +12140,7 @@
       <c r="H19" s="37"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="37"/>
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
@@ -12128,7 +12150,7 @@
       <c r="H20" s="37"/>
       <c r="I20" s="21"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
@@ -12138,7 +12160,7 @@
       <c r="H21" s="37"/>
       <c r="I21" s="21"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="37"/>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
@@ -12148,7 +12170,7 @@
       <c r="H22" s="37"/>
       <c r="I22" s="21"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
@@ -12158,45 +12180,45 @@
       <c r="H23" s="37"/>
       <c r="I23" s="21"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="37"/>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
       <c r="D24" s="37"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
       <c r="D25" s="37"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="37"/>
       <c r="B26" s="37"/>
       <c r="C26" s="37"/>
       <c r="D26" s="37"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
       <c r="D27" s="37"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="37"/>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
       <c r="D28" s="37"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E40" s="51"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="43" t="s">
         <v>65</v>
       </c>
@@ -12204,7 +12226,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="45" t="s">
         <v>86</v>
       </c>
@@ -12215,7 +12237,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="46" t="s">
         <v>87</v>
       </c>
@@ -12226,7 +12248,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="46" t="s">
         <v>88</v>
       </c>
@@ -12237,7 +12259,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="48" t="s">
         <v>89</v>
       </c>
@@ -12248,7 +12270,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="50" t="s">
         <v>66</v>
       </c>
@@ -12256,7 +12278,7 @@
       <c r="C110" s="50"/>
       <c r="D110" s="50"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>7</v>
       </c>
@@ -12297,31 +12319,31 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="42" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="42" customWidth="1"/>
     <col min="5" max="5" width="9" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="2" customWidth="1"/>
-    <col min="11" max="12" width="7.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.85546875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="4.7109375" style="2" customWidth="1"/>
-    <col min="18" max="19" width="5.140625" style="2" customWidth="1"/>
-    <col min="20" max="24" width="4.85546875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="8.7109375" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="17.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="2" customWidth="1"/>
+    <col min="11" max="12" width="7.5546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.88671875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="4.88671875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.6640625" style="2" customWidth="1"/>
+    <col min="18" max="19" width="5.109375" style="2" customWidth="1"/>
+    <col min="20" max="24" width="4.88671875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="8.6640625" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="106" t="s">
         <v>29</v>
       </c>
@@ -12355,7 +12377,7 @@
       <c r="Y1" s="67"/>
       <c r="Z1" s="67"/>
     </row>
-    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="68" t="s">
         <v>0</v>
       </c>
@@ -12431,7 +12453,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
@@ -12505,7 +12527,7 @@
       </c>
       <c r="Z3" s="29"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -12547,7 +12569,7 @@
       <c r="Y4" s="33"/>
       <c r="Z4" s="34"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -12581,7 +12603,7 @@
       <c r="Y5" s="21"/>
       <c r="Z5" s="34"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -12617,7 +12639,7 @@
       <c r="Y6" s="21"/>
       <c r="Z6" s="34"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -12655,7 +12677,7 @@
       <c r="Y7" s="21"/>
       <c r="Z7" s="34"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="70"/>
       <c r="C8" s="21"/>
@@ -12695,7 +12717,7 @@
       <c r="Y8" s="21"/>
       <c r="Z8" s="34"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -12737,7 +12759,7 @@
       <c r="Y9" s="21"/>
       <c r="Z9" s="34"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -12781,7 +12803,7 @@
       <c r="Y10" s="21"/>
       <c r="Z10" s="34"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -12827,7 +12849,7 @@
       <c r="Y11" s="21"/>
       <c r="Z11" s="34"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -12875,7 +12897,7 @@
       <c r="Y12" s="21"/>
       <c r="Z12" s="34"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="21"/>
@@ -12925,7 +12947,7 @@
       <c r="Y13" s="21"/>
       <c r="Z13" s="34"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -12977,7 +12999,7 @@
       <c r="Y14" s="21"/>
       <c r="Z14" s="34"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -13031,7 +13053,7 @@
       <c r="Y15" s="21"/>
       <c r="Z15" s="34"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="21"/>
       <c r="C16" s="71"/>
@@ -13087,7 +13109,7 @@
       <c r="Y16" s="21"/>
       <c r="Z16" s="34"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="39"/>
@@ -13115,7 +13137,7 @@
       <c r="Y17" s="37"/>
       <c r="Z17" s="34"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="37"/>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
@@ -13142,7 +13164,7 @@
       <c r="Y18" s="37"/>
       <c r="Z18" s="34"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -13169,69 +13191,69 @@
       <c r="Y19" s="37"/>
       <c r="Z19" s="34"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="37"/>
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="37"/>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="37"/>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="37"/>
       <c r="B26" s="37"/>
       <c r="C26" s="37"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="37"/>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
     </row>
-    <row r="34" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="5:9" x14ac:dyDescent="0.25">
       <c r="I34" s="72"/>
     </row>
-    <row r="37" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="5:9" x14ac:dyDescent="0.25">
       <c r="I37" s="102"/>
     </row>
-    <row r="38" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="5:9" x14ac:dyDescent="0.25">
       <c r="I38" s="102"/>
     </row>
-    <row r="40" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E40" s="51"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="43" t="s">
         <v>65</v>
       </c>
@@ -13239,7 +13261,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="45" t="s">
         <v>86</v>
       </c>
@@ -13250,7 +13272,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="46" t="s">
         <v>87</v>
       </c>
@@ -13261,7 +13283,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="46" t="s">
         <v>88</v>
       </c>
@@ -13272,7 +13294,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="48" t="s">
         <v>89</v>
       </c>
@@ -13283,7 +13305,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="50" t="s">
         <v>66</v>
       </c>
@@ -13291,7 +13313,7 @@
       <c r="C110" s="50"/>
       <c r="D110" s="101"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>7</v>
       </c>
@@ -13332,31 +13354,31 @@
       <selection activeCell="F93" sqref="F93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="2" customWidth="1"/>
-    <col min="11" max="12" width="7.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.85546875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="4.7109375" style="2" customWidth="1"/>
-    <col min="18" max="19" width="5.140625" style="2" customWidth="1"/>
-    <col min="20" max="24" width="4.85546875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="8.7109375" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="17.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="2" customWidth="1"/>
+    <col min="11" max="12" width="7.5546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.88671875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="4.88671875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.6640625" style="2" customWidth="1"/>
+    <col min="18" max="19" width="5.109375" style="2" customWidth="1"/>
+    <col min="20" max="24" width="4.88671875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="8.6640625" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="105" t="s">
         <v>29</v>
       </c>
@@ -13390,7 +13412,7 @@
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
-    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -13466,7 +13488,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>12</v>
       </c>
@@ -13534,7 +13556,7 @@
       </c>
       <c r="Z3" s="29"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>13</v>
       </c>
@@ -13578,7 +13600,7 @@
       <c r="Y4" s="33"/>
       <c r="Z4" s="34"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -13612,7 +13634,7 @@
       <c r="Y5" s="21"/>
       <c r="Z5" s="34"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -13648,7 +13670,7 @@
       <c r="Y6" s="21"/>
       <c r="Z6" s="34"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -13686,7 +13708,7 @@
       <c r="Y7" s="21"/>
       <c r="Z7" s="34"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -13726,7 +13748,7 @@
       <c r="Y8" s="21"/>
       <c r="Z8" s="34"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -13768,7 +13790,7 @@
       <c r="Y9" s="21"/>
       <c r="Z9" s="34"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -13812,7 +13834,7 @@
       <c r="Y10" s="21"/>
       <c r="Z10" s="34"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -13858,7 +13880,7 @@
       <c r="Y11" s="21"/>
       <c r="Z11" s="34"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -13906,7 +13928,7 @@
       <c r="Y12" s="21"/>
       <c r="Z12" s="34"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="21"/>
@@ -13956,7 +13978,7 @@
       <c r="Y13" s="21"/>
       <c r="Z13" s="34"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -14008,7 +14030,7 @@
       <c r="Y14" s="21"/>
       <c r="Z14" s="34"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -14062,7 +14084,7 @@
       <c r="Y15" s="21"/>
       <c r="Z15" s="34"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="21"/>
       <c r="C16" s="37"/>
@@ -14118,7 +14140,7 @@
       <c r="Y16" s="21"/>
       <c r="Z16" s="34"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="39"/>
@@ -14146,7 +14168,7 @@
       <c r="Y17" s="37"/>
       <c r="Z17" s="34"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="37"/>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
@@ -14173,7 +14195,7 @@
       <c r="Y18" s="37"/>
       <c r="Z18" s="34"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -14200,60 +14222,60 @@
       <c r="Y19" s="37"/>
       <c r="Z19" s="34"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="37"/>
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="37"/>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="37"/>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="37"/>
       <c r="B26" s="37"/>
       <c r="C26" s="37"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="37"/>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E40" s="51"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="43" t="s">
         <v>65</v>
       </c>
@@ -14261,7 +14283,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="45" t="s">
         <v>86</v>
       </c>
@@ -14272,7 +14294,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="46" t="s">
         <v>87</v>
       </c>
@@ -14283,7 +14305,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="46" t="s">
         <v>88</v>
       </c>
@@ -14294,7 +14316,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="48" t="s">
         <v>89</v>
       </c>
@@ -14305,7 +14327,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="50" t="s">
         <v>66</v>
       </c>
@@ -14313,7 +14335,7 @@
       <c r="C110" s="50"/>
       <c r="D110" s="50"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>7</v>
       </c>
@@ -14354,31 +14376,31 @@
       <selection activeCell="N32" sqref="M32:N34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="2" customWidth="1"/>
-    <col min="11" max="12" width="7.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.85546875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="4.7109375" style="2" customWidth="1"/>
-    <col min="18" max="19" width="5.140625" style="2" customWidth="1"/>
-    <col min="20" max="24" width="4.85546875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="8.7109375" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="17.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="2" customWidth="1"/>
+    <col min="11" max="12" width="7.5546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.88671875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="4.88671875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.6640625" style="2" customWidth="1"/>
+    <col min="18" max="19" width="5.109375" style="2" customWidth="1"/>
+    <col min="20" max="24" width="4.88671875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="8.6640625" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="105" t="s">
         <v>29</v>
       </c>
@@ -14412,7 +14434,7 @@
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
-    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -14488,7 +14510,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>12</v>
       </c>
@@ -14558,7 +14580,7 @@
       </c>
       <c r="Z3" s="29"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>12</v>
       </c>
@@ -14604,7 +14626,7 @@
       <c r="Y4" s="33"/>
       <c r="Z4" s="34"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>12</v>
       </c>
@@ -14642,7 +14664,7 @@
       <c r="Y5" s="21"/>
       <c r="Z5" s="34"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>12</v>
       </c>
@@ -14682,7 +14704,7 @@
       <c r="Y6" s="21"/>
       <c r="Z6" s="34"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>12</v>
       </c>
@@ -14724,7 +14746,7 @@
       <c r="Y7" s="21"/>
       <c r="Z7" s="34"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>14</v>
       </c>
@@ -14768,7 +14790,7 @@
       <c r="Y8" s="21"/>
       <c r="Z8" s="34"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -14810,7 +14832,7 @@
       <c r="Y9" s="21"/>
       <c r="Z9" s="34"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -14854,7 +14876,7 @@
       <c r="Y10" s="21"/>
       <c r="Z10" s="34"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -14900,7 +14922,7 @@
       <c r="Y11" s="21"/>
       <c r="Z11" s="34"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -14948,7 +14970,7 @@
       <c r="Y12" s="21"/>
       <c r="Z12" s="34"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="21"/>
@@ -14998,7 +15020,7 @@
       <c r="Y13" s="21"/>
       <c r="Z13" s="34"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -15050,7 +15072,7 @@
       <c r="Y14" s="21"/>
       <c r="Z14" s="34"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -15104,7 +15126,7 @@
       <c r="Y15" s="21"/>
       <c r="Z15" s="34"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="21"/>
       <c r="C16" s="37"/>
@@ -15160,7 +15182,7 @@
       <c r="Y16" s="21"/>
       <c r="Z16" s="34"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="39"/>
@@ -15188,7 +15210,7 @@
       <c r="Y17" s="37"/>
       <c r="Z17" s="34"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="37"/>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
@@ -15199,7 +15221,7 @@
       <c r="H18" s="37"/>
       <c r="I18" s="21"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -15210,60 +15232,60 @@
       <c r="H19" s="37"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="37"/>
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="37"/>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="37"/>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="37"/>
       <c r="B26" s="37"/>
       <c r="C26" s="37"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="37"/>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E40" s="51"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="43" t="s">
         <v>65</v>
       </c>
@@ -15271,7 +15293,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="45" t="s">
         <v>86</v>
       </c>
@@ -15282,7 +15304,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="46" t="s">
         <v>87</v>
       </c>
@@ -15293,7 +15315,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="46" t="s">
         <v>88</v>
       </c>
@@ -15304,7 +15326,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="48" t="s">
         <v>89</v>
       </c>
@@ -15315,7 +15337,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="50" t="s">
         <v>66</v>
       </c>
@@ -15323,7 +15345,7 @@
       <c r="C110" s="50"/>
       <c r="D110" s="50"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>7</v>
       </c>
@@ -15361,7 +15383,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15372,38 +15394,38 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Z111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G8" sqref="G8:I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" style="2" customWidth="1"/>
     <col min="10" max="10" width="12" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.85546875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="5.140625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="4.7109375" style="2" customWidth="1"/>
-    <col min="18" max="18" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.140625" style="2" customWidth="1"/>
-    <col min="20" max="21" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="4.85546875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="8.7109375" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="2"/>
+    <col min="11" max="11" width="14.6640625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.88671875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="5.109375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.6640625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.109375" style="2" customWidth="1"/>
+    <col min="20" max="21" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="4.88671875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="8.6640625" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="105" t="s">
         <v>29</v>
       </c>
@@ -15437,7 +15459,7 @@
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
-    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -15513,7 +15535,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>12</v>
       </c>
@@ -15587,7 +15609,7 @@
       </c>
       <c r="Z3" s="56"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="53" t="s">
         <v>13</v>
       </c>
@@ -15661,7 +15683,7 @@
       </c>
       <c r="Z4" s="59"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="53" t="s">
         <v>14</v>
       </c>
@@ -15735,7 +15757,7 @@
       </c>
       <c r="Z5" s="59"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="53"/>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
@@ -15801,7 +15823,7 @@
       </c>
       <c r="Z6" s="59"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="53"/>
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
@@ -15867,7 +15889,7 @@
       </c>
       <c r="Z7" s="59"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="53"/>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
@@ -15925,7 +15947,7 @@
       </c>
       <c r="Z8" s="59"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="25"/>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
@@ -15983,7 +16005,7 @@
       </c>
       <c r="Z9" s="59"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="53"/>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
@@ -16041,7 +16063,7 @@
       </c>
       <c r="Z10" s="59"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="53"/>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
@@ -16099,7 +16121,7 @@
       </c>
       <c r="Z11" s="59"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="53"/>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
@@ -16157,7 +16179,7 @@
       </c>
       <c r="Z12" s="59"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="53"/>
       <c r="B13" s="53"/>
       <c r="C13" s="25"/>
@@ -16215,7 +16237,7 @@
       </c>
       <c r="Z13" s="59"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="53"/>
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
@@ -16273,7 +16295,7 @@
       </c>
       <c r="Z14" s="59"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="53"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -16331,7 +16353,7 @@
       </c>
       <c r="Z15" s="59"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="53"/>
       <c r="B16" s="25"/>
       <c r="C16" s="61"/>
@@ -16389,7 +16411,7 @@
       </c>
       <c r="Z16" s="59"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="61"/>
       <c r="B17" s="61"/>
       <c r="C17" s="63"/>
@@ -16416,11 +16438,11 @@
       <c r="Y17" s="64"/>
       <c r="Z17" s="59"/>
     </row>
-    <row r="38" spans="5:5" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="5:5" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E40" s="51"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="43" t="s">
         <v>65</v>
       </c>
@@ -16428,7 +16450,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="45" t="s">
         <v>86</v>
       </c>
@@ -16439,7 +16461,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="46" t="s">
         <v>87</v>
       </c>
@@ -16450,7 +16472,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="46" t="s">
         <v>88</v>
       </c>
@@ -16461,7 +16483,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="48" t="s">
         <v>89</v>
       </c>
@@ -16472,7 +16494,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="50" t="s">
         <v>66</v>
       </c>
@@ -16480,7 +16502,7 @@
       <c r="C110" s="50"/>
       <c r="D110" s="50"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>7</v>
       </c>
@@ -16522,30 +16544,30 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="2" customWidth="1"/>
     <col min="4" max="5" width="15" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="2" customWidth="1"/>
-    <col min="11" max="12" width="7.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.85546875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="4.7109375" style="2" customWidth="1"/>
-    <col min="18" max="19" width="5.140625" style="2" customWidth="1"/>
-    <col min="20" max="24" width="4.85546875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="8.7109375" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="17.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="2" customWidth="1"/>
+    <col min="11" max="12" width="7.5546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.88671875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="4.88671875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.6640625" style="2" customWidth="1"/>
+    <col min="18" max="19" width="5.109375" style="2" customWidth="1"/>
+    <col min="20" max="24" width="4.88671875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="8.6640625" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="105" t="s">
         <v>29</v>
       </c>
@@ -16579,7 +16601,7 @@
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
-    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -16655,7 +16677,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>12</v>
       </c>
@@ -16729,7 +16751,7 @@
       </c>
       <c r="Z3" s="29"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -16797,7 +16819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -16857,7 +16879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -16917,7 +16939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -16977,7 +16999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -17037,7 +17059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -17097,7 +17119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -17157,7 +17179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -17217,7 +17239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -17277,7 +17299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="21"/>
@@ -17337,7 +17359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -17397,7 +17419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -17457,7 +17479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="21"/>
       <c r="C16" s="37"/>
@@ -17517,7 +17539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="39"/>
@@ -17545,12 +17567,12 @@
       <c r="Y17" s="37"/>
       <c r="Z17" s="34"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="I25" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="43" t="s">
         <v>65</v>
       </c>
@@ -17558,7 +17580,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="45" t="s">
         <v>86</v>
       </c>
@@ -17569,7 +17591,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="46" t="s">
         <v>87</v>
       </c>
@@ -17580,7 +17602,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="46" t="s">
         <v>88</v>
       </c>
@@ -17591,7 +17613,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="48" t="s">
         <v>89</v>
       </c>
@@ -17602,7 +17624,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="50" t="s">
         <v>66</v>
       </c>
@@ -17610,7 +17632,7 @@
       <c r="C110" s="50"/>
       <c r="D110" s="50"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>7</v>
       </c>
@@ -17651,31 +17673,31 @@
       <selection activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="2" customWidth="1"/>
-    <col min="11" max="12" width="7.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.85546875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="4.7109375" style="2" customWidth="1"/>
-    <col min="18" max="19" width="5.140625" style="2" customWidth="1"/>
-    <col min="20" max="24" width="4.85546875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="8.7109375" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="12.88671875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="2" customWidth="1"/>
+    <col min="11" max="12" width="7.5546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.88671875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="4.88671875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.6640625" style="2" customWidth="1"/>
+    <col min="18" max="19" width="5.109375" style="2" customWidth="1"/>
+    <col min="20" max="24" width="4.88671875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="8.6640625" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="105" t="s">
         <v>29</v>
       </c>
@@ -17709,7 +17731,7 @@
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
-    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -17785,7 +17807,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>91</v>
       </c>
@@ -17859,7 +17881,7 @@
       </c>
       <c r="Z3" s="29"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -17901,7 +17923,7 @@
       <c r="Y4" s="33"/>
       <c r="Z4" s="34"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -17935,7 +17957,7 @@
       <c r="Y5" s="21"/>
       <c r="Z5" s="34"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -17971,7 +17993,7 @@
       <c r="Y6" s="21"/>
       <c r="Z6" s="34"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -18009,7 +18031,7 @@
       <c r="Y7" s="21"/>
       <c r="Z7" s="34"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -18049,7 +18071,7 @@
       <c r="Y8" s="21"/>
       <c r="Z8" s="34"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -18091,7 +18113,7 @@
       <c r="Y9" s="21"/>
       <c r="Z9" s="34"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -18135,7 +18157,7 @@
       <c r="Y10" s="21"/>
       <c r="Z10" s="34"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -18181,7 +18203,7 @@
       <c r="Y11" s="21"/>
       <c r="Z11" s="34"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -18229,7 +18251,7 @@
       <c r="Y12" s="21"/>
       <c r="Z12" s="34"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="21"/>
@@ -18279,7 +18301,7 @@
       <c r="Y13" s="21"/>
       <c r="Z13" s="34"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -18331,7 +18353,7 @@
       <c r="Y14" s="21"/>
       <c r="Z14" s="34"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -18385,7 +18407,7 @@
       <c r="Y15" s="21"/>
       <c r="Z15" s="34"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="21"/>
       <c r="C16" s="37"/>
@@ -18441,7 +18463,7 @@
       <c r="Y16" s="21"/>
       <c r="Z16" s="34"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="39"/>
@@ -18469,10 +18491,10 @@
       <c r="Y17" s="37"/>
       <c r="Z17" s="34"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E40" s="51"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="43" t="s">
         <v>65</v>
       </c>
@@ -18480,7 +18502,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="45" t="s">
         <v>86</v>
       </c>
@@ -18491,7 +18513,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="46" t="s">
         <v>87</v>
       </c>
@@ -18502,7 +18524,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="46" t="s">
         <v>88</v>
       </c>
@@ -18513,7 +18535,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="48" t="s">
         <v>89</v>
       </c>
@@ -18524,7 +18546,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="50" t="s">
         <v>66</v>
       </c>
@@ -18532,7 +18554,7 @@
       <c r="C110" s="50"/>
       <c r="D110" s="50"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>7</v>
       </c>
@@ -18573,31 +18595,31 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="2" customWidth="1"/>
-    <col min="11" max="12" width="7.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.85546875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="4.7109375" style="2" customWidth="1"/>
-    <col min="18" max="19" width="5.140625" style="2" customWidth="1"/>
-    <col min="20" max="24" width="4.85546875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="8.7109375" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="17.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="2" customWidth="1"/>
+    <col min="11" max="12" width="7.5546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.88671875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="4.88671875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.6640625" style="2" customWidth="1"/>
+    <col min="18" max="19" width="5.109375" style="2" customWidth="1"/>
+    <col min="20" max="24" width="4.88671875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="8.6640625" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="105" t="s">
         <v>29</v>
       </c>
@@ -18631,7 +18653,7 @@
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
-    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -18707,7 +18729,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>13</v>
       </c>
@@ -18777,7 +18799,7 @@
       </c>
       <c r="Z3" s="29"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>12</v>
       </c>
@@ -18823,7 +18845,7 @@
       <c r="Y4" s="33"/>
       <c r="Z4" s="34"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>35</v>
       </c>
@@ -18863,7 +18885,7 @@
       <c r="Y5" s="21"/>
       <c r="Z5" s="34"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>35</v>
       </c>
@@ -18905,7 +18927,7 @@
       <c r="Y6" s="21"/>
       <c r="Z6" s="34"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>35</v>
       </c>
@@ -18949,7 +18971,7 @@
       <c r="Y7" s="21"/>
       <c r="Z7" s="34"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>71</v>
       </c>
@@ -18995,7 +19017,7 @@
       <c r="Y8" s="21"/>
       <c r="Z8" s="34"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>71</v>
       </c>
@@ -19043,7 +19065,7 @@
       <c r="Y9" s="21"/>
       <c r="Z9" s="34"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>71</v>
       </c>
@@ -19093,7 +19115,7 @@
       <c r="Y10" s="21"/>
       <c r="Z10" s="34"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>36</v>
       </c>
@@ -19145,7 +19167,7 @@
       <c r="Y11" s="21"/>
       <c r="Z11" s="34"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>36</v>
       </c>
@@ -19199,7 +19221,7 @@
       <c r="Y12" s="21"/>
       <c r="Z12" s="34"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>36</v>
       </c>
@@ -19255,7 +19277,7 @@
       <c r="Y13" s="21"/>
       <c r="Z13" s="34"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>36</v>
       </c>
@@ -19313,7 +19335,7 @@
       <c r="Y14" s="21"/>
       <c r="Z14" s="34"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>72</v>
       </c>
@@ -19373,7 +19395,7 @@
       <c r="Y15" s="21"/>
       <c r="Z15" s="34"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>72</v>
       </c>
@@ -19435,7 +19457,7 @@
       <c r="Y16" s="21"/>
       <c r="Z16" s="34"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
         <v>72</v>
       </c>
@@ -19469,7 +19491,7 @@
       <c r="Y17" s="37"/>
       <c r="Z17" s="34"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="37" t="s">
         <v>72</v>
       </c>
@@ -19486,7 +19508,7 @@
       <c r="H18" s="37"/>
       <c r="I18" s="21"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
         <v>73</v>
       </c>
@@ -19499,60 +19521,60 @@
       <c r="H19" s="37"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="37"/>
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="37"/>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="37"/>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="37"/>
       <c r="B26" s="37"/>
       <c r="C26" s="37"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="37"/>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E40" s="51"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="43" t="s">
         <v>65</v>
       </c>
@@ -19560,7 +19582,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="45" t="s">
         <v>86</v>
       </c>
@@ -19571,7 +19593,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="46" t="s">
         <v>87</v>
       </c>
@@ -19582,7 +19604,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="46" t="s">
         <v>88</v>
       </c>
@@ -19593,7 +19615,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="48" t="s">
         <v>89</v>
       </c>
@@ -19604,7 +19626,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="50" t="s">
         <v>66</v>
       </c>
@@ -19612,7 +19634,7 @@
       <c r="C110" s="50"/>
       <c r="D110" s="50"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>7</v>
       </c>
@@ -19653,31 +19675,31 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43" style="78" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="78" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="78" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" style="78" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="78" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="78" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" style="78" customWidth="1"/>
     <col min="5" max="5" width="9" style="78" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="78" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="78" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="78" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="78" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="78" customWidth="1"/>
-    <col min="11" max="12" width="7.5703125" style="78" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" style="78" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" style="78" customWidth="1"/>
-    <col min="15" max="15" width="5.85546875" style="78" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="78" customWidth="1"/>
-    <col min="17" max="17" width="4.7109375" style="78" customWidth="1"/>
-    <col min="18" max="19" width="5.140625" style="78" customWidth="1"/>
-    <col min="20" max="24" width="4.85546875" style="78" customWidth="1"/>
-    <col min="25" max="25" width="8.7109375" style="78" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="78"/>
+    <col min="6" max="6" width="17.6640625" style="78" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="78" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" style="78" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" style="78" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="78" customWidth="1"/>
+    <col min="11" max="12" width="7.5546875" style="78" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" style="78" customWidth="1"/>
+    <col min="14" max="14" width="7.109375" style="78" customWidth="1"/>
+    <col min="15" max="15" width="5.88671875" style="78" customWidth="1"/>
+    <col min="16" max="16" width="4.88671875" style="78" customWidth="1"/>
+    <col min="17" max="17" width="4.6640625" style="78" customWidth="1"/>
+    <col min="18" max="19" width="5.109375" style="78" customWidth="1"/>
+    <col min="20" max="24" width="4.88671875" style="78" customWidth="1"/>
+    <col min="25" max="25" width="8.6640625" style="78" customWidth="1"/>
+    <col min="26" max="16384" width="9.109375" style="78"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="105" t="s">
         <v>29</v>
       </c>
@@ -19711,7 +19733,7 @@
       <c r="Y1" s="76"/>
       <c r="Z1" s="77"/>
     </row>
-    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="79" t="s">
         <v>109</v>
       </c>
@@ -19787,7 +19809,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="81" t="s">
         <v>152</v>
       </c>
@@ -19796,7 +19818,7 @@
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="52" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E3" s="23"/>
       <c r="F3" s="24" t="s">
@@ -19859,7 +19881,7 @@
       </c>
       <c r="Z3" s="29"/>
     </row>
-    <row r="4" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="82" t="s">
         <v>110</v>
       </c>
@@ -19907,7 +19929,7 @@
       <c r="Y4" s="33"/>
       <c r="Z4" s="34"/>
     </row>
-    <row r="5" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="82" t="s">
         <v>111</v>
       </c>
@@ -19947,7 +19969,7 @@
       <c r="Y5" s="21"/>
       <c r="Z5" s="34"/>
     </row>
-    <row r="6" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="82" t="s">
         <v>111</v>
       </c>
@@ -19989,7 +20011,7 @@
       <c r="Y6" s="21"/>
       <c r="Z6" s="34"/>
     </row>
-    <row r="7" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="82" t="s">
         <v>111</v>
       </c>
@@ -20033,7 +20055,7 @@
       <c r="Y7" s="21"/>
       <c r="Z7" s="34"/>
     </row>
-    <row r="8" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="82" t="s">
         <v>111</v>
       </c>
@@ -20079,7 +20101,7 @@
       <c r="Y8" s="21"/>
       <c r="Z8" s="34"/>
     </row>
-    <row r="9" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="82" t="s">
         <v>111</v>
       </c>
@@ -20127,7 +20149,7 @@
       <c r="Y9" s="21"/>
       <c r="Z9" s="34"/>
     </row>
-    <row r="10" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="82" t="s">
         <v>111</v>
       </c>
@@ -20177,7 +20199,7 @@
       <c r="Y10" s="21"/>
       <c r="Z10" s="34"/>
     </row>
-    <row r="11" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="82" t="s">
         <v>111</v>
       </c>
@@ -20229,7 +20251,7 @@
       <c r="Y11" s="21"/>
       <c r="Z11" s="34"/>
     </row>
-    <row r="12" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="82" t="s">
         <v>111</v>
       </c>
@@ -20283,7 +20305,7 @@
       <c r="Y12" s="21"/>
       <c r="Z12" s="34"/>
     </row>
-    <row r="13" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="82" t="s">
         <v>111</v>
       </c>
@@ -20339,7 +20361,7 @@
       <c r="Y13" s="21"/>
       <c r="Z13" s="34"/>
     </row>
-    <row r="14" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="82" t="s">
         <v>111</v>
       </c>
@@ -20397,7 +20419,7 @@
       <c r="Y14" s="21"/>
       <c r="Z14" s="34"/>
     </row>
-    <row r="15" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="82" t="s">
         <v>111</v>
       </c>
@@ -20457,7 +20479,7 @@
       <c r="Y15" s="21"/>
       <c r="Z15" s="34"/>
     </row>
-    <row r="16" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="82" t="s">
         <v>111</v>
       </c>
@@ -20519,7 +20541,7 @@
       <c r="Y16" s="21"/>
       <c r="Z16" s="34"/>
     </row>
-    <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="82" t="s">
         <v>111</v>
       </c>
@@ -20553,7 +20575,7 @@
       <c r="Y17" s="37"/>
       <c r="Z17" s="34"/>
     </row>
-    <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="82" t="s">
         <v>111</v>
       </c>
@@ -20570,7 +20592,7 @@
       <c r="H18" s="37"/>
       <c r="I18" s="21"/>
     </row>
-    <row r="19" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="82" t="s">
         <v>111</v>
       </c>
@@ -20587,7 +20609,7 @@
       <c r="H19" s="37"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="82" t="s">
         <v>112</v>
       </c>
@@ -20599,7 +20621,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="82" t="s">
         <v>113</v>
       </c>
@@ -20611,7 +20633,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A22" s="82" t="s">
         <v>114</v>
       </c>
@@ -20623,7 +20645,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="82" t="s">
         <v>115</v>
       </c>
@@ -20635,7 +20657,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A24" s="82" t="s">
         <v>116</v>
       </c>
@@ -20647,7 +20669,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A25" s="82" t="s">
         <v>117</v>
       </c>
@@ -20659,7 +20681,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A26" s="82" t="s">
         <v>118</v>
       </c>
@@ -20671,7 +20693,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A27" s="84" t="s">
         <v>119</v>
       </c>
@@ -20683,7 +20705,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A28" s="82" t="s">
         <v>120</v>
       </c>
@@ -20695,7 +20717,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A29" s="82" t="s">
         <v>121</v>
       </c>
@@ -20707,7 +20729,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A30" s="82" t="s">
         <v>122</v>
       </c>
@@ -20719,7 +20741,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A31" s="85" t="s">
         <v>123</v>
       </c>
@@ -20731,7 +20753,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A32" s="85" t="s">
         <v>124</v>
       </c>
@@ -20743,7 +20765,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A33" s="85" t="s">
         <v>125</v>
       </c>
@@ -20755,7 +20777,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A34" s="96" t="s">
         <v>126</v>
       </c>
@@ -20767,7 +20789,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A35" s="96" t="s">
         <v>127</v>
       </c>
@@ -20779,7 +20801,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A36" s="96" t="s">
         <v>128</v>
       </c>
@@ -20791,7 +20813,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A37" s="96" t="s">
         <v>129</v>
       </c>
@@ -20803,7 +20825,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A38" s="96" t="s">
         <v>130</v>
       </c>
@@ -20815,100 +20837,100 @@
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="38"/>
       <c r="B39" s="38"/>
       <c r="C39" s="37"/>
       <c r="D39" s="52"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="38"/>
       <c r="B40" s="38"/>
       <c r="C40" s="37"/>
       <c r="D40" s="40"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="38"/>
       <c r="B41" s="38"/>
       <c r="C41" s="37"/>
       <c r="D41" s="40"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="38"/>
       <c r="B42" s="38"/>
       <c r="C42" s="37"/>
       <c r="D42" s="40"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="38"/>
       <c r="B43" s="38"/>
       <c r="C43" s="37"/>
       <c r="D43" s="40"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="38"/>
       <c r="B44" s="38"/>
       <c r="C44" s="37"/>
       <c r="D44" s="40"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="38"/>
       <c r="B45" s="38"/>
       <c r="C45" s="37"/>
       <c r="D45" s="40"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="38"/>
       <c r="B46" s="38"/>
       <c r="C46" s="37"/>
       <c r="D46" s="40"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="38"/>
       <c r="B47" s="38"/>
       <c r="C47" s="37"/>
       <c r="D47" s="40"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="38"/>
       <c r="B48" s="38"/>
       <c r="C48" s="37"/>
       <c r="D48" s="40"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="38"/>
       <c r="B49" s="38"/>
       <c r="C49" s="37"/>
       <c r="D49" s="40"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="38"/>
       <c r="B50" s="38"/>
       <c r="C50" s="37"/>
       <c r="D50" s="40"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="38"/>
       <c r="B51" s="38"/>
       <c r="C51" s="37"/>
       <c r="D51" s="40"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="38"/>
       <c r="B52" s="38"/>
       <c r="C52" s="37"/>
       <c r="D52" s="40"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="37"/>
       <c r="B53" s="37"/>
       <c r="C53" s="37"/>
       <c r="D53" s="86"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E64" s="95"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="87" t="s">
         <v>65</v>
       </c>
@@ -20916,7 +20938,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="89" t="s">
         <v>86</v>
       </c>
@@ -20927,7 +20949,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="90" t="s">
         <v>87</v>
       </c>
@@ -20938,7 +20960,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="90" t="s">
         <v>88</v>
       </c>
@@ -20949,7 +20971,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="92" t="s">
         <v>89</v>
       </c>
@@ -20960,7 +20982,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="94" t="s">
         <v>66</v>
       </c>
@@ -20968,7 +20990,7 @@
       <c r="C110" s="94"/>
       <c r="D110" s="94"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="78" t="s">
         <v>7</v>
       </c>
@@ -21009,31 +21031,31 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="38.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="38.6640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="2" customWidth="1"/>
-    <col min="11" max="12" width="7.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.85546875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="4.7109375" style="2" customWidth="1"/>
-    <col min="18" max="19" width="5.140625" style="2" customWidth="1"/>
-    <col min="20" max="24" width="4.85546875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="8.7109375" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="17.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="2" customWidth="1"/>
+    <col min="11" max="12" width="7.5546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.88671875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="4.88671875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.6640625" style="2" customWidth="1"/>
+    <col min="18" max="19" width="5.109375" style="2" customWidth="1"/>
+    <col min="20" max="24" width="4.88671875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="8.6640625" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="105" t="s">
         <v>29</v>
       </c>
@@ -21067,7 +21089,7 @@
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
-    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -21143,7 +21165,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3" s="20" t="s">
         <v>100</v>
@@ -21213,7 +21235,7 @@
       </c>
       <c r="Z3" s="29"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4" s="20" t="s">
         <v>76</v>
@@ -21259,7 +21281,7 @@
       <c r="Y4" s="33"/>
       <c r="Z4" s="34"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" s="20" t="s">
         <v>100</v>
@@ -21297,7 +21319,7 @@
       <c r="Y5" s="21"/>
       <c r="Z5" s="34"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="20" t="s">
         <v>102</v>
@@ -21337,7 +21359,7 @@
       <c r="Y6" s="21"/>
       <c r="Z6" s="34"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="20" t="s">
         <v>103</v>
@@ -21379,7 +21401,7 @@
       <c r="Y7" s="21"/>
       <c r="Z7" s="34"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="20" t="s">
         <v>104</v>
@@ -21423,7 +21445,7 @@
       <c r="Y8" s="21"/>
       <c r="Z8" s="34"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="20" t="s">
         <v>104</v>
@@ -21469,7 +21491,7 @@
       <c r="Y9" s="21"/>
       <c r="Z9" s="34"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="20" t="s">
         <v>105</v>
@@ -21517,7 +21539,7 @@
       <c r="Y10" s="21"/>
       <c r="Z10" s="34"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -21563,7 +21585,7 @@
       <c r="Y11" s="21"/>
       <c r="Z11" s="34"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -21611,7 +21633,7 @@
       <c r="Y12" s="21"/>
       <c r="Z12" s="34"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="21"/>
@@ -21661,7 +21683,7 @@
       <c r="Y13" s="21"/>
       <c r="Z13" s="34"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -21713,7 +21735,7 @@
       <c r="Y14" s="21"/>
       <c r="Z14" s="34"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -21767,7 +21789,7 @@
       <c r="Y15" s="21"/>
       <c r="Z15" s="34"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="21"/>
       <c r="C16" s="37"/>
@@ -21823,7 +21845,7 @@
       <c r="Y16" s="21"/>
       <c r="Z16" s="34"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="39"/>
@@ -21851,7 +21873,7 @@
       <c r="Y17" s="37"/>
       <c r="Z17" s="34"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="37"/>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
@@ -21862,7 +21884,7 @@
       <c r="H18" s="37"/>
       <c r="I18" s="21"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -21873,70 +21895,70 @@
       <c r="H19" s="37"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="37"/>
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
       <c r="D20" s="42"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
       <c r="D21" s="42"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="37"/>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
       <c r="D22" s="42"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
       <c r="D23" s="42"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="37"/>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
       <c r="D24" s="42"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
       <c r="D25" s="42"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="37"/>
       <c r="B26" s="37"/>
       <c r="C26" s="37"/>
       <c r="D26" s="42"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
       <c r="D27" s="42"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="37"/>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
       <c r="D28" s="42"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
       <c r="D29" s="42"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E40" s="51"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="43" t="s">
         <v>65</v>
       </c>
@@ -21944,7 +21966,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="45" t="s">
         <v>86</v>
       </c>
@@ -21955,7 +21977,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="46" t="s">
         <v>87</v>
       </c>
@@ -21966,7 +21988,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="46" t="s">
         <v>88</v>
       </c>
@@ -21977,7 +21999,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="48" t="s">
         <v>89</v>
       </c>
@@ -21988,7 +22010,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="50" t="s">
         <v>66</v>
       </c>
@@ -21996,7 +22018,7 @@
       <c r="C110" s="50"/>
       <c r="D110" s="50"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>7</v>
       </c>
@@ -22037,31 +22059,31 @@
       <selection activeCell="A100" sqref="A100:D114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="2" customWidth="1"/>
-    <col min="11" max="12" width="7.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.85546875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="4.7109375" style="2" customWidth="1"/>
-    <col min="18" max="19" width="5.140625" style="2" customWidth="1"/>
-    <col min="20" max="24" width="4.85546875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="8.7109375" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="17.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="2" customWidth="1"/>
+    <col min="11" max="12" width="7.5546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.88671875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="4.88671875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.6640625" style="2" customWidth="1"/>
+    <col min="18" max="19" width="5.109375" style="2" customWidth="1"/>
+    <col min="20" max="24" width="4.88671875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="8.6640625" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="105" t="s">
         <v>29</v>
       </c>
@@ -22095,7 +22117,7 @@
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
-    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -22171,7 +22193,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>12</v>
       </c>
@@ -22241,7 +22263,7 @@
       </c>
       <c r="Z3" s="29"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>13</v>
       </c>
@@ -22287,7 +22309,7 @@
       <c r="Y4" s="33"/>
       <c r="Z4" s="34"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -22321,7 +22343,7 @@
       <c r="Y5" s="21"/>
       <c r="Z5" s="34"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -22357,7 +22379,7 @@
       <c r="Y6" s="21"/>
       <c r="Z6" s="34"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -22395,7 +22417,7 @@
       <c r="Y7" s="21"/>
       <c r="Z7" s="34"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -22435,7 +22457,7 @@
       <c r="Y8" s="21"/>
       <c r="Z8" s="34"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -22477,7 +22499,7 @@
       <c r="Y9" s="21"/>
       <c r="Z9" s="34"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -22521,7 +22543,7 @@
       <c r="Y10" s="21"/>
       <c r="Z10" s="34"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -22567,7 +22589,7 @@
       <c r="Y11" s="21"/>
       <c r="Z11" s="34"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -22615,7 +22637,7 @@
       <c r="Y12" s="21"/>
       <c r="Z12" s="34"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="21"/>
@@ -22665,7 +22687,7 @@
       <c r="Y13" s="21"/>
       <c r="Z13" s="34"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -22717,7 +22739,7 @@
       <c r="Y14" s="21"/>
       <c r="Z14" s="34"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -22771,7 +22793,7 @@
       <c r="Y15" s="21"/>
       <c r="Z15" s="34"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="21"/>
       <c r="C16" s="37"/>
@@ -22827,7 +22849,7 @@
       <c r="Y16" s="21"/>
       <c r="Z16" s="34"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="39"/>
@@ -22855,7 +22877,7 @@
       <c r="Y17" s="37"/>
       <c r="Z17" s="34"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="37"/>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
@@ -22866,7 +22888,7 @@
       <c r="H18" s="37"/>
       <c r="I18" s="21"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -22877,60 +22899,60 @@
       <c r="H19" s="37"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="37"/>
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="37"/>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="37"/>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="37"/>
       <c r="B26" s="37"/>
       <c r="C26" s="37"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="37"/>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E40" s="51"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="43" t="s">
         <v>65</v>
       </c>
@@ -22938,7 +22960,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="45" t="s">
         <v>86</v>
       </c>
@@ -22949,7 +22971,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="46" t="s">
         <v>87</v>
       </c>
@@ -22960,7 +22982,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="46" t="s">
         <v>88</v>
       </c>
@@ -22971,7 +22993,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="48" t="s">
         <v>89</v>
       </c>
@@ -22982,7 +23004,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="50" t="s">
         <v>66</v>
       </c>
@@ -22990,7 +23012,7 @@
       <c r="C110" s="50"/>
       <c r="D110" s="50"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>7</v>
       </c>
@@ -23031,31 +23053,31 @@
       <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="2" customWidth="1"/>
-    <col min="11" max="12" width="7.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.85546875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="4.7109375" style="2" customWidth="1"/>
-    <col min="18" max="19" width="5.140625" style="2" customWidth="1"/>
-    <col min="20" max="24" width="4.85546875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="8.7109375" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="17.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="2" customWidth="1"/>
+    <col min="11" max="12" width="7.5546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.88671875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="4.88671875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.6640625" style="2" customWidth="1"/>
+    <col min="18" max="19" width="5.109375" style="2" customWidth="1"/>
+    <col min="20" max="24" width="4.88671875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="8.6640625" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="105" t="s">
         <v>29</v>
       </c>
@@ -23089,7 +23111,7 @@
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
-    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -23165,7 +23187,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -23231,7 +23253,7 @@
       </c>
       <c r="Z3" s="29"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -23273,7 +23295,7 @@
       <c r="Y4" s="33"/>
       <c r="Z4" s="34"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -23307,7 +23329,7 @@
       <c r="Y5" s="21"/>
       <c r="Z5" s="34"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -23343,7 +23365,7 @@
       <c r="Y6" s="21"/>
       <c r="Z6" s="34"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -23381,7 +23403,7 @@
       <c r="Y7" s="21"/>
       <c r="Z7" s="34"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -23421,7 +23443,7 @@
       <c r="Y8" s="21"/>
       <c r="Z8" s="34"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -23463,7 +23485,7 @@
       <c r="Y9" s="21"/>
       <c r="Z9" s="34"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -23507,7 +23529,7 @@
       <c r="Y10" s="21"/>
       <c r="Z10" s="34"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -23553,7 +23575,7 @@
       <c r="Y11" s="21"/>
       <c r="Z11" s="34"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -23601,7 +23623,7 @@
       <c r="Y12" s="21"/>
       <c r="Z12" s="34"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="21"/>
@@ -23651,7 +23673,7 @@
       <c r="Y13" s="21"/>
       <c r="Z13" s="34"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -23703,7 +23725,7 @@
       <c r="Y14" s="21"/>
       <c r="Z14" s="34"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -23757,7 +23779,7 @@
       <c r="Y15" s="21"/>
       <c r="Z15" s="34"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="21"/>
       <c r="C16" s="37"/>
@@ -23813,7 +23835,7 @@
       <c r="Y16" s="21"/>
       <c r="Z16" s="34"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="39"/>
@@ -23841,7 +23863,7 @@
       <c r="Y17" s="37"/>
       <c r="Z17" s="34"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="37"/>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
@@ -23868,7 +23890,7 @@
       <c r="Y18" s="37"/>
       <c r="Z18" s="34"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -23895,60 +23917,60 @@
       <c r="Y19" s="37"/>
       <c r="Z19" s="34"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="37"/>
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="37"/>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="37"/>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="37"/>
       <c r="B26" s="37"/>
       <c r="C26" s="37"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="37"/>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E40" s="51"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="43" t="s">
         <v>65</v>
       </c>
@@ -23956,7 +23978,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="45" t="s">
         <v>86</v>
       </c>
@@ -23967,7 +23989,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="46" t="s">
         <v>87</v>
       </c>
@@ -23978,7 +24000,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="46" t="s">
         <v>88</v>
       </c>
@@ -23989,7 +24011,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="48" t="s">
         <v>89</v>
       </c>
@@ -24000,7 +24022,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="50" t="s">
         <v>66</v>
       </c>
@@ -24008,7 +24030,7 @@
       <c r="C110" s="50"/>
       <c r="D110" s="50"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>7</v>
       </c>

--- a/dcomtestcasegeneration/Database/DB_SAIC_AS28_R1.0_DCOM.xlsx
+++ b/dcomtestcasegeneration/Database/DB_SAIC_AS28_R1.0_DCOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HuyNA_repo\dcomtestcasegeneration\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A942EC92-E075-4E73-BD4C-01ABFFA70E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{626D5335-D2E2-455C-A9DF-52EC4C9D7C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14325" yWindow="2625" windowWidth="12555" windowHeight="12915" tabRatio="903" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2925" yWindow="2355" windowWidth="12555" windowHeight="12915" tabRatio="903" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Common_settings" sheetId="2" r:id="rId1"/>
@@ -400,7 +400,7 @@
     <t>R1.0</t>
   </si>
   <si>
-    <t>RC05</t>
+    <t>RC01</t>
   </si>
   <si>
     <t>Local</t>
@@ -10909,7 +10909,7 @@
         <v>19</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -10941,7 +10941,7 @@
         <v>105</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -10957,7 +10957,7 @@
         <v>107</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -10965,7 +10965,7 @@
         <v>108</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -10981,7 +10981,7 @@
         <v>109</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -16444,16 +16444,16 @@
       </c>
       <c r="E3" s="19"/>
       <c r="F3" s="24" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="G3" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="21" t="s">
-        <v>30</v>
-      </c>
       <c r="I3" s="21" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J3" s="26"/>
       <c r="K3" s="27" t="s">
@@ -16510,16 +16510,16 @@
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
       <c r="F4" s="30" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J4" s="26"/>
       <c r="K4" s="31">

--- a/dcomtestcasegeneration/Database/DB_SAIC_AS28_R1.0_DCOM.xlsx
+++ b/dcomtestcasegeneration/Database/DB_SAIC_AS28_R1.0_DCOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HuyNA_repo\dcomtestcasegeneration\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{626D5335-D2E2-455C-A9DF-52EC4C9D7C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F853F670-F0B2-4BF3-A138-611C0200BF94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2925" yWindow="2355" windowWidth="12555" windowHeight="12915" tabRatio="903" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -400,9 +400,6 @@
     <t>R1.0</t>
   </si>
   <si>
-    <t>RC01</t>
-  </si>
-  <si>
     <t>Local</t>
   </si>
   <si>
@@ -419,6 +416,9 @@
   </si>
   <si>
     <t>00320190</t>
+  </si>
+  <si>
+    <t>RC02</t>
   </si>
 </sst>
 </file>
@@ -10825,7 +10825,7 @@
         <v>97</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -10841,7 +10841,7 @@
         <v>98</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -10849,7 +10849,7 @@
         <v>99</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -10869,7 +10869,7 @@
         <v>100</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -10877,7 +10877,7 @@
         <v>113</v>
       </c>
       <c r="B46" s="102" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -10885,7 +10885,7 @@
         <v>114</v>
       </c>
       <c r="B47" s="102" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -10917,7 +10917,7 @@
         <v>71</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -10925,7 +10925,7 @@
         <v>104</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -10941,7 +10941,7 @@
         <v>105</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -10949,7 +10949,7 @@
         <v>106</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -10965,7 +10965,7 @@
         <v>108</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -10981,7 +10981,7 @@
         <v>109</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -15298,7 +15298,7 @@
         <v>81</v>
       </c>
       <c r="D3" s="53" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E3" s="53"/>
       <c r="F3" s="24" t="s">
@@ -15372,7 +15372,7 @@
         <v>81</v>
       </c>
       <c r="D4" s="53" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E4" s="53"/>
       <c r="F4" s="30" t="s">
@@ -15446,7 +15446,7 @@
         <v>81</v>
       </c>
       <c r="D5" s="53" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E5" s="53"/>
       <c r="F5" s="24" t="s">
@@ -16293,7 +16293,7 @@
   <dimension ref="A1:Z111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="D3" sqref="A3:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16444,13 +16444,13 @@
       </c>
       <c r="E3" s="19"/>
       <c r="F3" s="24" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="G3" s="21" t="s">
         <v>30</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I3" s="21" t="s">
         <v>33</v>
@@ -16510,16 +16510,16 @@
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
       <c r="F4" s="30" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="G4" s="21" t="s">
         <v>33</v>
       </c>
       <c r="H4" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="21" t="s">
         <v>30</v>
-      </c>
-      <c r="I4" s="21" t="s">
-        <v>33</v>
       </c>
       <c r="J4" s="26"/>
       <c r="K4" s="31">

--- a/dcomtestcasegeneration/Database/DB_SAIC_AS28_R1.0_DCOM.xlsx
+++ b/dcomtestcasegeneration/Database/DB_SAIC_AS28_R1.0_DCOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HuyNA_repo\dcomtestcasegeneration\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1318A157-9AF9-4FEC-92C1-02A0C8B48109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D32567-9EBA-4375-8888-BBB9B8218765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1995" yWindow="2400" windowWidth="12555" windowHeight="12915" tabRatio="903" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3210" yWindow="4020" windowWidth="12555" windowHeight="12915" tabRatio="903" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Common_settings" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2093" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2107" uniqueCount="122">
   <si>
     <t>Sub_function</t>
   </si>
@@ -157,16 +157,10 @@
     <t>13</t>
   </si>
   <si>
-    <t>Create_fault</t>
-  </si>
-  <si>
     <t>Variable</t>
   </si>
   <si>
     <t>Value</t>
-  </si>
-  <si>
-    <t>E_pubc_ABSESP_ESP_RAW_0x212_Tm</t>
   </si>
   <si>
     <t>Comment</t>
@@ -175,43 +169,16 @@
     <t xml:space="preserve">Time_out </t>
   </si>
   <si>
-    <t>Vehicle_Speed</t>
-  </si>
-  <si>
-    <t>Engine_status</t>
-  </si>
-  <si>
-    <t>Power_mode</t>
-  </si>
-  <si>
-    <t>Security_unlock</t>
-  </si>
-  <si>
     <t>Common_Setting</t>
   </si>
   <si>
     <t>Common_Command</t>
   </si>
   <si>
-    <t>1906c1210001</t>
-  </si>
-  <si>
     <t>Request</t>
   </si>
   <si>
     <t>Response</t>
-  </si>
-  <si>
-    <t>1906xxxx</t>
-  </si>
-  <si>
-    <t>Read_dtc_status_active</t>
-  </si>
-  <si>
-    <t>Read_dtc_status_passive</t>
-  </si>
-  <si>
-    <t>Read_dtc_status_noDTC</t>
   </si>
   <si>
     <t>Priority2</t>
@@ -268,28 +235,10 @@
     <t>DID</t>
   </si>
   <si>
-    <t>f186</t>
-  </si>
-  <si>
-    <t>Invalid_counter</t>
-  </si>
-  <si>
-    <t>0103</t>
-  </si>
-  <si>
-    <t>Current_session</t>
-  </si>
-  <si>
     <t>Parameter/DTC</t>
   </si>
   <si>
-    <t>Current_Voltage</t>
-  </si>
-  <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>0104</t>
   </si>
   <si>
     <t>Information</t>
@@ -358,7 +307,49 @@
     <t>Database Directory</t>
   </si>
   <si>
-    <t>Local</t>
+    <t>Create_fault</t>
+  </si>
+  <si>
+    <t>E_pubc_ABSESP_ESP_RAW_0x212_Tm</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>Vehicle_Speed</t>
+  </si>
+  <si>
+    <t>Engine_status</t>
+  </si>
+  <si>
+    <t>Power_mode</t>
+  </si>
+  <si>
+    <t>Security_unlock</t>
+  </si>
+  <si>
+    <t>Read_dtc_status_active</t>
+  </si>
+  <si>
+    <t>1906c1210001</t>
+  </si>
+  <si>
+    <t>Read_dtc_status_passive</t>
+  </si>
+  <si>
+    <t>Read_dtc_status_noDTC</t>
+  </si>
+  <si>
+    <t>190209</t>
+  </si>
+  <si>
+    <t>Current_session</t>
+  </si>
+  <si>
+    <t>Invalid_counter</t>
+  </si>
+  <si>
+    <t>Current_Voltage</t>
   </si>
   <si>
     <t>SAIC</t>
@@ -373,7 +364,13 @@
     <t>RC01</t>
   </si>
   <si>
+    <t>Local</t>
+  </si>
+  <si>
     <t>D:\HuyNA_repo\dcomtestcasegeneration\Database\DB_SAIC_AS28_R1.0_DCOM.xlsx</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>D:\HuyNA_repo\dcomtestcasegeneration\Template</t>
@@ -398,6 +395,21 @@
   </si>
   <si>
     <t>03</t>
+  </si>
+  <si>
+    <t>1906xxxx</t>
+  </si>
+  <si>
+    <t>590209</t>
+  </si>
+  <si>
+    <t>f186</t>
+  </si>
+  <si>
+    <t>0103</t>
+  </si>
+  <si>
+    <t>0104</t>
   </si>
 </sst>
 </file>
@@ -10535,8 +10547,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10551,130 +10563,130 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
-        <v>500</v>
+        <v>88</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2">
-        <v>500</v>
+        <v>88</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2">
-        <v>500</v>
+        <v>88</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2">
-        <v>500</v>
+        <v>88</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2">
-        <v>500</v>
+        <v>88</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="5">
-        <v>190209</v>
-      </c>
-      <c r="C13" s="5">
-        <v>590209</v>
+        <v>97</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -10685,40 +10697,40 @@
     </row>
     <row r="20" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
     </row>
     <row r="21" spans="1:4" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -10761,118 +10773,122 @@
     </row>
     <row r="30" spans="1:4" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
     </row>
     <row r="31" spans="1:4" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B43" s="9"/>
+        <v>83</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B44" s="9"/>
+        <v>84</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="B46" s="102" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="101" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="B47" s="102" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
@@ -10888,20 +10904,20 @@
         <v>15</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>26</v>
@@ -10912,12 +10928,12 @@
         <v>19</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>26</v>
@@ -10925,7 +10941,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>26</v>
@@ -10933,15 +10949,15 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>26</v>
@@ -10952,12 +10968,12 @@
         <v>17</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="B61" s="8" t="s">
         <v>26</v>
@@ -10965,7 +10981,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="B62" s="8" t="s">
         <v>26</v>
@@ -11060,11 +11076,11 @@
         <v>2</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E2" s="17"/>
       <c r="F2" s="17" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>9</v>
@@ -11080,7 +11096,7 @@
         <v>14</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="M2" s="17" t="s">
         <v>26</v>
@@ -11132,7 +11148,7 @@
       <c r="D3" s="23"/>
       <c r="E3" s="23"/>
       <c r="F3" s="24" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
@@ -11192,7 +11208,7 @@
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
       <c r="F4" s="30" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="G4" s="21"/>
       <c r="H4" s="21"/>
@@ -11205,7 +11221,7 @@
         <v>15</v>
       </c>
       <c r="M4" s="32" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N4" s="33"/>
       <c r="O4" s="33"/>
@@ -11239,7 +11255,7 @@
         <v>3</v>
       </c>
       <c r="M5" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N5" s="21"/>
       <c r="O5" s="21"/>
@@ -11273,10 +11289,10 @@
         <v>4</v>
       </c>
       <c r="M6" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N6" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O6" s="21"/>
       <c r="P6" s="21"/>
@@ -11309,13 +11325,13 @@
         <v>16</v>
       </c>
       <c r="M7" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N7" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O7" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P7" s="21"/>
       <c r="Q7" s="21"/>
@@ -11347,16 +11363,16 @@
         <v>17</v>
       </c>
       <c r="M8" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N8" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O8" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P8" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="21"/>
       <c r="R8" s="21"/>
@@ -11387,19 +11403,19 @@
         <v>5</v>
       </c>
       <c r="M9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R9" s="21"/>
       <c r="S9" s="21"/>
@@ -11429,22 +11445,22 @@
         <v>18</v>
       </c>
       <c r="M10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S10" s="21"/>
       <c r="T10" s="21"/>
@@ -11473,25 +11489,25 @@
         <v>6</v>
       </c>
       <c r="M11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T11" s="21"/>
       <c r="U11" s="21"/>
@@ -11519,28 +11535,28 @@
         <v>19</v>
       </c>
       <c r="M12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U12" s="21"/>
       <c r="V12" s="21"/>
@@ -11567,31 +11583,31 @@
         <v>20</v>
       </c>
       <c r="M13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V13" s="21"/>
       <c r="W13" s="21"/>
@@ -11617,34 +11633,34 @@
         <v>21</v>
       </c>
       <c r="M14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W14" s="21"/>
       <c r="X14" s="21"/>
@@ -11669,37 +11685,37 @@
         <v>22</v>
       </c>
       <c r="M15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X15" s="21"/>
       <c r="Y15" s="21"/>
@@ -11723,40 +11739,40 @@
         <v>37</v>
       </c>
       <c r="M16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Y16" s="21"/>
       <c r="Z16" s="34"/>
@@ -11891,59 +11907,59 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="43" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B100" s="44" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="45" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B101" s="44">
         <v>1</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="46" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B102" s="47">
         <v>1</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="46" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B103" s="47">
         <v>1</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="48" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B104" s="49">
         <v>0</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="50" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B110" s="50"/>
       <c r="C110" s="50"/>
@@ -11954,13 +11970,13 @@
         <v>7</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -12059,11 +12075,11 @@
         <v>2</v>
       </c>
       <c r="D2" s="96" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E2" s="67"/>
       <c r="F2" s="17" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="G2" s="66" t="s">
         <v>9</v>
@@ -12079,7 +12095,7 @@
         <v>14</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="M2" s="17" t="s">
         <v>26</v>
@@ -12131,7 +12147,7 @@
       <c r="D3" s="22"/>
       <c r="E3" s="23"/>
       <c r="F3" s="24" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
@@ -12191,7 +12207,7 @@
       <c r="D4" s="22"/>
       <c r="E4" s="23"/>
       <c r="F4" s="30" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="G4" s="21"/>
       <c r="H4" s="21"/>
@@ -12204,7 +12220,7 @@
         <v>15</v>
       </c>
       <c r="M4" s="32" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N4" s="33"/>
       <c r="O4" s="33"/>
@@ -12238,7 +12254,7 @@
         <v>3</v>
       </c>
       <c r="M5" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N5" s="21"/>
       <c r="O5" s="21"/>
@@ -12272,10 +12288,10 @@
         <v>4</v>
       </c>
       <c r="M6" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N6" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O6" s="21"/>
       <c r="P6" s="21"/>
@@ -12308,13 +12324,13 @@
         <v>16</v>
       </c>
       <c r="M7" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N7" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O7" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P7" s="21"/>
       <c r="Q7" s="21"/>
@@ -12346,16 +12362,16 @@
         <v>17</v>
       </c>
       <c r="M8" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N8" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O8" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P8" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="21"/>
       <c r="R8" s="21"/>
@@ -12386,19 +12402,19 @@
         <v>5</v>
       </c>
       <c r="M9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R9" s="21"/>
       <c r="S9" s="21"/>
@@ -12428,22 +12444,22 @@
         <v>18</v>
       </c>
       <c r="M10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S10" s="21"/>
       <c r="T10" s="21"/>
@@ -12472,25 +12488,25 @@
         <v>6</v>
       </c>
       <c r="M11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T11" s="21"/>
       <c r="U11" s="21"/>
@@ -12518,28 +12534,28 @@
         <v>19</v>
       </c>
       <c r="M12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U12" s="21"/>
       <c r="V12" s="21"/>
@@ -12566,31 +12582,31 @@
         <v>20</v>
       </c>
       <c r="M13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V13" s="21"/>
       <c r="W13" s="21"/>
@@ -12616,34 +12632,34 @@
         <v>21</v>
       </c>
       <c r="M14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W14" s="21"/>
       <c r="X14" s="21"/>
@@ -12668,37 +12684,37 @@
         <v>22</v>
       </c>
       <c r="M15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X15" s="21"/>
       <c r="Y15" s="21"/>
@@ -12722,40 +12738,40 @@
         <v>37</v>
       </c>
       <c r="M16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Y16" s="21"/>
       <c r="Z16" s="34"/>
@@ -12906,59 +12922,59 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="43" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B100" s="44" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="45" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B101" s="44">
         <v>1</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="46" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B102" s="47">
         <v>1</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="46" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B103" s="47">
         <v>1</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="48" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B104" s="49">
         <v>0</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="50" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B110" s="50"/>
       <c r="C110" s="50"/>
@@ -12969,13 +12985,13 @@
         <v>7</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D111" s="42" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -13074,11 +13090,11 @@
         <v>2</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E2" s="17"/>
       <c r="F2" s="17" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>9</v>
@@ -13094,7 +13110,7 @@
         <v>14</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="M2" s="17" t="s">
         <v>26</v>
@@ -13146,7 +13162,7 @@
       <c r="D3" s="23"/>
       <c r="E3" s="23"/>
       <c r="F3" s="24" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
@@ -13206,7 +13222,7 @@
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
       <c r="F4" s="30" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="G4" s="21"/>
       <c r="H4" s="21"/>
@@ -13219,7 +13235,7 @@
         <v>15</v>
       </c>
       <c r="M4" s="32" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N4" s="33"/>
       <c r="O4" s="33"/>
@@ -13253,7 +13269,7 @@
         <v>3</v>
       </c>
       <c r="M5" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N5" s="21"/>
       <c r="O5" s="21"/>
@@ -13287,10 +13303,10 @@
         <v>4</v>
       </c>
       <c r="M6" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N6" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O6" s="21"/>
       <c r="P6" s="21"/>
@@ -13323,13 +13339,13 @@
         <v>16</v>
       </c>
       <c r="M7" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N7" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O7" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P7" s="21"/>
       <c r="Q7" s="21"/>
@@ -13361,16 +13377,16 @@
         <v>17</v>
       </c>
       <c r="M8" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N8" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O8" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P8" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="21"/>
       <c r="R8" s="21"/>
@@ -13401,19 +13417,19 @@
         <v>5</v>
       </c>
       <c r="M9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R9" s="21"/>
       <c r="S9" s="21"/>
@@ -13443,22 +13459,22 @@
         <v>18</v>
       </c>
       <c r="M10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S10" s="21"/>
       <c r="T10" s="21"/>
@@ -13487,25 +13503,25 @@
         <v>6</v>
       </c>
       <c r="M11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T11" s="21"/>
       <c r="U11" s="21"/>
@@ -13533,28 +13549,28 @@
         <v>19</v>
       </c>
       <c r="M12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U12" s="21"/>
       <c r="V12" s="21"/>
@@ -13581,31 +13597,31 @@
         <v>20</v>
       </c>
       <c r="M13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V13" s="21"/>
       <c r="W13" s="21"/>
@@ -13631,34 +13647,34 @@
         <v>21</v>
       </c>
       <c r="M14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W14" s="21"/>
       <c r="X14" s="21"/>
@@ -13683,37 +13699,37 @@
         <v>22</v>
       </c>
       <c r="M15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X15" s="21"/>
       <c r="Y15" s="21"/>
@@ -13737,40 +13753,40 @@
         <v>37</v>
       </c>
       <c r="M16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Y16" s="21"/>
       <c r="Z16" s="34"/>
@@ -13912,59 +13928,59 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="43" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B100" s="44" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="45" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B101" s="44">
         <v>1</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="46" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B102" s="47">
         <v>1</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="46" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B103" s="47">
         <v>1</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="48" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B104" s="49">
         <v>0</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="50" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B110" s="50"/>
       <c r="C110" s="50"/>
@@ -13975,13 +13991,13 @@
         <v>7</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -14080,11 +14096,11 @@
         <v>2</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E2" s="17"/>
       <c r="F2" s="17" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>9</v>
@@ -14100,7 +14116,7 @@
         <v>14</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="M2" s="17" t="s">
         <v>26</v>
@@ -14152,7 +14168,7 @@
       <c r="D3" s="23"/>
       <c r="E3" s="23"/>
       <c r="F3" s="24" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
@@ -14212,7 +14228,7 @@
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
       <c r="F4" s="30" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="G4" s="21"/>
       <c r="H4" s="21"/>
@@ -14225,7 +14241,7 @@
         <v>15</v>
       </c>
       <c r="M4" s="32" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N4" s="33"/>
       <c r="O4" s="33"/>
@@ -14259,7 +14275,7 @@
         <v>3</v>
       </c>
       <c r="M5" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N5" s="21"/>
       <c r="O5" s="21"/>
@@ -14293,10 +14309,10 @@
         <v>4</v>
       </c>
       <c r="M6" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N6" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O6" s="21"/>
       <c r="P6" s="21"/>
@@ -14329,13 +14345,13 @@
         <v>16</v>
       </c>
       <c r="M7" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N7" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O7" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P7" s="21"/>
       <c r="Q7" s="21"/>
@@ -14367,16 +14383,16 @@
         <v>17</v>
       </c>
       <c r="M8" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N8" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O8" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P8" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="21"/>
       <c r="R8" s="21"/>
@@ -14407,19 +14423,19 @@
         <v>5</v>
       </c>
       <c r="M9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R9" s="21"/>
       <c r="S9" s="21"/>
@@ -14449,22 +14465,22 @@
         <v>18</v>
       </c>
       <c r="M10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S10" s="21"/>
       <c r="T10" s="21"/>
@@ -14493,25 +14509,25 @@
         <v>6</v>
       </c>
       <c r="M11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T11" s="21"/>
       <c r="U11" s="21"/>
@@ -14539,28 +14555,28 @@
         <v>19</v>
       </c>
       <c r="M12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U12" s="21"/>
       <c r="V12" s="21"/>
@@ -14587,31 +14603,31 @@
         <v>20</v>
       </c>
       <c r="M13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V13" s="21"/>
       <c r="W13" s="21"/>
@@ -14637,34 +14653,34 @@
         <v>21</v>
       </c>
       <c r="M14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W14" s="21"/>
       <c r="X14" s="21"/>
@@ -14689,37 +14705,37 @@
         <v>22</v>
       </c>
       <c r="M15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X15" s="21"/>
       <c r="Y15" s="21"/>
@@ -14743,40 +14759,40 @@
         <v>37</v>
       </c>
       <c r="M16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Y16" s="21"/>
       <c r="Z16" s="34"/>
@@ -14886,59 +14902,59 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="43" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B100" s="44" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="45" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B101" s="44">
         <v>1</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="46" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B102" s="47">
         <v>1</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="46" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B103" s="47">
         <v>1</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="48" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B104" s="49">
         <v>0</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="50" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B110" s="50"/>
       <c r="C110" s="50"/>
@@ -14949,13 +14965,13 @@
         <v>7</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -14994,7 +15010,7 @@
   <dimension ref="A1:Z111"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:I7"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15069,11 +15085,11 @@
         <v>2</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E2" s="17"/>
       <c r="F2" s="17" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>9</v>
@@ -15089,7 +15105,7 @@
         <v>14</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="M2" s="17" t="s">
         <v>26</v>
@@ -15136,20 +15152,20 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="C3" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="53" t="s">
         <v>114</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="D3" s="53" t="s">
-        <v>115</v>
       </c>
       <c r="E3" s="53"/>
       <c r="F3" s="24" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G3" s="25" t="s">
         <v>29</v>
@@ -15158,7 +15174,7 @@
         <v>29</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J3" s="54"/>
       <c r="K3" s="17" t="s">
@@ -15210,23 +15226,23 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="53" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B4" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="53" t="s">
         <v>114</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="D4" s="53" t="s">
-        <v>115</v>
       </c>
       <c r="E4" s="53"/>
       <c r="F4" s="30" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H4" s="25" t="s">
         <v>29</v>
@@ -15242,65 +15258,65 @@
         <v>15</v>
       </c>
       <c r="M4" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N4" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O4" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P4" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q4" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R4" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S4" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T4" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U4" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V4" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W4" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X4" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Y4" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Z4" s="58"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B5" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="53" t="s">
         <v>114</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="D5" s="53" t="s">
-        <v>115</v>
       </c>
       <c r="E5" s="53"/>
       <c r="F5" s="24" t="s">
         <v>9</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H5" s="25" t="s">
         <v>29</v>
@@ -15316,43 +15332,43 @@
         <v>3</v>
       </c>
       <c r="M5" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Z5" s="58"/>
     </row>
@@ -15369,7 +15385,7 @@
         <v>29</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I6" s="25" t="s">
         <v>29</v>
@@ -15382,43 +15398,43 @@
         <v>4</v>
       </c>
       <c r="M6" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N6" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O6" s="2">
         <v>10</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V6" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W6" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X6" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Y6" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Z6" s="58"/>
     </row>
@@ -15438,7 +15454,7 @@
         <v>29</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J7" s="54"/>
       <c r="K7" s="57">
@@ -15448,43 +15464,43 @@
         <v>16</v>
       </c>
       <c r="M7" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N7" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O7" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P7" s="2">
         <v>1004</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R7" s="2">
         <v>100400</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U7" s="2">
         <v>1004</v>
       </c>
       <c r="V7" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W7" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X7" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Y7" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Z7" s="58"/>
     </row>
@@ -15506,43 +15522,43 @@
         <v>17</v>
       </c>
       <c r="M8" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N8" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O8" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P8" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W8" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X8" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Y8" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Z8" s="58"/>
     </row>
@@ -15564,25 +15580,25 @@
         <v>5</v>
       </c>
       <c r="M9" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N9" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O9" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P9" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q9" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R9" s="2">
         <v>100100</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T9" s="2">
         <v>100200</v>
@@ -15591,16 +15607,16 @@
         <v>100200</v>
       </c>
       <c r="V9" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W9" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X9" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Y9" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Z9" s="58"/>
     </row>
@@ -15622,43 +15638,43 @@
         <v>18</v>
       </c>
       <c r="M10" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N10" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O10" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P10" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q10" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R10" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W10" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X10" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Y10" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Z10" s="58"/>
     </row>
@@ -15680,25 +15696,25 @@
         <v>6</v>
       </c>
       <c r="M11" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N11" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O11" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P11" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q11" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R11" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S11" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T11" s="2">
         <v>1002</v>
@@ -15707,16 +15723,16 @@
         <v>1002</v>
       </c>
       <c r="V11" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W11" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X11" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Y11" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Z11" s="58"/>
     </row>
@@ -15738,43 +15754,43 @@
         <v>19</v>
       </c>
       <c r="M12" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N12" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O12" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P12" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q12" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R12" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S12" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T12" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U12" s="2">
         <v>1002</v>
       </c>
       <c r="V12" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W12" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X12" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Y12" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Z12" s="58"/>
     </row>
@@ -15796,43 +15812,43 @@
         <v>20</v>
       </c>
       <c r="M13" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N13" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O13" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P13" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q13" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R13" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S13" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T13" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U13" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V13" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W13" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X13" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Y13" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Z13" s="58"/>
     </row>
@@ -15854,43 +15870,43 @@
         <v>21</v>
       </c>
       <c r="M14" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N14" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O14" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P14" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q14" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R14" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S14" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T14" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U14" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V14" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W14" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X14" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Y14" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Z14" s="58"/>
     </row>
@@ -15912,43 +15928,43 @@
         <v>22</v>
       </c>
       <c r="M15" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N15" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O15" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P15" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q15" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R15" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S15" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T15" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U15" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V15" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W15" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X15" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Y15" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Z15" s="58"/>
     </row>
@@ -15970,43 +15986,43 @@
         <v>37</v>
       </c>
       <c r="M16" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N16" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O16" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P16" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q16" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R16" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S16" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T16" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U16" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V16" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W16" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X16" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Y16" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Z16" s="58"/>
     </row>
@@ -16043,59 +16059,59 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="43" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B100" s="44" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="45" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B101" s="44">
         <v>1</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="46" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B102" s="47">
         <v>1</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="46" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B103" s="47">
         <v>1</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="48" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B104" s="49">
         <v>0</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="50" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B110" s="50"/>
       <c r="C110" s="50"/>
@@ -16106,13 +16122,13 @@
         <v>7</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -16140,7 +16156,7 @@
   <dimension ref="A1:Z111"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D3" sqref="A3:D4"/>
+      <selection activeCell="A3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16211,11 +16227,11 @@
         <v>2</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E2" s="17"/>
       <c r="F2" s="17" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>9</v>
@@ -16231,7 +16247,7 @@
         <v>14</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="M2" s="17" t="s">
         <v>26</v>
@@ -16278,20 +16294,20 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>114</v>
-      </c>
       <c r="C3" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E3" s="19"/>
       <c r="F3" s="24" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G3" s="21" t="s">
         <v>29</v>
@@ -16357,7 +16373,7 @@
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
       <c r="F4" s="30" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="G4" s="21" t="s">
         <v>29</v>
@@ -16376,43 +16392,43 @@
         <v>15</v>
       </c>
       <c r="M4" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N4" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O4" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P4" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q4" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R4" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S4" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T4" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U4" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V4" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W4" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X4" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Y4" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Z4" s="39">
         <v>0</v>
@@ -16436,43 +16452,43 @@
         <v>3</v>
       </c>
       <c r="M5" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N5" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O5" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P5" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q5" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R5" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S5" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T5" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U5" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V5" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W5" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X5" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Y5" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Z5" s="39">
         <v>0</v>
@@ -16496,43 +16512,43 @@
         <v>4</v>
       </c>
       <c r="M6" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N6" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O6" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P6" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q6" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R6" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S6" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T6" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U6" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V6" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W6" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X6" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Y6" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Z6" s="39">
         <v>0</v>
@@ -16556,43 +16572,43 @@
         <v>16</v>
       </c>
       <c r="M7" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N7" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O7" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P7" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q7" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R7" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S7" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T7" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U7" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V7" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W7" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X7" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Y7" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Z7" s="39">
         <v>0</v>
@@ -16616,43 +16632,43 @@
         <v>17</v>
       </c>
       <c r="M8" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N8" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O8" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P8" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R8" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S8" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T8" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U8" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V8" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W8" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X8" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Y8" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Z8" s="39">
         <v>0</v>
@@ -16676,43 +16692,43 @@
         <v>5</v>
       </c>
       <c r="M9" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N9" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O9" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P9" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q9" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R9" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S9" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T9" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U9" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V9" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W9" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X9" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Y9" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Z9" s="39">
         <v>0</v>
@@ -16736,43 +16752,43 @@
         <v>18</v>
       </c>
       <c r="M10" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N10" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O10" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P10" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q10" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R10" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S10" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T10" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U10" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V10" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W10" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X10" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Y10" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Z10" s="39">
         <v>0</v>
@@ -16796,43 +16812,43 @@
         <v>6</v>
       </c>
       <c r="M11" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N11" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O11" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P11" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q11" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R11" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S11" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T11" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U11" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V11" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W11" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X11" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Y11" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Z11" s="39">
         <v>0</v>
@@ -16856,43 +16872,43 @@
         <v>19</v>
       </c>
       <c r="M12" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N12" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O12" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P12" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q12" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R12" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S12" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T12" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U12" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V12" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W12" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X12" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Y12" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Z12" s="39">
         <v>0</v>
@@ -16916,43 +16932,43 @@
         <v>20</v>
       </c>
       <c r="M13" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N13" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O13" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P13" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q13" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R13" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S13" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T13" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U13" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V13" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W13" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X13" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Y13" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Z13" s="39">
         <v>0</v>
@@ -16976,43 +16992,43 @@
         <v>21</v>
       </c>
       <c r="M14" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N14" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O14" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P14" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q14" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R14" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S14" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T14" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U14" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V14" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W14" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X14" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Y14" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Z14" s="39">
         <v>0</v>
@@ -17036,43 +17052,43 @@
         <v>22</v>
       </c>
       <c r="M15" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N15" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O15" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P15" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q15" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R15" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S15" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T15" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U15" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V15" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W15" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X15" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Y15" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Z15" s="39">
         <v>0</v>
@@ -17096,43 +17112,43 @@
         <v>37</v>
       </c>
       <c r="M16" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N16" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O16" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P16" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q16" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R16" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S16" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T16" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U16" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V16" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W16" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X16" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Y16" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Z16" s="39">
         <v>0</v>
@@ -17173,59 +17189,59 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="43" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B100" s="44" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="45" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B101" s="44">
         <v>1</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="46" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B102" s="47">
         <v>1</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="46" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B103" s="47">
         <v>1</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="48" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B104" s="49">
         <v>0</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="50" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B110" s="50"/>
       <c r="C110" s="50"/>
@@ -17236,13 +17252,13 @@
         <v>7</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -17341,11 +17357,11 @@
         <v>2</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E2" s="17"/>
       <c r="F2" s="17" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>9</v>
@@ -17361,7 +17377,7 @@
         <v>14</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="M2" s="17" t="s">
         <v>26</v>
@@ -17413,7 +17429,7 @@
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
       <c r="F3" s="24" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G3" s="25"/>
       <c r="H3" s="25"/>
@@ -17473,7 +17489,7 @@
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
       <c r="F4" s="30" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="G4" s="25"/>
       <c r="H4" s="25"/>
@@ -17486,7 +17502,7 @@
         <v>15</v>
       </c>
       <c r="M4" s="32" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N4" s="33"/>
       <c r="O4" s="33"/>
@@ -17520,7 +17536,7 @@
         <v>3</v>
       </c>
       <c r="M5" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N5" s="21"/>
       <c r="O5" s="21"/>
@@ -17554,10 +17570,10 @@
         <v>4</v>
       </c>
       <c r="M6" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N6" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O6" s="21"/>
       <c r="P6" s="21"/>
@@ -17590,13 +17606,13 @@
         <v>16</v>
       </c>
       <c r="M7" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N7" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O7" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P7" s="21"/>
       <c r="Q7" s="21"/>
@@ -17628,16 +17644,16 @@
         <v>17</v>
       </c>
       <c r="M8" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N8" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O8" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P8" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="21"/>
       <c r="R8" s="21"/>
@@ -17668,19 +17684,19 @@
         <v>5</v>
       </c>
       <c r="M9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R9" s="21"/>
       <c r="S9" s="21"/>
@@ -17710,22 +17726,22 @@
         <v>18</v>
       </c>
       <c r="M10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S10" s="21"/>
       <c r="T10" s="21"/>
@@ -17754,25 +17770,25 @@
         <v>6</v>
       </c>
       <c r="M11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T11" s="21"/>
       <c r="U11" s="21"/>
@@ -17800,28 +17816,28 @@
         <v>19</v>
       </c>
       <c r="M12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U12" s="21"/>
       <c r="V12" s="21"/>
@@ -17848,31 +17864,31 @@
         <v>20</v>
       </c>
       <c r="M13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V13" s="21"/>
       <c r="W13" s="21"/>
@@ -17898,34 +17914,34 @@
         <v>21</v>
       </c>
       <c r="M14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W14" s="21"/>
       <c r="X14" s="21"/>
@@ -17950,37 +17966,37 @@
         <v>22</v>
       </c>
       <c r="M15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X15" s="21"/>
       <c r="Y15" s="21"/>
@@ -18004,40 +18020,40 @@
         <v>37</v>
       </c>
       <c r="M16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Y16" s="21"/>
       <c r="Z16" s="34"/>
@@ -18075,59 +18091,59 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="43" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B100" s="44" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="45" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B101" s="44">
         <v>1</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="46" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B102" s="47">
         <v>1</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="46" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B103" s="47">
         <v>1</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="48" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B104" s="49">
         <v>0</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="50" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B110" s="50"/>
       <c r="C110" s="50"/>
@@ -18138,13 +18154,13 @@
         <v>7</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -18237,17 +18253,17 @@
         <v>0</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E2" s="17"/>
       <c r="F2" s="17" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>9</v>
@@ -18263,7 +18279,7 @@
         <v>14</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="M2" s="17" t="s">
         <v>26</v>
@@ -18315,7 +18331,7 @@
       <c r="D3" s="23"/>
       <c r="E3" s="23"/>
       <c r="F3" s="24" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G3" s="25"/>
       <c r="H3" s="25"/>
@@ -18375,7 +18391,7 @@
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
       <c r="F4" s="30" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="G4" s="25"/>
       <c r="H4" s="25"/>
@@ -18388,7 +18404,7 @@
         <v>15</v>
       </c>
       <c r="M4" s="32" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N4" s="33"/>
       <c r="O4" s="33"/>
@@ -18422,7 +18438,7 @@
         <v>3</v>
       </c>
       <c r="M5" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N5" s="21"/>
       <c r="O5" s="21"/>
@@ -18456,10 +18472,10 @@
         <v>4</v>
       </c>
       <c r="M6" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N6" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O6" s="21"/>
       <c r="P6" s="21"/>
@@ -18492,13 +18508,13 @@
         <v>16</v>
       </c>
       <c r="M7" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N7" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O7" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P7" s="21"/>
       <c r="Q7" s="21"/>
@@ -18530,16 +18546,16 @@
         <v>17</v>
       </c>
       <c r="M8" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N8" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O8" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P8" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="21"/>
       <c r="R8" s="21"/>
@@ -18570,19 +18586,19 @@
         <v>5</v>
       </c>
       <c r="M9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R9" s="21"/>
       <c r="S9" s="21"/>
@@ -18612,22 +18628,22 @@
         <v>18</v>
       </c>
       <c r="M10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S10" s="21"/>
       <c r="T10" s="21"/>
@@ -18656,25 +18672,25 @@
         <v>6</v>
       </c>
       <c r="M11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T11" s="21"/>
       <c r="U11" s="21"/>
@@ -18702,28 +18718,28 @@
         <v>19</v>
       </c>
       <c r="M12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U12" s="21"/>
       <c r="V12" s="21"/>
@@ -18750,31 +18766,31 @@
         <v>20</v>
       </c>
       <c r="M13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V13" s="21"/>
       <c r="W13" s="21"/>
@@ -18800,34 +18816,34 @@
         <v>21</v>
       </c>
       <c r="M14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W14" s="21"/>
       <c r="X14" s="21"/>
@@ -18852,37 +18868,37 @@
         <v>22</v>
       </c>
       <c r="M15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X15" s="21"/>
       <c r="Y15" s="21"/>
@@ -18906,40 +18922,40 @@
         <v>37</v>
       </c>
       <c r="M16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Y16" s="21"/>
       <c r="Z16" s="34"/>
@@ -19049,59 +19065,59 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="43" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B100" s="44" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="45" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B101" s="44">
         <v>1</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="46" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B102" s="47">
         <v>1</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="46" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B103" s="47">
         <v>1</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="48" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B104" s="49">
         <v>0</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="50" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B110" s="50"/>
       <c r="C110" s="50"/>
@@ -19112,13 +19128,13 @@
         <v>7</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -19208,20 +19224,20 @@
     </row>
     <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="77" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C2" s="77" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="78" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>9</v>
@@ -19237,7 +19253,7 @@
         <v>14</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="M2" s="10" t="s">
         <v>26</v>
@@ -19289,7 +19305,7 @@
       <c r="D3" s="52"/>
       <c r="E3" s="23"/>
       <c r="F3" s="24" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G3" s="25"/>
       <c r="H3" s="25"/>
@@ -19349,7 +19365,7 @@
       <c r="D4" s="52"/>
       <c r="E4" s="23"/>
       <c r="F4" s="30" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="G4" s="25"/>
       <c r="H4" s="25"/>
@@ -19362,7 +19378,7 @@
         <v>15</v>
       </c>
       <c r="M4" s="32" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N4" s="33"/>
       <c r="O4" s="33"/>
@@ -19396,7 +19412,7 @@
         <v>3</v>
       </c>
       <c r="M5" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N5" s="21"/>
       <c r="O5" s="21"/>
@@ -19430,10 +19446,10 @@
         <v>4</v>
       </c>
       <c r="M6" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N6" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O6" s="21"/>
       <c r="P6" s="21"/>
@@ -19466,13 +19482,13 @@
         <v>16</v>
       </c>
       <c r="M7" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N7" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O7" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P7" s="21"/>
       <c r="Q7" s="21"/>
@@ -19504,16 +19520,16 @@
         <v>17</v>
       </c>
       <c r="M8" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N8" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O8" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P8" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="21"/>
       <c r="R8" s="21"/>
@@ -19544,19 +19560,19 @@
         <v>5</v>
       </c>
       <c r="M9" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N9" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O9" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P9" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q9" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R9" s="21"/>
       <c r="S9" s="21"/>
@@ -19586,22 +19602,22 @@
         <v>18</v>
       </c>
       <c r="M10" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N10" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O10" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P10" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q10" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R10" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S10" s="21"/>
       <c r="T10" s="21"/>
@@ -19630,25 +19646,25 @@
         <v>6</v>
       </c>
       <c r="M11" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N11" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O11" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P11" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q11" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R11" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S11" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T11" s="21"/>
       <c r="U11" s="21"/>
@@ -19676,28 +19692,28 @@
         <v>19</v>
       </c>
       <c r="M12" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N12" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O12" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P12" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q12" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R12" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S12" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T12" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U12" s="21"/>
       <c r="V12" s="21"/>
@@ -19724,31 +19740,31 @@
         <v>20</v>
       </c>
       <c r="M13" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N13" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O13" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P13" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q13" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R13" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S13" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T13" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U13" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V13" s="21"/>
       <c r="W13" s="21"/>
@@ -19774,34 +19790,34 @@
         <v>21</v>
       </c>
       <c r="M14" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N14" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O14" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P14" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q14" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R14" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S14" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T14" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U14" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V14" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W14" s="21"/>
       <c r="X14" s="21"/>
@@ -19826,37 +19842,37 @@
         <v>22</v>
       </c>
       <c r="M15" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N15" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O15" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P15" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q15" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R15" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S15" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T15" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U15" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V15" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W15" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X15" s="21"/>
       <c r="Y15" s="21"/>
@@ -19880,40 +19896,40 @@
         <v>37</v>
       </c>
       <c r="M16" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N16" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O16" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P16" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q16" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R16" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S16" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T16" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U16" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V16" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W16" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X16" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Y16" s="21"/>
       <c r="Z16" s="34"/>
@@ -20177,59 +20193,59 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="85" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B100" s="86" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="87" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B101" s="86">
         <v>1</v>
       </c>
       <c r="C101" s="76" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="88" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B102" s="89">
         <v>1</v>
       </c>
       <c r="C102" s="76" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="88" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B103" s="89">
         <v>1</v>
       </c>
       <c r="C103" s="76" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="90" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B104" s="91">
         <v>0</v>
       </c>
       <c r="C104" s="76" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="92" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B110" s="92"/>
       <c r="C110" s="92"/>
@@ -20240,13 +20256,13 @@
         <v>7</v>
       </c>
       <c r="B111" s="76" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C111" s="76" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D111" s="76" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -20339,17 +20355,17 @@
         <v>0</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E2" s="17"/>
       <c r="F2" s="17" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>9</v>
@@ -20365,7 +20381,7 @@
         <v>14</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="M2" s="17" t="s">
         <v>26</v>
@@ -20417,7 +20433,7 @@
       <c r="D3" s="52"/>
       <c r="E3" s="23"/>
       <c r="F3" s="24" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G3" s="25"/>
       <c r="H3" s="25"/>
@@ -20477,7 +20493,7 @@
       <c r="D4" s="52"/>
       <c r="E4" s="23"/>
       <c r="F4" s="30" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="G4" s="25"/>
       <c r="H4" s="25"/>
@@ -20490,7 +20506,7 @@
         <v>15</v>
       </c>
       <c r="M4" s="32" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N4" s="33"/>
       <c r="O4" s="33"/>
@@ -20524,7 +20540,7 @@
         <v>3</v>
       </c>
       <c r="M5" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N5" s="21"/>
       <c r="O5" s="21"/>
@@ -20558,10 +20574,10 @@
         <v>4</v>
       </c>
       <c r="M6" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N6" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O6" s="21"/>
       <c r="P6" s="21"/>
@@ -20594,13 +20610,13 @@
         <v>16</v>
       </c>
       <c r="M7" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N7" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O7" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P7" s="21"/>
       <c r="Q7" s="21"/>
@@ -20632,16 +20648,16 @@
         <v>17</v>
       </c>
       <c r="M8" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N8" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O8" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P8" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="21"/>
       <c r="R8" s="21"/>
@@ -20672,19 +20688,19 @@
         <v>5</v>
       </c>
       <c r="M9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R9" s="21"/>
       <c r="S9" s="21"/>
@@ -20714,22 +20730,22 @@
         <v>18</v>
       </c>
       <c r="M10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S10" s="21"/>
       <c r="T10" s="21"/>
@@ -20758,25 +20774,25 @@
         <v>6</v>
       </c>
       <c r="M11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T11" s="21"/>
       <c r="U11" s="21"/>
@@ -20804,28 +20820,28 @@
         <v>19</v>
       </c>
       <c r="M12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U12" s="21"/>
       <c r="V12" s="21"/>
@@ -20852,31 +20868,31 @@
         <v>20</v>
       </c>
       <c r="M13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V13" s="21"/>
       <c r="W13" s="21"/>
@@ -20902,34 +20918,34 @@
         <v>21</v>
       </c>
       <c r="M14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W14" s="21"/>
       <c r="X14" s="21"/>
@@ -20954,37 +20970,37 @@
         <v>22</v>
       </c>
       <c r="M15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X15" s="21"/>
       <c r="Y15" s="21"/>
@@ -21008,40 +21024,40 @@
         <v>37</v>
       </c>
       <c r="M16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Y16" s="21"/>
       <c r="Z16" s="34"/>
@@ -21161,59 +21177,59 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="43" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B100" s="44" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="45" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B101" s="44">
         <v>1</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="46" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B102" s="47">
         <v>1</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="46" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B103" s="47">
         <v>1</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="48" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B104" s="49">
         <v>0</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="50" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B110" s="50"/>
       <c r="C110" s="50"/>
@@ -21224,13 +21240,13 @@
         <v>7</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -21329,11 +21345,11 @@
         <v>2</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E2" s="17"/>
       <c r="F2" s="17" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>9</v>
@@ -21349,7 +21365,7 @@
         <v>14</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="M2" s="17" t="s">
         <v>26</v>
@@ -21401,7 +21417,7 @@
       <c r="D3" s="22"/>
       <c r="E3" s="23"/>
       <c r="F3" s="24" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G3" s="25"/>
       <c r="H3" s="25"/>
@@ -21461,7 +21477,7 @@
       <c r="D4" s="22"/>
       <c r="E4" s="23"/>
       <c r="F4" s="30" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="G4" s="25"/>
       <c r="H4" s="25"/>
@@ -21474,7 +21490,7 @@
         <v>15</v>
       </c>
       <c r="M4" s="32" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N4" s="33"/>
       <c r="O4" s="33"/>
@@ -21508,7 +21524,7 @@
         <v>3</v>
       </c>
       <c r="M5" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N5" s="21"/>
       <c r="O5" s="21"/>
@@ -21542,10 +21558,10 @@
         <v>4</v>
       </c>
       <c r="M6" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N6" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O6" s="21"/>
       <c r="P6" s="21"/>
@@ -21578,13 +21594,13 @@
         <v>16</v>
       </c>
       <c r="M7" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N7" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O7" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P7" s="21"/>
       <c r="Q7" s="21"/>
@@ -21616,16 +21632,16 @@
         <v>17</v>
       </c>
       <c r="M8" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N8" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O8" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P8" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="21"/>
       <c r="R8" s="21"/>
@@ -21656,19 +21672,19 @@
         <v>5</v>
       </c>
       <c r="M9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R9" s="21"/>
       <c r="S9" s="21"/>
@@ -21698,22 +21714,22 @@
         <v>18</v>
       </c>
       <c r="M10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S10" s="21"/>
       <c r="T10" s="21"/>
@@ -21742,25 +21758,25 @@
         <v>6</v>
       </c>
       <c r="M11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T11" s="21"/>
       <c r="U11" s="21"/>
@@ -21788,28 +21804,28 @@
         <v>19</v>
       </c>
       <c r="M12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U12" s="21"/>
       <c r="V12" s="21"/>
@@ -21836,31 +21852,31 @@
         <v>20</v>
       </c>
       <c r="M13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V13" s="21"/>
       <c r="W13" s="21"/>
@@ -21886,34 +21902,34 @@
         <v>21</v>
       </c>
       <c r="M14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W14" s="21"/>
       <c r="X14" s="21"/>
@@ -21938,37 +21954,37 @@
         <v>22</v>
       </c>
       <c r="M15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X15" s="21"/>
       <c r="Y15" s="21"/>
@@ -21992,40 +22008,40 @@
         <v>37</v>
       </c>
       <c r="M16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Y16" s="21"/>
       <c r="Z16" s="34"/>
@@ -22135,59 +22151,59 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="43" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B100" s="44" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="45" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B101" s="44">
         <v>1</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="46" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B102" s="47">
         <v>1</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="46" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B103" s="47">
         <v>1</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="48" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B104" s="49">
         <v>0</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="50" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B110" s="50"/>
       <c r="C110" s="50"/>
@@ -22198,13 +22214,13 @@
         <v>7</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -22303,11 +22319,11 @@
         <v>2</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E2" s="17"/>
       <c r="F2" s="17" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>9</v>
@@ -22323,7 +22339,7 @@
         <v>14</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="M2" s="17" t="s">
         <v>26</v>
@@ -22375,7 +22391,7 @@
       <c r="D3" s="23"/>
       <c r="E3" s="23"/>
       <c r="F3" s="24" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
@@ -22435,7 +22451,7 @@
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
       <c r="F4" s="30" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="G4" s="21"/>
       <c r="H4" s="21"/>
@@ -22448,7 +22464,7 @@
         <v>15</v>
       </c>
       <c r="M4" s="32" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N4" s="33"/>
       <c r="O4" s="33"/>
@@ -22482,7 +22498,7 @@
         <v>3</v>
       </c>
       <c r="M5" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N5" s="21"/>
       <c r="O5" s="21"/>
@@ -22516,10 +22532,10 @@
         <v>4</v>
       </c>
       <c r="M6" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N6" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O6" s="21"/>
       <c r="P6" s="21"/>
@@ -22552,13 +22568,13 @@
         <v>16</v>
       </c>
       <c r="M7" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N7" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O7" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P7" s="21"/>
       <c r="Q7" s="21"/>
@@ -22590,16 +22606,16 @@
         <v>17</v>
       </c>
       <c r="M8" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N8" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O8" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P8" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="21"/>
       <c r="R8" s="21"/>
@@ -22630,19 +22646,19 @@
         <v>5</v>
       </c>
       <c r="M9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R9" s="21"/>
       <c r="S9" s="21"/>
@@ -22672,22 +22688,22 @@
         <v>18</v>
       </c>
       <c r="M10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S10" s="21"/>
       <c r="T10" s="21"/>
@@ -22716,25 +22732,25 @@
         <v>6</v>
       </c>
       <c r="M11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T11" s="21"/>
       <c r="U11" s="21"/>
@@ -22762,28 +22778,28 @@
         <v>19</v>
       </c>
       <c r="M12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U12" s="21"/>
       <c r="V12" s="21"/>
@@ -22810,31 +22826,31 @@
         <v>20</v>
       </c>
       <c r="M13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V13" s="21"/>
       <c r="W13" s="21"/>
@@ -22860,34 +22876,34 @@
         <v>21</v>
       </c>
       <c r="M14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W14" s="21"/>
       <c r="X14" s="21"/>
@@ -22912,37 +22928,37 @@
         <v>22</v>
       </c>
       <c r="M15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X15" s="21"/>
       <c r="Y15" s="21"/>
@@ -22966,40 +22982,40 @@
         <v>37</v>
       </c>
       <c r="M16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Y16" s="21"/>
       <c r="Z16" s="34"/>
@@ -23141,59 +23157,59 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="43" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B100" s="44" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="45" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B101" s="44">
         <v>1</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="46" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B102" s="47">
         <v>1</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="46" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B103" s="47">
         <v>1</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="48" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B104" s="49">
         <v>0</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="50" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B110" s="50"/>
       <c r="C110" s="50"/>
@@ -23204,13 +23220,13 @@
         <v>7</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/dcomtestcasegeneration/Database/DB_SAIC_AS28_R1.0_DCOM.xlsx
+++ b/dcomtestcasegeneration/Database/DB_SAIC_AS28_R1.0_DCOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HuyNA_repo\dcomtestcasegeneration\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BOSCH_WORK\DCOM_TestcaseTool\dcomtestcasegeneration\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D32567-9EBA-4375-8888-BBB9B8218765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{627809AD-67F1-4580-892F-0300B0DAE0F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3210" yWindow="4020" windowWidth="12555" windowHeight="12915" tabRatio="903" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5748" yWindow="960" windowWidth="11280" windowHeight="10356" tabRatio="903" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Common_settings" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2107" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2101" uniqueCount="115">
   <si>
     <t>Sub_function</t>
   </si>
@@ -244,18 +244,6 @@
     <t>Information</t>
   </si>
   <si>
-    <t>Project Name</t>
-  </si>
-  <si>
-    <t>Variant</t>
-  </si>
-  <si>
-    <t>Release</t>
-  </si>
-  <si>
-    <t>RC</t>
-  </si>
-  <si>
     <t>DB Source</t>
   </si>
   <si>
@@ -301,12 +289,6 @@
     <t>Private CAN DBC</t>
   </si>
   <si>
-    <t>Template Path</t>
-  </si>
-  <si>
-    <t>Database Directory</t>
-  </si>
-  <si>
     <t>Create_fault</t>
   </si>
   <si>
@@ -334,6 +316,9 @@
     <t>1906c1210001</t>
   </si>
   <si>
+    <t>1906xxxx</t>
+  </si>
+  <si>
     <t>Read_dtc_status_passive</t>
   </si>
   <si>
@@ -343,13 +328,25 @@
     <t>190209</t>
   </si>
   <si>
+    <t>590209</t>
+  </si>
+  <si>
     <t>Current_session</t>
+  </si>
+  <si>
+    <t>f186</t>
   </si>
   <si>
     <t>Invalid_counter</t>
   </si>
   <si>
+    <t>0103</t>
+  </si>
+  <si>
     <t>Current_Voltage</t>
+  </si>
+  <si>
+    <t>0104</t>
   </si>
   <si>
     <t>SAIC</t>
@@ -367,19 +364,13 @@
     <t>Local</t>
   </si>
   <si>
-    <t>D:\HuyNA_repo\dcomtestcasegeneration\Database\DB_SAIC_AS28_R1.0_DCOM.xlsx</t>
+    <t>D:\BOSCH_WORK\DCOM_TestcaseTool\dcomtestcasegeneration\Database\DB_SAIC_AS28_R1.0_DCOM.xlsx</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>D:\HuyNA_repo\dcomtestcasegeneration\Template</t>
-  </si>
-  <si>
-    <t>D:\HuyNA_repo\dcomtestcasegeneration\Template\Template.xlsx</t>
-  </si>
-  <si>
-    <t>D:\HuyNA_repo\dcomtestcasegeneration\Database</t>
+    <t>D:\BOSCH_WORK\DCOM_TestcaseTool\dcomtestcasegeneration\DB_SAIC_AS28_R1.0_DCOM.xlsx\Template</t>
   </si>
   <si>
     <t>01</t>
@@ -397,19 +388,7 @@
     <t>03</t>
   </si>
   <si>
-    <t>1906xxxx</t>
-  </si>
-  <si>
-    <t>590209</t>
-  </si>
-  <si>
-    <t>f186</t>
-  </si>
-  <si>
-    <t>0103</t>
-  </si>
-  <si>
-    <t>0104</t>
+    <t>ON</t>
   </si>
 </sst>
 </file>
@@ -806,7 +785,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1000,12 +979,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -10547,21 +10520,21 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="39.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="12" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="4" max="4" width="13.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
@@ -10575,77 +10548,77 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>42</v>
       </c>
@@ -10656,46 +10629,46 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>61</v>
       </c>
@@ -10705,75 +10678,75 @@
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="1:4" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:4" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>65</v>
@@ -10781,133 +10754,109 @@
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
     </row>
-    <row r="31" spans="1:4" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
-        <v>66</v>
-      </c>
+    <row r="31" spans="1:4" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
       <c r="B31" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
-        <v>67</v>
-      </c>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
       <c r="B32" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
-        <v>68</v>
-      </c>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
       <c r="B33" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B41" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" s="9" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="7" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B46" s="102" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="101" t="s">
-        <v>86</v>
-      </c>
-      <c r="B47" s="102" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>51</v>
       </c>
@@ -10915,76 +10864,76 @@
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B55" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B56" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B58" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B60" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B61" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -11007,65 +10956,65 @@
       <selection activeCell="G3" sqref="G3:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="2" customWidth="1"/>
-    <col min="11" max="12" width="7.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.85546875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="4.7109375" style="2" customWidth="1"/>
-    <col min="18" max="19" width="5.140625" style="2" customWidth="1"/>
-    <col min="20" max="24" width="4.85546875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="8.7109375" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="17.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="2" customWidth="1"/>
+    <col min="11" max="12" width="7.5546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.88671875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="4.88671875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.6640625" style="2" customWidth="1"/>
+    <col min="18" max="19" width="5.109375" style="2" customWidth="1"/>
+    <col min="20" max="24" width="4.88671875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="8.6640625" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="106" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="106" t="s">
+      <c r="G1" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106" t="s">
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="106"/>
-      <c r="T1" s="106"/>
-      <c r="U1" s="106"/>
-      <c r="V1" s="106"/>
-      <c r="W1" s="106"/>
-      <c r="X1" s="106"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104"/>
+      <c r="X1" s="104"/>
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
-    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -11141,7 +11090,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -11201,7 +11150,7 @@
       </c>
       <c r="Z3" s="29"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -11237,7 +11186,7 @@
       <c r="Y4" s="33"/>
       <c r="Z4" s="34"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -11271,7 +11220,7 @@
       <c r="Y5" s="21"/>
       <c r="Z5" s="34"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -11307,7 +11256,7 @@
       <c r="Y6" s="21"/>
       <c r="Z6" s="34"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -11345,7 +11294,7 @@
       <c r="Y7" s="21"/>
       <c r="Z7" s="34"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -11385,7 +11334,7 @@
       <c r="Y8" s="21"/>
       <c r="Z8" s="34"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -11427,7 +11376,7 @@
       <c r="Y9" s="21"/>
       <c r="Z9" s="34"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -11471,7 +11420,7 @@
       <c r="Y10" s="21"/>
       <c r="Z10" s="34"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -11517,7 +11466,7 @@
       <c r="Y11" s="21"/>
       <c r="Z11" s="34"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -11565,7 +11514,7 @@
       <c r="Y12" s="21"/>
       <c r="Z12" s="34"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
@@ -11615,7 +11564,7 @@
       <c r="Y13" s="21"/>
       <c r="Z13" s="34"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -11667,7 +11616,7 @@
       <c r="Y14" s="21"/>
       <c r="Z14" s="34"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -11721,7 +11670,7 @@
       <c r="Y15" s="21"/>
       <c r="Z15" s="34"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="21"/>
       <c r="C16" s="37"/>
@@ -11777,7 +11726,7 @@
       <c r="Y16" s="21"/>
       <c r="Z16" s="34"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="39"/>
@@ -11805,7 +11754,7 @@
       <c r="Y17" s="37"/>
       <c r="Z17" s="34"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="37"/>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
@@ -11816,7 +11765,7 @@
       <c r="H18" s="37"/>
       <c r="I18" s="21"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -11827,7 +11776,7 @@
       <c r="H19" s="37"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="37"/>
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
@@ -11837,7 +11786,7 @@
       <c r="H20" s="37"/>
       <c r="I20" s="21"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
@@ -11847,7 +11796,7 @@
       <c r="H21" s="37"/>
       <c r="I21" s="21"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="37"/>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
@@ -11857,7 +11806,7 @@
       <c r="H22" s="37"/>
       <c r="I22" s="21"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
@@ -11867,45 +11816,45 @@
       <c r="H23" s="37"/>
       <c r="I23" s="21"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="37"/>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
       <c r="D24" s="37"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
       <c r="D25" s="37"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="37"/>
       <c r="B26" s="37"/>
       <c r="C26" s="37"/>
       <c r="D26" s="37"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
       <c r="D27" s="37"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="37"/>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
       <c r="D28" s="37"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E40" s="51"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="43" t="s">
         <v>48</v>
       </c>
@@ -11913,7 +11862,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="45" t="s">
         <v>56</v>
       </c>
@@ -11924,7 +11873,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="46" t="s">
         <v>57</v>
       </c>
@@ -11935,7 +11884,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="46" t="s">
         <v>58</v>
       </c>
@@ -11946,7 +11895,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="48" t="s">
         <v>59</v>
       </c>
@@ -11957,7 +11906,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="50" t="s">
         <v>49</v>
       </c>
@@ -11965,7 +11914,7 @@
       <c r="C110" s="50"/>
       <c r="D110" s="50"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>7</v>
       </c>
@@ -12006,65 +11955,65 @@
       <selection activeCell="G3" sqref="G3:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="42" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="42" customWidth="1"/>
     <col min="5" max="5" width="9" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="2" customWidth="1"/>
-    <col min="11" max="12" width="7.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.85546875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="4.7109375" style="2" customWidth="1"/>
-    <col min="18" max="19" width="5.140625" style="2" customWidth="1"/>
-    <col min="20" max="24" width="4.85546875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="8.7109375" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="17.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="2" customWidth="1"/>
+    <col min="11" max="12" width="7.5546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.88671875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="4.88671875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.6640625" style="2" customWidth="1"/>
+    <col min="18" max="19" width="5.109375" style="2" customWidth="1"/>
+    <col min="20" max="24" width="4.88671875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="8.6640625" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="107" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
       <c r="D1" s="95"/>
       <c r="E1" s="64"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="107" t="s">
+      <c r="G1" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107" t="s">
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="107"/>
-      <c r="O1" s="107"/>
-      <c r="P1" s="107"/>
-      <c r="Q1" s="107"/>
-      <c r="R1" s="107"/>
-      <c r="S1" s="107"/>
-      <c r="T1" s="107"/>
-      <c r="U1" s="107"/>
-      <c r="V1" s="107"/>
-      <c r="W1" s="107"/>
-      <c r="X1" s="107"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="105"/>
+      <c r="W1" s="105"/>
+      <c r="X1" s="105"/>
       <c r="Y1" s="65"/>
       <c r="Z1" s="65"/>
     </row>
-    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="66" t="s">
         <v>0</v>
       </c>
@@ -12140,7 +12089,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -12200,7 +12149,7 @@
       </c>
       <c r="Z3" s="29"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -12236,7 +12185,7 @@
       <c r="Y4" s="33"/>
       <c r="Z4" s="34"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -12270,7 +12219,7 @@
       <c r="Y5" s="21"/>
       <c r="Z5" s="34"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -12306,7 +12255,7 @@
       <c r="Y6" s="21"/>
       <c r="Z6" s="34"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -12344,7 +12293,7 @@
       <c r="Y7" s="21"/>
       <c r="Z7" s="34"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="68"/>
       <c r="C8" s="21"/>
@@ -12384,7 +12333,7 @@
       <c r="Y8" s="21"/>
       <c r="Z8" s="34"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -12426,7 +12375,7 @@
       <c r="Y9" s="21"/>
       <c r="Z9" s="34"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -12470,7 +12419,7 @@
       <c r="Y10" s="21"/>
       <c r="Z10" s="34"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -12516,7 +12465,7 @@
       <c r="Y11" s="21"/>
       <c r="Z11" s="34"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -12564,7 +12513,7 @@
       <c r="Y12" s="21"/>
       <c r="Z12" s="34"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="21"/>
@@ -12614,7 +12563,7 @@
       <c r="Y13" s="21"/>
       <c r="Z13" s="34"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -12666,7 +12615,7 @@
       <c r="Y14" s="21"/>
       <c r="Z14" s="34"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -12720,7 +12669,7 @@
       <c r="Y15" s="21"/>
       <c r="Z15" s="34"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="21"/>
       <c r="C16" s="69"/>
@@ -12776,7 +12725,7 @@
       <c r="Y16" s="21"/>
       <c r="Z16" s="34"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="39"/>
@@ -12804,7 +12753,7 @@
       <c r="Y17" s="37"/>
       <c r="Z17" s="34"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="37"/>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
@@ -12831,7 +12780,7 @@
       <c r="Y18" s="37"/>
       <c r="Z18" s="34"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -12858,69 +12807,69 @@
       <c r="Y19" s="37"/>
       <c r="Z19" s="34"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="37"/>
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="37"/>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="37"/>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="37"/>
       <c r="B26" s="37"/>
       <c r="C26" s="37"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="37"/>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
     </row>
-    <row r="34" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="5:9" x14ac:dyDescent="0.25">
       <c r="I34" s="70"/>
     </row>
-    <row r="37" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="5:9" x14ac:dyDescent="0.25">
       <c r="I37" s="100"/>
     </row>
-    <row r="38" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="5:9" x14ac:dyDescent="0.25">
       <c r="I38" s="100"/>
     </row>
-    <row r="40" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E40" s="51"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="43" t="s">
         <v>48</v>
       </c>
@@ -12928,7 +12877,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="45" t="s">
         <v>56</v>
       </c>
@@ -12939,7 +12888,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="46" t="s">
         <v>57</v>
       </c>
@@ -12950,7 +12899,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="46" t="s">
         <v>58</v>
       </c>
@@ -12961,7 +12910,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="48" t="s">
         <v>59</v>
       </c>
@@ -12972,7 +12921,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="50" t="s">
         <v>49</v>
       </c>
@@ -12980,7 +12929,7 @@
       <c r="C110" s="50"/>
       <c r="D110" s="99"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>7</v>
       </c>
@@ -13021,65 +12970,65 @@
       <selection activeCell="G3" sqref="G3:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="2" customWidth="1"/>
-    <col min="11" max="12" width="7.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.85546875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="4.7109375" style="2" customWidth="1"/>
-    <col min="18" max="19" width="5.140625" style="2" customWidth="1"/>
-    <col min="20" max="24" width="4.85546875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="8.7109375" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="17.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="2" customWidth="1"/>
+    <col min="11" max="12" width="7.5546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.88671875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="4.88671875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.6640625" style="2" customWidth="1"/>
+    <col min="18" max="19" width="5.109375" style="2" customWidth="1"/>
+    <col min="20" max="24" width="4.88671875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="8.6640625" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="106" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="106" t="s">
+      <c r="G1" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106" t="s">
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="106"/>
-      <c r="T1" s="106"/>
-      <c r="U1" s="106"/>
-      <c r="V1" s="106"/>
-      <c r="W1" s="106"/>
-      <c r="X1" s="106"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104"/>
+      <c r="X1" s="104"/>
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
-    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -13155,7 +13104,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -13215,7 +13164,7 @@
       </c>
       <c r="Z3" s="29"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -13251,7 +13200,7 @@
       <c r="Y4" s="33"/>
       <c r="Z4" s="34"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -13285,7 +13234,7 @@
       <c r="Y5" s="21"/>
       <c r="Z5" s="34"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -13321,7 +13270,7 @@
       <c r="Y6" s="21"/>
       <c r="Z6" s="34"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -13359,7 +13308,7 @@
       <c r="Y7" s="21"/>
       <c r="Z7" s="34"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -13399,7 +13348,7 @@
       <c r="Y8" s="21"/>
       <c r="Z8" s="34"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -13441,7 +13390,7 @@
       <c r="Y9" s="21"/>
       <c r="Z9" s="34"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -13485,7 +13434,7 @@
       <c r="Y10" s="21"/>
       <c r="Z10" s="34"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -13531,7 +13480,7 @@
       <c r="Y11" s="21"/>
       <c r="Z11" s="34"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -13579,7 +13528,7 @@
       <c r="Y12" s="21"/>
       <c r="Z12" s="34"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="21"/>
@@ -13629,7 +13578,7 @@
       <c r="Y13" s="21"/>
       <c r="Z13" s="34"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -13681,7 +13630,7 @@
       <c r="Y14" s="21"/>
       <c r="Z14" s="34"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -13735,7 +13684,7 @@
       <c r="Y15" s="21"/>
       <c r="Z15" s="34"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="21"/>
       <c r="C16" s="37"/>
@@ -13791,7 +13740,7 @@
       <c r="Y16" s="21"/>
       <c r="Z16" s="34"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="39"/>
@@ -13819,7 +13768,7 @@
       <c r="Y17" s="37"/>
       <c r="Z17" s="34"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="37"/>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
@@ -13846,7 +13795,7 @@
       <c r="Y18" s="37"/>
       <c r="Z18" s="34"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -13873,60 +13822,60 @@
       <c r="Y19" s="37"/>
       <c r="Z19" s="34"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="37"/>
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="37"/>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="37"/>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="37"/>
       <c r="B26" s="37"/>
       <c r="C26" s="37"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="37"/>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E40" s="51"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="43" t="s">
         <v>48</v>
       </c>
@@ -13934,7 +13883,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="45" t="s">
         <v>56</v>
       </c>
@@ -13945,7 +13894,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="46" t="s">
         <v>57</v>
       </c>
@@ -13956,7 +13905,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="46" t="s">
         <v>58</v>
       </c>
@@ -13967,7 +13916,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="48" t="s">
         <v>59</v>
       </c>
@@ -13978,7 +13927,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="50" t="s">
         <v>49</v>
       </c>
@@ -13986,7 +13935,7 @@
       <c r="C110" s="50"/>
       <c r="D110" s="50"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>7</v>
       </c>
@@ -14027,65 +13976,65 @@
       <selection activeCell="G3" sqref="G3:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="2" customWidth="1"/>
-    <col min="11" max="12" width="7.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.85546875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="4.7109375" style="2" customWidth="1"/>
-    <col min="18" max="19" width="5.140625" style="2" customWidth="1"/>
-    <col min="20" max="24" width="4.85546875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="8.7109375" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="17.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="2" customWidth="1"/>
+    <col min="11" max="12" width="7.5546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.88671875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="4.88671875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.6640625" style="2" customWidth="1"/>
+    <col min="18" max="19" width="5.109375" style="2" customWidth="1"/>
+    <col min="20" max="24" width="4.88671875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="8.6640625" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="106" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="106" t="s">
+      <c r="G1" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106" t="s">
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="106"/>
-      <c r="T1" s="106"/>
-      <c r="U1" s="106"/>
-      <c r="V1" s="106"/>
-      <c r="W1" s="106"/>
-      <c r="X1" s="106"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104"/>
+      <c r="X1" s="104"/>
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
-    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -14161,7 +14110,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3" s="20"/>
       <c r="C3" s="21"/>
@@ -14221,7 +14170,7 @@
       </c>
       <c r="Z3" s="29"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4" s="20"/>
       <c r="C4" s="21"/>
@@ -14257,7 +14206,7 @@
       <c r="Y4" s="33"/>
       <c r="Z4" s="34"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" s="20"/>
       <c r="C5" s="21"/>
@@ -14291,7 +14240,7 @@
       <c r="Y5" s="21"/>
       <c r="Z5" s="34"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="20"/>
       <c r="C6" s="21"/>
@@ -14327,7 +14276,7 @@
       <c r="Y6" s="21"/>
       <c r="Z6" s="34"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="20"/>
       <c r="C7" s="21"/>
@@ -14365,7 +14314,7 @@
       <c r="Y7" s="21"/>
       <c r="Z7" s="34"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="20"/>
       <c r="C8" s="21"/>
@@ -14405,7 +14354,7 @@
       <c r="Y8" s="21"/>
       <c r="Z8" s="34"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -14447,7 +14396,7 @@
       <c r="Y9" s="21"/>
       <c r="Z9" s="34"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -14491,7 +14440,7 @@
       <c r="Y10" s="21"/>
       <c r="Z10" s="34"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -14537,7 +14486,7 @@
       <c r="Y11" s="21"/>
       <c r="Z11" s="34"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -14585,7 +14534,7 @@
       <c r="Y12" s="21"/>
       <c r="Z12" s="34"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="21"/>
@@ -14635,7 +14584,7 @@
       <c r="Y13" s="21"/>
       <c r="Z13" s="34"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -14687,7 +14636,7 @@
       <c r="Y14" s="21"/>
       <c r="Z14" s="34"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -14741,7 +14690,7 @@
       <c r="Y15" s="21"/>
       <c r="Z15" s="34"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="21"/>
       <c r="C16" s="37"/>
@@ -14797,7 +14746,7 @@
       <c r="Y16" s="21"/>
       <c r="Z16" s="34"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="39"/>
@@ -14825,7 +14774,7 @@
       <c r="Y17" s="37"/>
       <c r="Z17" s="34"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="37"/>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
@@ -14836,7 +14785,7 @@
       <c r="H18" s="37"/>
       <c r="I18" s="21"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -14847,60 +14796,60 @@
       <c r="H19" s="37"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="37"/>
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="37"/>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="37"/>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="37"/>
       <c r="B26" s="37"/>
       <c r="C26" s="37"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="37"/>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E40" s="51"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="43" t="s">
         <v>48</v>
       </c>
@@ -14908,7 +14857,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="45" t="s">
         <v>56</v>
       </c>
@@ -14919,7 +14868,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="46" t="s">
         <v>57</v>
       </c>
@@ -14930,7 +14879,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="46" t="s">
         <v>58</v>
       </c>
@@ -14941,7 +14890,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="48" t="s">
         <v>59</v>
       </c>
@@ -14952,7 +14901,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="50" t="s">
         <v>49</v>
       </c>
@@ -14960,7 +14909,7 @@
       <c r="C110" s="50"/>
       <c r="D110" s="50"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>7</v>
       </c>
@@ -14998,7 +14947,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15010,71 +14959,71 @@
   <dimension ref="A1:Z111"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" style="2" customWidth="1"/>
     <col min="10" max="10" width="12" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.85546875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="5.140625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="4.7109375" style="2" customWidth="1"/>
-    <col min="18" max="18" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.140625" style="2" customWidth="1"/>
-    <col min="20" max="21" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="4.85546875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="8.7109375" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="2"/>
+    <col min="11" max="11" width="14.6640625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.88671875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="5.109375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.6640625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.109375" style="2" customWidth="1"/>
+    <col min="20" max="21" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="4.88671875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="8.6640625" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="106" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="106" t="s">
+      <c r="G1" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106" t="s">
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="106"/>
-      <c r="T1" s="106"/>
-      <c r="U1" s="106"/>
-      <c r="V1" s="106"/>
-      <c r="W1" s="106"/>
-      <c r="X1" s="106"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104"/>
+      <c r="X1" s="104"/>
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
-    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -15150,25 +15099,25 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D3" s="53" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E3" s="53"/>
       <c r="F3" s="24" t="s">
         <v>54</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H3" s="25" t="s">
         <v>29</v>
@@ -15224,18 +15173,18 @@
       </c>
       <c r="Z3" s="56"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="53" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D4" s="53" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E4" s="53"/>
       <c r="F4" s="30" t="s">
@@ -15248,7 +15197,7 @@
         <v>29</v>
       </c>
       <c r="I4" s="25" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J4" s="54"/>
       <c r="K4" s="57">
@@ -15257,59 +15206,59 @@
       <c r="L4" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="103" t="s">
-        <v>46</v>
-      </c>
-      <c r="N4" s="103" t="s">
-        <v>46</v>
-      </c>
-      <c r="O4" s="103" t="s">
-        <v>46</v>
-      </c>
-      <c r="P4" s="103" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q4" s="103" t="s">
-        <v>46</v>
-      </c>
-      <c r="R4" s="103" t="s">
-        <v>46</v>
-      </c>
-      <c r="S4" s="103" t="s">
-        <v>46</v>
-      </c>
-      <c r="T4" s="103" t="s">
-        <v>46</v>
-      </c>
-      <c r="U4" s="103" t="s">
-        <v>46</v>
-      </c>
-      <c r="V4" s="103" t="s">
-        <v>46</v>
-      </c>
-      <c r="W4" s="103" t="s">
-        <v>46</v>
-      </c>
-      <c r="X4" s="103" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y4" s="103" t="s">
+      <c r="M4" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="P4" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q4" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="R4" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="S4" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="T4" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="U4" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="V4" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="W4" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="X4" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y4" s="101" t="s">
         <v>46</v>
       </c>
       <c r="Z4" s="58"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="53" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D5" s="53" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E5" s="53"/>
       <c r="F5" s="24" t="s">
@@ -15322,7 +15271,7 @@
         <v>29</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J5" s="54"/>
       <c r="K5" s="57">
@@ -15331,7 +15280,7 @@
       <c r="L5" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="104" t="s">
+      <c r="M5" s="102" t="s">
         <v>46</v>
       </c>
       <c r="N5" s="2" t="s">
@@ -15372,7 +15321,7 @@
       </c>
       <c r="Z5" s="58"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="53"/>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
@@ -15388,7 +15337,7 @@
         <v>26</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J6" s="54"/>
       <c r="K6" s="57">
@@ -15397,10 +15346,10 @@
       <c r="L6" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="N6" s="104" t="s">
+      <c r="M6" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" s="102" t="s">
         <v>46</v>
       </c>
       <c r="O6" s="2">
@@ -15424,21 +15373,21 @@
       <c r="U6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="V6" s="103" t="s">
-        <v>46</v>
-      </c>
-      <c r="W6" s="103" t="s">
-        <v>46</v>
-      </c>
-      <c r="X6" s="103" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y6" s="103" t="s">
+      <c r="V6" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="W6" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="X6" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y6" s="101" t="s">
         <v>46</v>
       </c>
       <c r="Z6" s="58"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="53"/>
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
@@ -15451,7 +15400,7 @@
         <v>29</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I7" s="25" t="s">
         <v>26</v>
@@ -15463,13 +15412,13 @@
       <c r="L7" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="N7" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="O7" s="104" t="s">
+      <c r="M7" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="N7" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7" s="102" t="s">
         <v>46</v>
       </c>
       <c r="P7" s="2">
@@ -15490,21 +15439,21 @@
       <c r="U7" s="2">
         <v>1004</v>
       </c>
-      <c r="V7" s="103" t="s">
-        <v>46</v>
-      </c>
-      <c r="W7" s="103" t="s">
-        <v>46</v>
-      </c>
-      <c r="X7" s="103" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y7" s="103" t="s">
+      <c r="V7" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="W7" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="X7" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y7" s="101" t="s">
         <v>46</v>
       </c>
       <c r="Z7" s="58"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="53"/>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
@@ -15521,16 +15470,16 @@
       <c r="L8" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="N8" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="O8" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="P8" s="104" t="s">
+      <c r="M8" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="N8" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="O8" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="102" t="s">
         <v>46</v>
       </c>
       <c r="Q8" s="2" t="s">
@@ -15551,18 +15500,18 @@
       <c r="V8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="W8" s="103" t="s">
-        <v>46</v>
-      </c>
-      <c r="X8" s="103" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y8" s="103" t="s">
+      <c r="W8" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="X8" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y8" s="101" t="s">
         <v>46</v>
       </c>
       <c r="Z8" s="58"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="25"/>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
@@ -15579,19 +15528,19 @@
       <c r="L9" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="N9" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="O9" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="P9" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q9" s="104" t="s">
+      <c r="M9" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="N9" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="O9" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="P9" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q9" s="102" t="s">
         <v>46</v>
       </c>
       <c r="R9" s="2">
@@ -15606,21 +15555,21 @@
       <c r="U9" s="2">
         <v>100200</v>
       </c>
-      <c r="V9" s="103" t="s">
-        <v>46</v>
-      </c>
-      <c r="W9" s="103" t="s">
-        <v>46</v>
-      </c>
-      <c r="X9" s="103" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y9" s="103" t="s">
+      <c r="V9" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="W9" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="X9" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y9" s="101" t="s">
         <v>46</v>
       </c>
       <c r="Z9" s="58"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="53"/>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
@@ -15637,22 +15586,22 @@
       <c r="L10" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="M10" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="N10" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="O10" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="P10" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q10" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="R10" s="104" t="s">
+      <c r="M10" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="N10" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="O10" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="P10" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q10" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="R10" s="102" t="s">
         <v>46</v>
       </c>
       <c r="S10" s="2" t="s">
@@ -15667,18 +15616,18 @@
       <c r="V10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="W10" s="103" t="s">
-        <v>46</v>
-      </c>
-      <c r="X10" s="103" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y10" s="103" t="s">
+      <c r="W10" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="X10" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y10" s="101" t="s">
         <v>46</v>
       </c>
       <c r="Z10" s="58"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="53"/>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
@@ -15695,25 +15644,25 @@
       <c r="L11" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="M11" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="N11" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="O11" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="P11" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q11" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="R11" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="S11" s="104" t="s">
+      <c r="M11" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="N11" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="O11" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="P11" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q11" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="R11" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="S11" s="102" t="s">
         <v>46</v>
       </c>
       <c r="T11" s="2">
@@ -15722,21 +15671,21 @@
       <c r="U11" s="2">
         <v>1002</v>
       </c>
-      <c r="V11" s="103" t="s">
-        <v>46</v>
-      </c>
-      <c r="W11" s="103" t="s">
-        <v>46</v>
-      </c>
-      <c r="X11" s="103" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y11" s="103" t="s">
+      <c r="V11" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="W11" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="X11" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y11" s="101" t="s">
         <v>46</v>
       </c>
       <c r="Z11" s="58"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="53"/>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
@@ -15753,48 +15702,48 @@
       <c r="L12" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="M12" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="N12" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="O12" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="P12" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q12" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="R12" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="S12" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="T12" s="104" t="s">
+      <c r="M12" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="N12" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="O12" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="P12" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q12" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="R12" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="S12" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="T12" s="102" t="s">
         <v>46</v>
       </c>
       <c r="U12" s="2">
         <v>1002</v>
       </c>
-      <c r="V12" s="103" t="s">
-        <v>46</v>
-      </c>
-      <c r="W12" s="103" t="s">
-        <v>46</v>
-      </c>
-      <c r="X12" s="103" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y12" s="103" t="s">
+      <c r="V12" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="W12" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="X12" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y12" s="101" t="s">
         <v>46</v>
       </c>
       <c r="Z12" s="58"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="53"/>
       <c r="B13" s="53"/>
       <c r="C13" s="25"/>
@@ -15811,48 +15760,48 @@
       <c r="L13" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="M13" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="N13" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="O13" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="P13" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q13" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="R13" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="S13" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="T13" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="U13" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="V13" s="103" t="s">
-        <v>46</v>
-      </c>
-      <c r="W13" s="103" t="s">
-        <v>46</v>
-      </c>
-      <c r="X13" s="103" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y13" s="103" t="s">
+      <c r="M13" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="N13" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="O13" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="P13" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q13" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="R13" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="S13" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="T13" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="U13" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="V13" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="W13" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="X13" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y13" s="101" t="s">
         <v>46</v>
       </c>
       <c r="Z13" s="58"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="53"/>
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
@@ -15869,48 +15818,48 @@
       <c r="L14" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="M14" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="N14" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="O14" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="P14" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q14" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="R14" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="S14" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="T14" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="U14" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="V14" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="W14" s="103" t="s">
-        <v>46</v>
-      </c>
-      <c r="X14" s="103" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y14" s="103" t="s">
+      <c r="M14" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="N14" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="O14" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="P14" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q14" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="R14" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="S14" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="T14" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="U14" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="V14" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="W14" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="X14" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y14" s="101" t="s">
         <v>46</v>
       </c>
       <c r="Z14" s="58"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="53"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -15927,48 +15876,48 @@
       <c r="L15" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="M15" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="N15" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="O15" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="P15" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q15" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="R15" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="S15" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="T15" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="U15" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="V15" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="W15" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="X15" s="103" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y15" s="103" t="s">
+      <c r="M15" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="N15" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="O15" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="P15" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q15" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="R15" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="S15" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="T15" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="U15" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="V15" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="W15" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="X15" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y15" s="101" t="s">
         <v>46</v>
       </c>
       <c r="Z15" s="58"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="53"/>
       <c r="B16" s="25"/>
       <c r="C16" s="60"/>
@@ -15985,48 +15934,48 @@
       <c r="L16" s="61">
         <v>37</v>
       </c>
-      <c r="M16" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="N16" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="O16" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="P16" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q16" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="R16" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="S16" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="T16" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="U16" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="V16" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="W16" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="X16" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y16" s="103" t="s">
+      <c r="M16" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="N16" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="O16" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="P16" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q16" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="R16" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="S16" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="T16" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="U16" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="V16" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="W16" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="X16" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y16" s="101" t="s">
         <v>46</v>
       </c>
       <c r="Z16" s="58"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="60"/>
       <c r="B17" s="60"/>
       <c r="C17" s="62"/>
@@ -16053,11 +16002,11 @@
       <c r="Y17" s="63"/>
       <c r="Z17" s="58"/>
     </row>
-    <row r="38" spans="5:5" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="5:5" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E40" s="51"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="43" t="s">
         <v>48</v>
       </c>
@@ -16065,7 +16014,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="45" t="s">
         <v>56</v>
       </c>
@@ -16076,7 +16025,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="46" t="s">
         <v>57</v>
       </c>
@@ -16087,18 +16036,18 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="B103" s="47">
-        <v>1</v>
+      <c r="B103" s="47" t="s">
+        <v>114</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="48" t="s">
         <v>59</v>
       </c>
@@ -16109,7 +16058,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="50" t="s">
         <v>49</v>
       </c>
@@ -16117,7 +16066,7 @@
       <c r="C110" s="50"/>
       <c r="D110" s="50"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>7</v>
       </c>
@@ -16155,68 +16104,68 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Z111"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D3"/>
+    <sheetView topLeftCell="A73" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E94" sqref="E94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="2" customWidth="1"/>
     <col min="4" max="5" width="15" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="2" customWidth="1"/>
-    <col min="11" max="12" width="7.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.85546875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="4.7109375" style="2" customWidth="1"/>
-    <col min="18" max="19" width="5.140625" style="2" customWidth="1"/>
-    <col min="20" max="24" width="4.85546875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="8.7109375" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="17.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="2" customWidth="1"/>
+    <col min="11" max="12" width="7.5546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.88671875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="4.88671875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.6640625" style="2" customWidth="1"/>
+    <col min="18" max="19" width="5.109375" style="2" customWidth="1"/>
+    <col min="20" max="24" width="4.88671875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="8.6640625" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="106" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="106" t="s">
+      <c r="G1" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106" t="s">
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="106"/>
-      <c r="T1" s="106"/>
-      <c r="U1" s="106"/>
-      <c r="V1" s="106"/>
-      <c r="W1" s="106"/>
-      <c r="X1" s="106"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104"/>
+      <c r="X1" s="104"/>
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
-    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -16292,25 +16241,25 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E3" s="19"/>
       <c r="F3" s="24" t="s">
         <v>54</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H3" s="21" t="s">
         <v>29</v>
@@ -16366,7 +16315,7 @@
       </c>
       <c r="Z3" s="29"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -16382,7 +16331,7 @@
         <v>29</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J4" s="26"/>
       <c r="K4" s="31">
@@ -16391,50 +16340,50 @@
       <c r="L4" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="N4" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="O4" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="P4" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q4" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="R4" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="S4" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="T4" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="U4" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="V4" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="W4" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="X4" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y4" s="105" t="s">
+      <c r="M4" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="P4" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q4" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="R4" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="S4" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="T4" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="U4" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="V4" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="W4" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="X4" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y4" s="103" t="s">
         <v>46</v>
       </c>
       <c r="Z4" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -16451,50 +16400,50 @@
       <c r="L5" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="N5" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="O5" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="P5" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q5" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="R5" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="S5" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="T5" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="U5" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="V5" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="W5" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="X5" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y5" s="105" t="s">
+      <c r="M5" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="P5" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q5" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="R5" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="S5" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="T5" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="U5" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="V5" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="W5" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="X5" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y5" s="103" t="s">
         <v>46</v>
       </c>
       <c r="Z5" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -16511,50 +16460,50 @@
       <c r="L6" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="N6" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="O6" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="P6" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q6" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="R6" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="S6" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="T6" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="U6" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="V6" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="W6" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="X6" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y6" s="105" t="s">
+      <c r="M6" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="P6" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q6" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="R6" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="S6" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="T6" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="U6" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="V6" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="W6" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="X6" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y6" s="103" t="s">
         <v>46</v>
       </c>
       <c r="Z6" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -16571,50 +16520,50 @@
       <c r="L7" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="N7" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="O7" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="P7" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q7" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="R7" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="S7" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="T7" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="U7" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="V7" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="W7" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="X7" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y7" s="105" t="s">
+      <c r="M7" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="N7" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q7" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="R7" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="S7" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="T7" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="U7" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="V7" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="W7" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="X7" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y7" s="103" t="s">
         <v>46</v>
       </c>
       <c r="Z7" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -16631,50 +16580,50 @@
       <c r="L8" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="N8" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="O8" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="P8" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q8" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="R8" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="S8" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="T8" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="U8" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="V8" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="W8" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="X8" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y8" s="105" t="s">
+      <c r="M8" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="N8" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="O8" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="R8" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="S8" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="T8" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="U8" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="V8" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="W8" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="X8" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y8" s="103" t="s">
         <v>46</v>
       </c>
       <c r="Z8" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -16691,50 +16640,50 @@
       <c r="L9" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="N9" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="O9" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="P9" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q9" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="R9" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="S9" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="T9" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="U9" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="V9" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="W9" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="X9" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y9" s="105" t="s">
+      <c r="M9" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="N9" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="O9" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="P9" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q9" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="R9" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="S9" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="T9" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="U9" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="V9" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="W9" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="X9" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y9" s="103" t="s">
         <v>46</v>
       </c>
       <c r="Z9" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -16751,50 +16700,50 @@
       <c r="L10" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="M10" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="N10" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="O10" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="P10" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q10" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="R10" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="S10" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="T10" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="U10" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="V10" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="W10" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="X10" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y10" s="105" t="s">
+      <c r="M10" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="N10" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="O10" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="P10" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q10" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="R10" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="S10" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="T10" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="U10" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="V10" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="W10" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="X10" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y10" s="103" t="s">
         <v>46</v>
       </c>
       <c r="Z10" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -16811,50 +16760,50 @@
       <c r="L11" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="M11" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="N11" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="O11" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="P11" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q11" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="R11" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="S11" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="T11" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="U11" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="V11" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="W11" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="X11" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y11" s="105" t="s">
+      <c r="M11" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="N11" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="O11" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="P11" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q11" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="R11" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="S11" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="T11" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="U11" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="V11" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="W11" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="X11" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y11" s="103" t="s">
         <v>46</v>
       </c>
       <c r="Z11" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -16871,50 +16820,50 @@
       <c r="L12" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="M12" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="N12" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="O12" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="P12" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q12" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="R12" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="S12" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="T12" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="U12" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="V12" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="W12" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="X12" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y12" s="105" t="s">
+      <c r="M12" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="N12" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="O12" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="P12" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q12" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="R12" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="S12" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="T12" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="U12" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="V12" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="W12" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="X12" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y12" s="103" t="s">
         <v>46</v>
       </c>
       <c r="Z12" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="21"/>
@@ -16931,50 +16880,50 @@
       <c r="L13" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="M13" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="N13" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="O13" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="P13" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q13" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="R13" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="S13" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="T13" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="U13" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="V13" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="W13" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="X13" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y13" s="105" t="s">
+      <c r="M13" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="N13" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="O13" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="P13" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q13" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="R13" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="S13" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="T13" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="U13" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="V13" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="W13" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="X13" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y13" s="103" t="s">
         <v>46</v>
       </c>
       <c r="Z13" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -16991,50 +16940,50 @@
       <c r="L14" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="M14" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="N14" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="O14" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="P14" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q14" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="R14" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="S14" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="T14" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="U14" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="V14" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="W14" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="X14" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y14" s="105" t="s">
+      <c r="M14" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="N14" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="O14" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="P14" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q14" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="R14" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="S14" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="T14" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="U14" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="V14" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="W14" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="X14" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y14" s="103" t="s">
         <v>46</v>
       </c>
       <c r="Z14" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -17051,50 +17000,50 @@
       <c r="L15" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="M15" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="N15" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="O15" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="P15" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q15" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="R15" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="S15" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="T15" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="U15" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="V15" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="W15" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="X15" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y15" s="105" t="s">
+      <c r="M15" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="N15" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="O15" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="P15" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q15" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="R15" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="S15" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="T15" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="U15" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="V15" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="W15" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="X15" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y15" s="103" t="s">
         <v>46</v>
       </c>
       <c r="Z15" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="21"/>
       <c r="C16" s="37"/>
@@ -17111,50 +17060,50 @@
       <c r="L16" s="28">
         <v>37</v>
       </c>
-      <c r="M16" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="N16" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="O16" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="P16" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q16" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="R16" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="S16" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="T16" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="U16" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="V16" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="W16" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="X16" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y16" s="105" t="s">
+      <c r="M16" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="N16" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="O16" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="P16" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q16" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="R16" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="S16" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="T16" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="U16" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="V16" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="W16" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="X16" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y16" s="103" t="s">
         <v>46</v>
       </c>
       <c r="Z16" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="39"/>
@@ -17182,12 +17131,12 @@
       <c r="Y17" s="37"/>
       <c r="Z17" s="34"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="I25" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="43" t="s">
         <v>48</v>
       </c>
@@ -17195,7 +17144,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="45" t="s">
         <v>56</v>
       </c>
@@ -17206,7 +17155,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="46" t="s">
         <v>57</v>
       </c>
@@ -17217,18 +17166,18 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="B103" s="47">
-        <v>1</v>
+      <c r="B103" s="47" t="s">
+        <v>114</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="48" t="s">
         <v>59</v>
       </c>
@@ -17239,7 +17188,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="50" t="s">
         <v>49</v>
       </c>
@@ -17247,7 +17196,7 @@
       <c r="C110" s="50"/>
       <c r="D110" s="50"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>7</v>
       </c>
@@ -17288,65 +17237,65 @@
       <selection activeCell="G3" sqref="G3:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="2" customWidth="1"/>
-    <col min="11" max="12" width="7.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.85546875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="4.7109375" style="2" customWidth="1"/>
-    <col min="18" max="19" width="5.140625" style="2" customWidth="1"/>
-    <col min="20" max="24" width="4.85546875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="8.7109375" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="12.88671875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="2" customWidth="1"/>
+    <col min="11" max="12" width="7.5546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.88671875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="4.88671875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.6640625" style="2" customWidth="1"/>
+    <col min="18" max="19" width="5.109375" style="2" customWidth="1"/>
+    <col min="20" max="24" width="4.88671875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="8.6640625" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="106" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="106" t="s">
+      <c r="G1" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106" t="s">
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="106"/>
-      <c r="T1" s="106"/>
-      <c r="U1" s="106"/>
-      <c r="V1" s="106"/>
-      <c r="W1" s="106"/>
-      <c r="X1" s="106"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104"/>
+      <c r="X1" s="104"/>
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
-    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -17422,7 +17371,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -17482,7 +17431,7 @@
       </c>
       <c r="Z3" s="29"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -17518,7 +17467,7 @@
       <c r="Y4" s="33"/>
       <c r="Z4" s="34"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -17552,7 +17501,7 @@
       <c r="Y5" s="21"/>
       <c r="Z5" s="34"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -17588,7 +17537,7 @@
       <c r="Y6" s="21"/>
       <c r="Z6" s="34"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -17626,7 +17575,7 @@
       <c r="Y7" s="21"/>
       <c r="Z7" s="34"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -17666,7 +17615,7 @@
       <c r="Y8" s="21"/>
       <c r="Z8" s="34"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -17708,7 +17657,7 @@
       <c r="Y9" s="21"/>
       <c r="Z9" s="34"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -17752,7 +17701,7 @@
       <c r="Y10" s="21"/>
       <c r="Z10" s="34"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -17798,7 +17747,7 @@
       <c r="Y11" s="21"/>
       <c r="Z11" s="34"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -17846,7 +17795,7 @@
       <c r="Y12" s="21"/>
       <c r="Z12" s="34"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="21"/>
@@ -17896,7 +17845,7 @@
       <c r="Y13" s="21"/>
       <c r="Z13" s="34"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -17948,7 +17897,7 @@
       <c r="Y14" s="21"/>
       <c r="Z14" s="34"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -18002,7 +17951,7 @@
       <c r="Y15" s="21"/>
       <c r="Z15" s="34"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="21"/>
       <c r="C16" s="37"/>
@@ -18058,7 +18007,7 @@
       <c r="Y16" s="21"/>
       <c r="Z16" s="34"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="39"/>
@@ -18086,10 +18035,10 @@
       <c r="Y17" s="37"/>
       <c r="Z17" s="34"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E40" s="51"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="43" t="s">
         <v>48</v>
       </c>
@@ -18097,7 +18046,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="45" t="s">
         <v>56</v>
       </c>
@@ -18108,7 +18057,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="46" t="s">
         <v>57</v>
       </c>
@@ -18119,7 +18068,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="46" t="s">
         <v>58</v>
       </c>
@@ -18130,7 +18079,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="48" t="s">
         <v>59</v>
       </c>
@@ -18141,7 +18090,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="50" t="s">
         <v>49</v>
       </c>
@@ -18149,7 +18098,7 @@
       <c r="C110" s="50"/>
       <c r="D110" s="50"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>7</v>
       </c>
@@ -18190,65 +18139,65 @@
       <selection activeCell="G3" sqref="G3:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="2" customWidth="1"/>
-    <col min="11" max="12" width="7.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.85546875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="4.7109375" style="2" customWidth="1"/>
-    <col min="18" max="19" width="5.140625" style="2" customWidth="1"/>
-    <col min="20" max="24" width="4.85546875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="8.7109375" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="17.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="2" customWidth="1"/>
+    <col min="11" max="12" width="7.5546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.88671875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="4.88671875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.6640625" style="2" customWidth="1"/>
+    <col min="18" max="19" width="5.109375" style="2" customWidth="1"/>
+    <col min="20" max="24" width="4.88671875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="8.6640625" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="106" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="106" t="s">
+      <c r="G1" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106" t="s">
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="106"/>
-      <c r="T1" s="106"/>
-      <c r="U1" s="106"/>
-      <c r="V1" s="106"/>
-      <c r="W1" s="106"/>
-      <c r="X1" s="106"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104"/>
+      <c r="X1" s="104"/>
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
-    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -18324,7 +18273,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -18384,7 +18333,7 @@
       </c>
       <c r="Z3" s="29"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -18420,7 +18369,7 @@
       <c r="Y4" s="33"/>
       <c r="Z4" s="34"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -18454,7 +18403,7 @@
       <c r="Y5" s="21"/>
       <c r="Z5" s="34"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -18490,7 +18439,7 @@
       <c r="Y6" s="21"/>
       <c r="Z6" s="34"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -18528,7 +18477,7 @@
       <c r="Y7" s="21"/>
       <c r="Z7" s="34"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -18568,7 +18517,7 @@
       <c r="Y8" s="21"/>
       <c r="Z8" s="34"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -18610,7 +18559,7 @@
       <c r="Y9" s="21"/>
       <c r="Z9" s="34"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -18654,7 +18603,7 @@
       <c r="Y10" s="21"/>
       <c r="Z10" s="34"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -18700,7 +18649,7 @@
       <c r="Y11" s="21"/>
       <c r="Z11" s="34"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -18748,7 +18697,7 @@
       <c r="Y12" s="21"/>
       <c r="Z12" s="34"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="21"/>
@@ -18798,7 +18747,7 @@
       <c r="Y13" s="21"/>
       <c r="Z13" s="34"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -18850,7 +18799,7 @@
       <c r="Y14" s="21"/>
       <c r="Z14" s="34"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -18904,7 +18853,7 @@
       <c r="Y15" s="21"/>
       <c r="Z15" s="34"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="21"/>
       <c r="C16" s="37"/>
@@ -18960,7 +18909,7 @@
       <c r="Y16" s="21"/>
       <c r="Z16" s="34"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="39"/>
@@ -18988,7 +18937,7 @@
       <c r="Y17" s="37"/>
       <c r="Z17" s="34"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="37"/>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
@@ -18999,7 +18948,7 @@
       <c r="H18" s="37"/>
       <c r="I18" s="21"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -19010,60 +18959,60 @@
       <c r="H19" s="37"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="37"/>
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="37"/>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="37"/>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="37"/>
       <c r="B26" s="37"/>
       <c r="C26" s="37"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="37"/>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E40" s="51"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="43" t="s">
         <v>48</v>
       </c>
@@ -19071,7 +19020,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="45" t="s">
         <v>56</v>
       </c>
@@ -19082,7 +19031,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="46" t="s">
         <v>57</v>
       </c>
@@ -19093,7 +19042,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="46" t="s">
         <v>58</v>
       </c>
@@ -19104,7 +19053,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="48" t="s">
         <v>59</v>
       </c>
@@ -19115,7 +19064,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="50" t="s">
         <v>49</v>
       </c>
@@ -19123,7 +19072,7 @@
       <c r="C110" s="50"/>
       <c r="D110" s="50"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>7</v>
       </c>
@@ -19164,65 +19113,65 @@
       <selection activeCell="G3" sqref="G3:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43" style="76" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="76" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="76" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" style="76" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="76" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="76" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" style="76" customWidth="1"/>
     <col min="5" max="5" width="9" style="76" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="76" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="76" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="76" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="76" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="76" customWidth="1"/>
-    <col min="11" max="12" width="7.5703125" style="76" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" style="76" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" style="76" customWidth="1"/>
-    <col min="15" max="15" width="5.85546875" style="76" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="76" customWidth="1"/>
-    <col min="17" max="17" width="4.7109375" style="76" customWidth="1"/>
-    <col min="18" max="19" width="5.140625" style="76" customWidth="1"/>
-    <col min="20" max="24" width="4.85546875" style="76" customWidth="1"/>
-    <col min="25" max="25" width="8.7109375" style="76" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="76"/>
+    <col min="6" max="6" width="17.6640625" style="76" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="76" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" style="76" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" style="76" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="76" customWidth="1"/>
+    <col min="11" max="12" width="7.5546875" style="76" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" style="76" customWidth="1"/>
+    <col min="14" max="14" width="7.109375" style="76" customWidth="1"/>
+    <col min="15" max="15" width="5.88671875" style="76" customWidth="1"/>
+    <col min="16" max="16" width="4.88671875" style="76" customWidth="1"/>
+    <col min="17" max="17" width="4.6640625" style="76" customWidth="1"/>
+    <col min="18" max="19" width="5.109375" style="76" customWidth="1"/>
+    <col min="20" max="24" width="4.88671875" style="76" customWidth="1"/>
+    <col min="25" max="25" width="8.6640625" style="76" customWidth="1"/>
+    <col min="26" max="16384" width="9.109375" style="76"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="106" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="73"/>
-      <c r="G1" s="106" t="s">
+      <c r="G1" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106" t="s">
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="106"/>
-      <c r="T1" s="106"/>
-      <c r="U1" s="106"/>
-      <c r="V1" s="106"/>
-      <c r="W1" s="106"/>
-      <c r="X1" s="106"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104"/>
+      <c r="X1" s="104"/>
       <c r="Y1" s="74"/>
       <c r="Z1" s="75"/>
     </row>
-    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="77" t="s">
         <v>64</v>
       </c>
@@ -19298,7 +19247,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="79"/>
       <c r="B3" s="20"/>
       <c r="C3" s="21"/>
@@ -19358,7 +19307,7 @@
       </c>
       <c r="Z3" s="29"/>
     </row>
-    <row r="4" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="80"/>
       <c r="B4" s="20"/>
       <c r="C4" s="21"/>
@@ -19394,7 +19343,7 @@
       <c r="Y4" s="33"/>
       <c r="Z4" s="34"/>
     </row>
-    <row r="5" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="80"/>
       <c r="B5" s="20"/>
       <c r="C5" s="21"/>
@@ -19428,7 +19377,7 @@
       <c r="Y5" s="21"/>
       <c r="Z5" s="34"/>
     </row>
-    <row r="6" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="80"/>
       <c r="B6" s="38"/>
       <c r="C6" s="21"/>
@@ -19464,7 +19413,7 @@
       <c r="Y6" s="21"/>
       <c r="Z6" s="34"/>
     </row>
-    <row r="7" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="80"/>
       <c r="B7" s="38"/>
       <c r="C7" s="21"/>
@@ -19502,7 +19451,7 @@
       <c r="Y7" s="21"/>
       <c r="Z7" s="34"/>
     </row>
-    <row r="8" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="80"/>
       <c r="B8" s="38"/>
       <c r="C8" s="21"/>
@@ -19542,7 +19491,7 @@
       <c r="Y8" s="21"/>
       <c r="Z8" s="34"/>
     </row>
-    <row r="9" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="80"/>
       <c r="B9" s="38"/>
       <c r="C9" s="21"/>
@@ -19584,7 +19533,7 @@
       <c r="Y9" s="21"/>
       <c r="Z9" s="34"/>
     </row>
-    <row r="10" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="80"/>
       <c r="B10" s="38"/>
       <c r="C10" s="21"/>
@@ -19628,7 +19577,7 @@
       <c r="Y10" s="21"/>
       <c r="Z10" s="34"/>
     </row>
-    <row r="11" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="80"/>
       <c r="B11" s="38"/>
       <c r="C11" s="21"/>
@@ -19674,7 +19623,7 @@
       <c r="Y11" s="21"/>
       <c r="Z11" s="34"/>
     </row>
-    <row r="12" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="80"/>
       <c r="B12" s="38"/>
       <c r="C12" s="21"/>
@@ -19722,7 +19671,7 @@
       <c r="Y12" s="21"/>
       <c r="Z12" s="34"/>
     </row>
-    <row r="13" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="80"/>
       <c r="B13" s="38"/>
       <c r="C13" s="21"/>
@@ -19772,7 +19721,7 @@
       <c r="Y13" s="21"/>
       <c r="Z13" s="34"/>
     </row>
-    <row r="14" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="80"/>
       <c r="B14" s="38"/>
       <c r="C14" s="21"/>
@@ -19824,7 +19773,7 @@
       <c r="Y14" s="21"/>
       <c r="Z14" s="34"/>
     </row>
-    <row r="15" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="80"/>
       <c r="B15" s="38"/>
       <c r="C15" s="21"/>
@@ -19878,7 +19827,7 @@
       <c r="Y15" s="21"/>
       <c r="Z15" s="34"/>
     </row>
-    <row r="16" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="80"/>
       <c r="B16" s="38"/>
       <c r="C16" s="37"/>
@@ -19934,7 +19883,7 @@
       <c r="Y16" s="21"/>
       <c r="Z16" s="34"/>
     </row>
-    <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="80"/>
       <c r="B17" s="38"/>
       <c r="C17" s="39"/>
@@ -19962,7 +19911,7 @@
       <c r="Y17" s="37"/>
       <c r="Z17" s="34"/>
     </row>
-    <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="80"/>
       <c r="B18" s="38"/>
       <c r="C18" s="37"/>
@@ -19973,7 +19922,7 @@
       <c r="H18" s="37"/>
       <c r="I18" s="21"/>
     </row>
-    <row r="19" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="80"/>
       <c r="B19" s="38"/>
       <c r="C19" s="37"/>
@@ -19984,214 +19933,214 @@
       <c r="H19" s="37"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="80"/>
       <c r="B20" s="20"/>
       <c r="C20" s="37"/>
       <c r="D20" s="52"/>
     </row>
-    <row r="21" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="80"/>
       <c r="B21" s="20"/>
       <c r="C21" s="37"/>
       <c r="D21" s="52"/>
     </row>
-    <row r="22" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A22" s="80"/>
       <c r="B22" s="38"/>
       <c r="C22" s="37"/>
       <c r="D22" s="52"/>
     </row>
-    <row r="23" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="80"/>
       <c r="B23" s="20"/>
       <c r="C23" s="37"/>
       <c r="D23" s="52"/>
     </row>
-    <row r="24" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A24" s="80"/>
       <c r="B24" s="20"/>
       <c r="C24" s="37"/>
       <c r="D24" s="52"/>
     </row>
-    <row r="25" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A25" s="80"/>
       <c r="B25" s="20"/>
       <c r="C25" s="37"/>
       <c r="D25" s="52"/>
     </row>
-    <row r="26" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A26" s="80"/>
       <c r="B26" s="20"/>
       <c r="C26" s="37"/>
       <c r="D26" s="52"/>
     </row>
-    <row r="27" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A27" s="82"/>
       <c r="B27" s="36"/>
       <c r="C27" s="37"/>
       <c r="D27" s="52"/>
     </row>
-    <row r="28" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A28" s="80"/>
       <c r="B28" s="20"/>
       <c r="C28" s="37"/>
       <c r="D28" s="52"/>
     </row>
-    <row r="29" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A29" s="80"/>
       <c r="B29" s="20"/>
       <c r="C29" s="37"/>
       <c r="D29" s="52"/>
     </row>
-    <row r="30" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A30" s="80"/>
       <c r="B30" s="20"/>
       <c r="C30" s="37"/>
       <c r="D30" s="52"/>
     </row>
-    <row r="31" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A31" s="83"/>
       <c r="B31" s="38"/>
       <c r="C31" s="37"/>
       <c r="D31" s="52"/>
     </row>
-    <row r="32" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A32" s="83"/>
       <c r="B32" s="38"/>
       <c r="C32" s="37"/>
       <c r="D32" s="52"/>
     </row>
-    <row r="33" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A33" s="83"/>
       <c r="B33" s="38"/>
       <c r="C33" s="37"/>
       <c r="D33" s="52"/>
     </row>
-    <row r="34" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A34" s="94"/>
       <c r="B34" s="38"/>
       <c r="C34" s="37"/>
       <c r="D34" s="52"/>
     </row>
-    <row r="35" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A35" s="94"/>
       <c r="B35" s="38"/>
       <c r="C35" s="37"/>
       <c r="D35" s="52"/>
     </row>
-    <row r="36" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A36" s="94"/>
       <c r="B36" s="38"/>
       <c r="C36" s="37"/>
       <c r="D36" s="52"/>
     </row>
-    <row r="37" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A37" s="94"/>
       <c r="B37" s="38"/>
       <c r="C37" s="37"/>
       <c r="D37" s="52"/>
     </row>
-    <row r="38" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A38" s="94"/>
       <c r="B38" s="38"/>
       <c r="C38" s="37"/>
       <c r="D38" s="52"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="38"/>
       <c r="B39" s="38"/>
       <c r="C39" s="37"/>
       <c r="D39" s="52"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="38"/>
       <c r="B40" s="38"/>
       <c r="C40" s="37"/>
       <c r="D40" s="40"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="38"/>
       <c r="B41" s="38"/>
       <c r="C41" s="37"/>
       <c r="D41" s="40"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="38"/>
       <c r="B42" s="38"/>
       <c r="C42" s="37"/>
       <c r="D42" s="40"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="38"/>
       <c r="B43" s="38"/>
       <c r="C43" s="37"/>
       <c r="D43" s="40"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="38"/>
       <c r="B44" s="38"/>
       <c r="C44" s="37"/>
       <c r="D44" s="40"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="38"/>
       <c r="B45" s="38"/>
       <c r="C45" s="37"/>
       <c r="D45" s="40"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="38"/>
       <c r="B46" s="38"/>
       <c r="C46" s="37"/>
       <c r="D46" s="40"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="38"/>
       <c r="B47" s="38"/>
       <c r="C47" s="37"/>
       <c r="D47" s="40"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="38"/>
       <c r="B48" s="38"/>
       <c r="C48" s="37"/>
       <c r="D48" s="40"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="38"/>
       <c r="B49" s="38"/>
       <c r="C49" s="37"/>
       <c r="D49" s="40"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="38"/>
       <c r="B50" s="38"/>
       <c r="C50" s="37"/>
       <c r="D50" s="40"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="38"/>
       <c r="B51" s="38"/>
       <c r="C51" s="37"/>
       <c r="D51" s="40"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="38"/>
       <c r="B52" s="38"/>
       <c r="C52" s="37"/>
       <c r="D52" s="40"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="37"/>
       <c r="B53" s="37"/>
       <c r="C53" s="37"/>
       <c r="D53" s="84"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E64" s="93"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="85" t="s">
         <v>48</v>
       </c>
@@ -20199,7 +20148,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="87" t="s">
         <v>56</v>
       </c>
@@ -20210,7 +20159,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="88" t="s">
         <v>57</v>
       </c>
@@ -20221,7 +20170,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="88" t="s">
         <v>58</v>
       </c>
@@ -20232,7 +20181,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="90" t="s">
         <v>59</v>
       </c>
@@ -20243,7 +20192,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="92" t="s">
         <v>49</v>
       </c>
@@ -20251,7 +20200,7 @@
       <c r="C110" s="92"/>
       <c r="D110" s="92"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="76" t="s">
         <v>7</v>
       </c>
@@ -20292,65 +20241,65 @@
       <selection activeCell="G3" sqref="G3:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="38.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="38.6640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="2" customWidth="1"/>
-    <col min="11" max="12" width="7.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.85546875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="4.7109375" style="2" customWidth="1"/>
-    <col min="18" max="19" width="5.140625" style="2" customWidth="1"/>
-    <col min="20" max="24" width="4.85546875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="8.7109375" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="17.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="2" customWidth="1"/>
+    <col min="11" max="12" width="7.5546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.88671875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="4.88671875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.6640625" style="2" customWidth="1"/>
+    <col min="18" max="19" width="5.109375" style="2" customWidth="1"/>
+    <col min="20" max="24" width="4.88671875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="8.6640625" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="106" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="106" t="s">
+      <c r="G1" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106" t="s">
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="106"/>
-      <c r="T1" s="106"/>
-      <c r="U1" s="106"/>
-      <c r="V1" s="106"/>
-      <c r="W1" s="106"/>
-      <c r="X1" s="106"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104"/>
+      <c r="X1" s="104"/>
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
-    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -20426,7 +20375,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3" s="20"/>
       <c r="C3" s="21"/>
@@ -20486,7 +20435,7 @@
       </c>
       <c r="Z3" s="29"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4" s="20"/>
       <c r="C4" s="21"/>
@@ -20522,7 +20471,7 @@
       <c r="Y4" s="33"/>
       <c r="Z4" s="34"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" s="20"/>
       <c r="C5" s="21"/>
@@ -20556,7 +20505,7 @@
       <c r="Y5" s="21"/>
       <c r="Z5" s="34"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="20"/>
       <c r="C6" s="21"/>
@@ -20592,7 +20541,7 @@
       <c r="Y6" s="21"/>
       <c r="Z6" s="34"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="20"/>
       <c r="C7" s="21"/>
@@ -20630,7 +20579,7 @@
       <c r="Y7" s="21"/>
       <c r="Z7" s="34"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="20"/>
       <c r="C8" s="21"/>
@@ -20670,7 +20619,7 @@
       <c r="Y8" s="21"/>
       <c r="Z8" s="34"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="20"/>
       <c r="C9" s="21"/>
@@ -20712,7 +20661,7 @@
       <c r="Y9" s="21"/>
       <c r="Z9" s="34"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="20"/>
       <c r="C10" s="21"/>
@@ -20756,7 +20705,7 @@
       <c r="Y10" s="21"/>
       <c r="Z10" s="34"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -20802,7 +20751,7 @@
       <c r="Y11" s="21"/>
       <c r="Z11" s="34"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -20850,7 +20799,7 @@
       <c r="Y12" s="21"/>
       <c r="Z12" s="34"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="21"/>
@@ -20900,7 +20849,7 @@
       <c r="Y13" s="21"/>
       <c r="Z13" s="34"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -20952,7 +20901,7 @@
       <c r="Y14" s="21"/>
       <c r="Z14" s="34"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -21006,7 +20955,7 @@
       <c r="Y15" s="21"/>
       <c r="Z15" s="34"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="21"/>
       <c r="C16" s="37"/>
@@ -21062,7 +21011,7 @@
       <c r="Y16" s="21"/>
       <c r="Z16" s="34"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="39"/>
@@ -21090,7 +21039,7 @@
       <c r="Y17" s="37"/>
       <c r="Z17" s="34"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="37"/>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
@@ -21101,7 +21050,7 @@
       <c r="H18" s="37"/>
       <c r="I18" s="21"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -21112,70 +21061,70 @@
       <c r="H19" s="37"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="37"/>
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
       <c r="D20" s="42"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
       <c r="D21" s="42"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="37"/>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
       <c r="D22" s="42"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
       <c r="D23" s="42"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="37"/>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
       <c r="D24" s="42"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
       <c r="D25" s="42"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="37"/>
       <c r="B26" s="37"/>
       <c r="C26" s="37"/>
       <c r="D26" s="42"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
       <c r="D27" s="42"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="37"/>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
       <c r="D28" s="42"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
       <c r="D29" s="42"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E40" s="51"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="43" t="s">
         <v>48</v>
       </c>
@@ -21183,7 +21132,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="45" t="s">
         <v>56</v>
       </c>
@@ -21194,7 +21143,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="46" t="s">
         <v>57</v>
       </c>
@@ -21205,7 +21154,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="46" t="s">
         <v>58</v>
       </c>
@@ -21216,7 +21165,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="48" t="s">
         <v>59</v>
       </c>
@@ -21227,7 +21176,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="50" t="s">
         <v>49</v>
       </c>
@@ -21235,7 +21184,7 @@
       <c r="C110" s="50"/>
       <c r="D110" s="50"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>7</v>
       </c>
@@ -21276,65 +21225,65 @@
       <selection activeCell="G3" sqref="G3:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="2" customWidth="1"/>
-    <col min="11" max="12" width="7.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.85546875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="4.7109375" style="2" customWidth="1"/>
-    <col min="18" max="19" width="5.140625" style="2" customWidth="1"/>
-    <col min="20" max="24" width="4.85546875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="8.7109375" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="17.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="2" customWidth="1"/>
+    <col min="11" max="12" width="7.5546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.88671875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="4.88671875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.6640625" style="2" customWidth="1"/>
+    <col min="18" max="19" width="5.109375" style="2" customWidth="1"/>
+    <col min="20" max="24" width="4.88671875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="8.6640625" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="106" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="106" t="s">
+      <c r="G1" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106" t="s">
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="106"/>
-      <c r="T1" s="106"/>
-      <c r="U1" s="106"/>
-      <c r="V1" s="106"/>
-      <c r="W1" s="106"/>
-      <c r="X1" s="106"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104"/>
+      <c r="X1" s="104"/>
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
-    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -21410,7 +21359,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -21470,7 +21419,7 @@
       </c>
       <c r="Z3" s="29"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -21506,7 +21455,7 @@
       <c r="Y4" s="33"/>
       <c r="Z4" s="34"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -21540,7 +21489,7 @@
       <c r="Y5" s="21"/>
       <c r="Z5" s="34"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -21576,7 +21525,7 @@
       <c r="Y6" s="21"/>
       <c r="Z6" s="34"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -21614,7 +21563,7 @@
       <c r="Y7" s="21"/>
       <c r="Z7" s="34"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -21654,7 +21603,7 @@
       <c r="Y8" s="21"/>
       <c r="Z8" s="34"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -21696,7 +21645,7 @@
       <c r="Y9" s="21"/>
       <c r="Z9" s="34"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -21740,7 +21689,7 @@
       <c r="Y10" s="21"/>
       <c r="Z10" s="34"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -21786,7 +21735,7 @@
       <c r="Y11" s="21"/>
       <c r="Z11" s="34"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -21834,7 +21783,7 @@
       <c r="Y12" s="21"/>
       <c r="Z12" s="34"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="21"/>
@@ -21884,7 +21833,7 @@
       <c r="Y13" s="21"/>
       <c r="Z13" s="34"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -21936,7 +21885,7 @@
       <c r="Y14" s="21"/>
       <c r="Z14" s="34"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -21990,7 +21939,7 @@
       <c r="Y15" s="21"/>
       <c r="Z15" s="34"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="21"/>
       <c r="C16" s="37"/>
@@ -22046,7 +21995,7 @@
       <c r="Y16" s="21"/>
       <c r="Z16" s="34"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="39"/>
@@ -22074,7 +22023,7 @@
       <c r="Y17" s="37"/>
       <c r="Z17" s="34"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="37"/>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
@@ -22085,7 +22034,7 @@
       <c r="H18" s="37"/>
       <c r="I18" s="21"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -22096,60 +22045,60 @@
       <c r="H19" s="37"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="37"/>
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="37"/>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="37"/>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="37"/>
       <c r="B26" s="37"/>
       <c r="C26" s="37"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="37"/>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E40" s="51"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="43" t="s">
         <v>48</v>
       </c>
@@ -22157,7 +22106,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="45" t="s">
         <v>56</v>
       </c>
@@ -22168,7 +22117,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="46" t="s">
         <v>57</v>
       </c>
@@ -22179,7 +22128,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="46" t="s">
         <v>58</v>
       </c>
@@ -22190,7 +22139,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="48" t="s">
         <v>59</v>
       </c>
@@ -22201,7 +22150,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="50" t="s">
         <v>49</v>
       </c>
@@ -22209,7 +22158,7 @@
       <c r="C110" s="50"/>
       <c r="D110" s="50"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>7</v>
       </c>
@@ -22250,65 +22199,65 @@
       <selection activeCell="G3" sqref="G3:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="2" customWidth="1"/>
-    <col min="11" max="12" width="7.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.85546875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="4.7109375" style="2" customWidth="1"/>
-    <col min="18" max="19" width="5.140625" style="2" customWidth="1"/>
-    <col min="20" max="24" width="4.85546875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="8.7109375" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="17.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="2" customWidth="1"/>
+    <col min="11" max="12" width="7.5546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.88671875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="4.88671875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.6640625" style="2" customWidth="1"/>
+    <col min="18" max="19" width="5.109375" style="2" customWidth="1"/>
+    <col min="20" max="24" width="4.88671875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="8.6640625" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="106" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="106" t="s">
+      <c r="G1" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106" t="s">
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="106"/>
-      <c r="T1" s="106"/>
-      <c r="U1" s="106"/>
-      <c r="V1" s="106"/>
-      <c r="W1" s="106"/>
-      <c r="X1" s="106"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104"/>
+      <c r="X1" s="104"/>
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
-    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -22384,7 +22333,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -22444,7 +22393,7 @@
       </c>
       <c r="Z3" s="29"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -22480,7 +22429,7 @@
       <c r="Y4" s="33"/>
       <c r="Z4" s="34"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -22514,7 +22463,7 @@
       <c r="Y5" s="21"/>
       <c r="Z5" s="34"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -22550,7 +22499,7 @@
       <c r="Y6" s="21"/>
       <c r="Z6" s="34"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -22588,7 +22537,7 @@
       <c r="Y7" s="21"/>
       <c r="Z7" s="34"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -22628,7 +22577,7 @@
       <c r="Y8" s="21"/>
       <c r="Z8" s="34"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -22670,7 +22619,7 @@
       <c r="Y9" s="21"/>
       <c r="Z9" s="34"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -22714,7 +22663,7 @@
       <c r="Y10" s="21"/>
       <c r="Z10" s="34"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -22760,7 +22709,7 @@
       <c r="Y11" s="21"/>
       <c r="Z11" s="34"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -22808,7 +22757,7 @@
       <c r="Y12" s="21"/>
       <c r="Z12" s="34"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="21"/>
@@ -22858,7 +22807,7 @@
       <c r="Y13" s="21"/>
       <c r="Z13" s="34"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -22910,7 +22859,7 @@
       <c r="Y14" s="21"/>
       <c r="Z14" s="34"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -22964,7 +22913,7 @@
       <c r="Y15" s="21"/>
       <c r="Z15" s="34"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="21"/>
       <c r="C16" s="37"/>
@@ -23020,7 +22969,7 @@
       <c r="Y16" s="21"/>
       <c r="Z16" s="34"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="39"/>
@@ -23048,7 +22997,7 @@
       <c r="Y17" s="37"/>
       <c r="Z17" s="34"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="37"/>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
@@ -23075,7 +23024,7 @@
       <c r="Y18" s="37"/>
       <c r="Z18" s="34"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -23102,60 +23051,60 @@
       <c r="Y19" s="37"/>
       <c r="Z19" s="34"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="37"/>
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="37"/>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="37"/>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="37"/>
       <c r="B26" s="37"/>
       <c r="C26" s="37"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="37"/>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E40" s="51"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="43" t="s">
         <v>48</v>
       </c>
@@ -23163,7 +23112,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="45" t="s">
         <v>56</v>
       </c>
@@ -23174,7 +23123,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="46" t="s">
         <v>57</v>
       </c>
@@ -23185,7 +23134,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="46" t="s">
         <v>58</v>
       </c>
@@ -23196,7 +23145,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="48" t="s">
         <v>59</v>
       </c>
@@ -23207,7 +23156,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="50" t="s">
         <v>49</v>
       </c>
@@ -23215,7 +23164,7 @@
       <c r="C110" s="50"/>
       <c r="D110" s="50"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>7</v>
       </c>

--- a/dcomtestcasegeneration/Database/DB_SAIC_AS28_R1.0_DCOM.xlsx
+++ b/dcomtestcasegeneration/Database/DB_SAIC_AS28_R1.0_DCOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BOSCH_WORK\DCOM_TestcaseTool\dcomtestcasegeneration\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HuyNA_repo\dcomtestcasegeneration\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{627809AD-67F1-4580-892F-0300B0DAE0F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158F7C34-1592-4AD7-A606-C779D43646A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5748" yWindow="960" windowWidth="11280" windowHeight="10356" tabRatio="903" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14160" yWindow="3495" windowWidth="12555" windowHeight="12915" tabRatio="903" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Common_settings" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2101" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2116" uniqueCount="119">
   <si>
     <t>Sub_function</t>
   </si>
@@ -289,6 +289,18 @@
     <t>Private CAN DBC</t>
   </si>
   <si>
+    <t>Project Name</t>
+  </si>
+  <si>
+    <t>Variant</t>
+  </si>
+  <si>
+    <t>Release</t>
+  </si>
+  <si>
+    <t>RC</t>
+  </si>
+  <si>
     <t>Create_fault</t>
   </si>
   <si>
@@ -364,13 +376,13 @@
     <t>Local</t>
   </si>
   <si>
-    <t>D:\BOSCH_WORK\DCOM_TestcaseTool\dcomtestcasegeneration\Database\DB_SAIC_AS28_R1.0_DCOM.xlsx</t>
+    <t>D:\HuyNA_repo\dcomtestcasegeneration\Database\DB_SAIC_AS28_R1.0_DCOM.xlsx</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>D:\BOSCH_WORK\DCOM_TestcaseTool\dcomtestcasegeneration\DB_SAIC_AS28_R1.0_DCOM.xlsx\Template</t>
+    <t>D:\HuyNA_repo\dcomtestcasegeneration\DB_SAIC_AS28_R1.0_DCOM.xlsx\Template</t>
   </si>
   <si>
     <t>01</t>
@@ -388,7 +400,7 @@
     <t>03</t>
   </si>
   <si>
-    <t>ON</t>
+    <t>ffffff</t>
   </si>
 </sst>
 </file>
@@ -785,7 +797,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -983,6 +995,9 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -10520,21 +10535,21 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51:B62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="39.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="12" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="2"/>
+    <col min="4" max="4" width="13.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
@@ -10548,77 +10563,77 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>42</v>
       </c>
@@ -10629,46 +10644,46 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>61</v>
       </c>
@@ -10678,73 +10693,73 @@
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="1:4" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:4" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>70</v>
       </c>
@@ -10754,37 +10769,45 @@
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
     </row>
-    <row r="31" spans="1:4" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
+    <row r="31" spans="1:4" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="104" t="s">
+        <v>81</v>
+      </c>
       <c r="B31" s="8" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="104" t="s">
+        <v>82</v>
+      </c>
       <c r="B32" s="9" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="104" t="s">
+        <v>83</v>
+      </c>
       <c r="B33" s="9" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="104" t="s">
+        <v>84</v>
+      </c>
       <c r="B34" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>69</v>
       </c>
@@ -10792,47 +10815,47 @@
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>66</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>67</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>79</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>80</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>68</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>71</v>
       </c>
@@ -10840,7 +10863,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>35</v>
       </c>
@@ -10848,7 +10871,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
         <v>15</v>
       </c>
@@ -10856,7 +10879,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>51</v>
       </c>
@@ -10864,7 +10887,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
         <v>72</v>
       </c>
@@ -10872,7 +10895,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>19</v>
       </c>
@@ -10880,7 +10903,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>73</v>
       </c>
@@ -10888,7 +10911,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
         <v>74</v>
       </c>
@@ -10896,7 +10919,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
         <v>75</v>
       </c>
@@ -10904,7 +10927,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
         <v>76</v>
       </c>
@@ -10912,7 +10935,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
         <v>17</v>
       </c>
@@ -10920,7 +10943,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
         <v>77</v>
       </c>
@@ -10928,7 +10951,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
         <v>78</v>
       </c>
@@ -10956,65 +10979,65 @@
       <selection activeCell="G3" sqref="G3:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="2" customWidth="1"/>
-    <col min="11" max="12" width="7.5546875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.33203125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7.109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.88671875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="4.88671875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="4.6640625" style="2" customWidth="1"/>
-    <col min="18" max="19" width="5.109375" style="2" customWidth="1"/>
-    <col min="20" max="24" width="4.88671875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="8.6640625" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.109375" style="2"/>
+    <col min="6" max="6" width="17.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="2" customWidth="1"/>
+    <col min="11" max="12" width="7.5703125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.28515625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.85546875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.7109375" style="2" customWidth="1"/>
+    <col min="18" max="19" width="5.140625" style="2" customWidth="1"/>
+    <col min="20" max="24" width="4.85546875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="8.7109375" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="104" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="104" t="s">
+      <c r="G1" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104" t="s">
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
-      <c r="X1" s="104"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="105"/>
+      <c r="W1" s="105"/>
+      <c r="X1" s="105"/>
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
-    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -11090,7 +11113,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="19"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -11150,7 +11173,7 @@
       </c>
       <c r="Z3" s="29"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="19"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -11186,7 +11209,7 @@
       <c r="Y4" s="33"/>
       <c r="Z4" s="34"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="19"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -11220,7 +11243,7 @@
       <c r="Y5" s="21"/>
       <c r="Z5" s="34"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -11256,7 +11279,7 @@
       <c r="Y6" s="21"/>
       <c r="Z6" s="34"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="19"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -11294,7 +11317,7 @@
       <c r="Y7" s="21"/>
       <c r="Z7" s="34"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="19"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -11334,7 +11357,7 @@
       <c r="Y8" s="21"/>
       <c r="Z8" s="34"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="19"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -11376,7 +11399,7 @@
       <c r="Y9" s="21"/>
       <c r="Z9" s="34"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="19"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -11420,7 +11443,7 @@
       <c r="Y10" s="21"/>
       <c r="Z10" s="34"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -11466,7 +11489,7 @@
       <c r="Y11" s="21"/>
       <c r="Z11" s="34"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="19"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -11514,7 +11537,7 @@
       <c r="Y12" s="21"/>
       <c r="Z12" s="34"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="19"/>
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
@@ -11564,7 +11587,7 @@
       <c r="Y13" s="21"/>
       <c r="Z13" s="34"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -11616,7 +11639,7 @@
       <c r="Y14" s="21"/>
       <c r="Z14" s="34"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="19"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -11670,7 +11693,7 @@
       <c r="Y15" s="21"/>
       <c r="Z15" s="34"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
       <c r="B16" s="21"/>
       <c r="C16" s="37"/>
@@ -11726,7 +11749,7 @@
       <c r="Y16" s="21"/>
       <c r="Z16" s="34"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="39"/>
@@ -11754,7 +11777,7 @@
       <c r="Y17" s="37"/>
       <c r="Z17" s="34"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="37"/>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
@@ -11765,7 +11788,7 @@
       <c r="H18" s="37"/>
       <c r="I18" s="21"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -11776,7 +11799,7 @@
       <c r="H19" s="37"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="37"/>
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
@@ -11786,7 +11809,7 @@
       <c r="H20" s="37"/>
       <c r="I20" s="21"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
@@ -11796,7 +11819,7 @@
       <c r="H21" s="37"/>
       <c r="I21" s="21"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="37"/>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
@@ -11806,7 +11829,7 @@
       <c r="H22" s="37"/>
       <c r="I22" s="21"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
@@ -11816,45 +11839,45 @@
       <c r="H23" s="37"/>
       <c r="I23" s="21"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="37"/>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
       <c r="D24" s="37"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
       <c r="D25" s="37"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="37"/>
       <c r="B26" s="37"/>
       <c r="C26" s="37"/>
       <c r="D26" s="37"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
       <c r="D27" s="37"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="37"/>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
       <c r="D28" s="37"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E40" s="51"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="43" t="s">
         <v>48</v>
       </c>
@@ -11862,7 +11885,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="45" t="s">
         <v>56</v>
       </c>
@@ -11873,7 +11896,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="46" t="s">
         <v>57</v>
       </c>
@@ -11884,7 +11907,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="46" t="s">
         <v>58</v>
       </c>
@@ -11895,7 +11918,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="48" t="s">
         <v>59</v>
       </c>
@@ -11906,7 +11929,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="50" t="s">
         <v>49</v>
       </c>
@@ -11914,7 +11937,7 @@
       <c r="C110" s="50"/>
       <c r="D110" s="50"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>7</v>
       </c>
@@ -11955,65 +11978,65 @@
       <selection activeCell="G3" sqref="G3:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="42" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="42" customWidth="1"/>
     <col min="5" max="5" width="9" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="2" customWidth="1"/>
-    <col min="11" max="12" width="7.5546875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.33203125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7.109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.88671875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="4.88671875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="4.6640625" style="2" customWidth="1"/>
-    <col min="18" max="19" width="5.109375" style="2" customWidth="1"/>
-    <col min="20" max="24" width="4.88671875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="8.6640625" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.109375" style="2"/>
+    <col min="6" max="6" width="17.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="2" customWidth="1"/>
+    <col min="11" max="12" width="7.5703125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.28515625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.85546875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.7109375" style="2" customWidth="1"/>
+    <col min="18" max="19" width="5.140625" style="2" customWidth="1"/>
+    <col min="20" max="24" width="4.85546875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="8.7109375" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="105" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
       <c r="D1" s="95"/>
       <c r="E1" s="64"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="105" t="s">
+      <c r="G1" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105" t="s">
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
-      <c r="N1" s="105"/>
-      <c r="O1" s="105"/>
-      <c r="P1" s="105"/>
-      <c r="Q1" s="105"/>
-      <c r="R1" s="105"/>
-      <c r="S1" s="105"/>
-      <c r="T1" s="105"/>
-      <c r="U1" s="105"/>
-      <c r="V1" s="105"/>
-      <c r="W1" s="105"/>
-      <c r="X1" s="105"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="106"/>
+      <c r="T1" s="106"/>
+      <c r="U1" s="106"/>
+      <c r="V1" s="106"/>
+      <c r="W1" s="106"/>
+      <c r="X1" s="106"/>
       <c r="Y1" s="65"/>
       <c r="Z1" s="65"/>
     </row>
-    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="66" t="s">
         <v>0</v>
       </c>
@@ -12089,7 +12112,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="19"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -12149,7 +12172,7 @@
       </c>
       <c r="Z3" s="29"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="19"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -12185,7 +12208,7 @@
       <c r="Y4" s="33"/>
       <c r="Z4" s="34"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="19"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -12219,7 +12242,7 @@
       <c r="Y5" s="21"/>
       <c r="Z5" s="34"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -12255,7 +12278,7 @@
       <c r="Y6" s="21"/>
       <c r="Z6" s="34"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="19"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -12293,7 +12316,7 @@
       <c r="Y7" s="21"/>
       <c r="Z7" s="34"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="19"/>
       <c r="B8" s="68"/>
       <c r="C8" s="21"/>
@@ -12333,7 +12356,7 @@
       <c r="Y8" s="21"/>
       <c r="Z8" s="34"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -12375,7 +12398,7 @@
       <c r="Y9" s="21"/>
       <c r="Z9" s="34"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="19"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -12419,7 +12442,7 @@
       <c r="Y10" s="21"/>
       <c r="Z10" s="34"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -12465,7 +12488,7 @@
       <c r="Y11" s="21"/>
       <c r="Z11" s="34"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="19"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -12513,7 +12536,7 @@
       <c r="Y12" s="21"/>
       <c r="Z12" s="34"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="21"/>
@@ -12563,7 +12586,7 @@
       <c r="Y13" s="21"/>
       <c r="Z13" s="34"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -12615,7 +12638,7 @@
       <c r="Y14" s="21"/>
       <c r="Z14" s="34"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="19"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -12669,7 +12692,7 @@
       <c r="Y15" s="21"/>
       <c r="Z15" s="34"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
       <c r="B16" s="21"/>
       <c r="C16" s="69"/>
@@ -12725,7 +12748,7 @@
       <c r="Y16" s="21"/>
       <c r="Z16" s="34"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="39"/>
@@ -12753,7 +12776,7 @@
       <c r="Y17" s="37"/>
       <c r="Z17" s="34"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="37"/>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
@@ -12780,7 +12803,7 @@
       <c r="Y18" s="37"/>
       <c r="Z18" s="34"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -12807,69 +12830,69 @@
       <c r="Y19" s="37"/>
       <c r="Z19" s="34"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="37"/>
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="37"/>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="37"/>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="37"/>
       <c r="B26" s="37"/>
       <c r="C26" s="37"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="37"/>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
     </row>
-    <row r="34" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:9" x14ac:dyDescent="0.2">
       <c r="I34" s="70"/>
     </row>
-    <row r="37" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:9" x14ac:dyDescent="0.2">
       <c r="I37" s="100"/>
     </row>
-    <row r="38" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:9" x14ac:dyDescent="0.2">
       <c r="I38" s="100"/>
     </row>
-    <row r="40" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E40" s="51"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="43" t="s">
         <v>48</v>
       </c>
@@ -12877,7 +12900,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="45" t="s">
         <v>56</v>
       </c>
@@ -12888,7 +12911,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="46" t="s">
         <v>57</v>
       </c>
@@ -12899,7 +12922,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="46" t="s">
         <v>58</v>
       </c>
@@ -12910,7 +12933,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="48" t="s">
         <v>59</v>
       </c>
@@ -12921,7 +12944,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="50" t="s">
         <v>49</v>
       </c>
@@ -12929,7 +12952,7 @@
       <c r="C110" s="50"/>
       <c r="D110" s="99"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>7</v>
       </c>
@@ -12970,65 +12993,65 @@
       <selection activeCell="G3" sqref="G3:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="2" customWidth="1"/>
-    <col min="11" max="12" width="7.5546875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.33203125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7.109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.88671875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="4.88671875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="4.6640625" style="2" customWidth="1"/>
-    <col min="18" max="19" width="5.109375" style="2" customWidth="1"/>
-    <col min="20" max="24" width="4.88671875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="8.6640625" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.109375" style="2"/>
+    <col min="6" max="6" width="17.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="2" customWidth="1"/>
+    <col min="11" max="12" width="7.5703125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.28515625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.85546875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.7109375" style="2" customWidth="1"/>
+    <col min="18" max="19" width="5.140625" style="2" customWidth="1"/>
+    <col min="20" max="24" width="4.85546875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="8.7109375" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="104" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="104" t="s">
+      <c r="G1" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104" t="s">
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
-      <c r="X1" s="104"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="105"/>
+      <c r="W1" s="105"/>
+      <c r="X1" s="105"/>
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
-    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -13104,7 +13127,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="19"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -13164,7 +13187,7 @@
       </c>
       <c r="Z3" s="29"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="19"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -13200,7 +13223,7 @@
       <c r="Y4" s="33"/>
       <c r="Z4" s="34"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="19"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -13234,7 +13257,7 @@
       <c r="Y5" s="21"/>
       <c r="Z5" s="34"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -13270,7 +13293,7 @@
       <c r="Y6" s="21"/>
       <c r="Z6" s="34"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="19"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -13308,7 +13331,7 @@
       <c r="Y7" s="21"/>
       <c r="Z7" s="34"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="19"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -13348,7 +13371,7 @@
       <c r="Y8" s="21"/>
       <c r="Z8" s="34"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -13390,7 +13413,7 @@
       <c r="Y9" s="21"/>
       <c r="Z9" s="34"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="19"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -13434,7 +13457,7 @@
       <c r="Y10" s="21"/>
       <c r="Z10" s="34"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -13480,7 +13503,7 @@
       <c r="Y11" s="21"/>
       <c r="Z11" s="34"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="19"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -13528,7 +13551,7 @@
       <c r="Y12" s="21"/>
       <c r="Z12" s="34"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="21"/>
@@ -13578,7 +13601,7 @@
       <c r="Y13" s="21"/>
       <c r="Z13" s="34"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -13630,7 +13653,7 @@
       <c r="Y14" s="21"/>
       <c r="Z14" s="34"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="19"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -13684,7 +13707,7 @@
       <c r="Y15" s="21"/>
       <c r="Z15" s="34"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
       <c r="B16" s="21"/>
       <c r="C16" s="37"/>
@@ -13740,7 +13763,7 @@
       <c r="Y16" s="21"/>
       <c r="Z16" s="34"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="39"/>
@@ -13768,7 +13791,7 @@
       <c r="Y17" s="37"/>
       <c r="Z17" s="34"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="37"/>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
@@ -13795,7 +13818,7 @@
       <c r="Y18" s="37"/>
       <c r="Z18" s="34"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -13822,60 +13845,60 @@
       <c r="Y19" s="37"/>
       <c r="Z19" s="34"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="37"/>
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="37"/>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="37"/>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="37"/>
       <c r="B26" s="37"/>
       <c r="C26" s="37"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="37"/>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E40" s="51"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="43" t="s">
         <v>48</v>
       </c>
@@ -13883,7 +13906,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="45" t="s">
         <v>56</v>
       </c>
@@ -13894,7 +13917,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="46" t="s">
         <v>57</v>
       </c>
@@ -13905,7 +13928,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="46" t="s">
         <v>58</v>
       </c>
@@ -13916,7 +13939,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="48" t="s">
         <v>59</v>
       </c>
@@ -13927,7 +13950,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="50" t="s">
         <v>49</v>
       </c>
@@ -13935,7 +13958,7 @@
       <c r="C110" s="50"/>
       <c r="D110" s="50"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>7</v>
       </c>
@@ -13976,65 +13999,65 @@
       <selection activeCell="G3" sqref="G3:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="2" customWidth="1"/>
-    <col min="11" max="12" width="7.5546875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.33203125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7.109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.88671875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="4.88671875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="4.6640625" style="2" customWidth="1"/>
-    <col min="18" max="19" width="5.109375" style="2" customWidth="1"/>
-    <col min="20" max="24" width="4.88671875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="8.6640625" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.109375" style="2"/>
+    <col min="6" max="6" width="17.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="2" customWidth="1"/>
+    <col min="11" max="12" width="7.5703125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.28515625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.85546875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.7109375" style="2" customWidth="1"/>
+    <col min="18" max="19" width="5.140625" style="2" customWidth="1"/>
+    <col min="20" max="24" width="4.85546875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="8.7109375" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="104" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="104" t="s">
+      <c r="G1" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104" t="s">
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
-      <c r="X1" s="104"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="105"/>
+      <c r="W1" s="105"/>
+      <c r="X1" s="105"/>
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
-    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -14110,7 +14133,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="19"/>
       <c r="B3" s="20"/>
       <c r="C3" s="21"/>
@@ -14170,7 +14193,7 @@
       </c>
       <c r="Z3" s="29"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="19"/>
       <c r="B4" s="20"/>
       <c r="C4" s="21"/>
@@ -14206,7 +14229,7 @@
       <c r="Y4" s="33"/>
       <c r="Z4" s="34"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="19"/>
       <c r="B5" s="20"/>
       <c r="C5" s="21"/>
@@ -14240,7 +14263,7 @@
       <c r="Y5" s="21"/>
       <c r="Z5" s="34"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
       <c r="B6" s="20"/>
       <c r="C6" s="21"/>
@@ -14276,7 +14299,7 @@
       <c r="Y6" s="21"/>
       <c r="Z6" s="34"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="19"/>
       <c r="B7" s="20"/>
       <c r="C7" s="21"/>
@@ -14314,7 +14337,7 @@
       <c r="Y7" s="21"/>
       <c r="Z7" s="34"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="19"/>
       <c r="B8" s="20"/>
       <c r="C8" s="21"/>
@@ -14354,7 +14377,7 @@
       <c r="Y8" s="21"/>
       <c r="Z8" s="34"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -14396,7 +14419,7 @@
       <c r="Y9" s="21"/>
       <c r="Z9" s="34"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="19"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -14440,7 +14463,7 @@
       <c r="Y10" s="21"/>
       <c r="Z10" s="34"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -14486,7 +14509,7 @@
       <c r="Y11" s="21"/>
       <c r="Z11" s="34"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="19"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -14534,7 +14557,7 @@
       <c r="Y12" s="21"/>
       <c r="Z12" s="34"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="21"/>
@@ -14584,7 +14607,7 @@
       <c r="Y13" s="21"/>
       <c r="Z13" s="34"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -14636,7 +14659,7 @@
       <c r="Y14" s="21"/>
       <c r="Z14" s="34"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="19"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -14690,7 +14713,7 @@
       <c r="Y15" s="21"/>
       <c r="Z15" s="34"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
       <c r="B16" s="21"/>
       <c r="C16" s="37"/>
@@ -14746,7 +14769,7 @@
       <c r="Y16" s="21"/>
       <c r="Z16" s="34"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="39"/>
@@ -14774,7 +14797,7 @@
       <c r="Y17" s="37"/>
       <c r="Z17" s="34"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="37"/>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
@@ -14785,7 +14808,7 @@
       <c r="H18" s="37"/>
       <c r="I18" s="21"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -14796,60 +14819,60 @@
       <c r="H19" s="37"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="37"/>
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="37"/>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="37"/>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="37"/>
       <c r="B26" s="37"/>
       <c r="C26" s="37"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="37"/>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E40" s="51"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="43" t="s">
         <v>48</v>
       </c>
@@ -14857,7 +14880,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="45" t="s">
         <v>56</v>
       </c>
@@ -14868,7 +14891,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="46" t="s">
         <v>57</v>
       </c>
@@ -14879,7 +14902,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="46" t="s">
         <v>58</v>
       </c>
@@ -14890,7 +14913,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="48" t="s">
         <v>59</v>
       </c>
@@ -14901,7 +14924,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="50" t="s">
         <v>49</v>
       </c>
@@ -14909,7 +14932,7 @@
       <c r="C110" s="50"/>
       <c r="D110" s="50"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>7</v>
       </c>
@@ -14947,7 +14970,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14958,72 +14981,72 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Z111"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D95" sqref="D95"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="2" customWidth="1"/>
     <col min="10" max="10" width="12" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.33203125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7.109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.88671875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="5.109375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="4.6640625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.109375" style="2" customWidth="1"/>
-    <col min="20" max="21" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="4.88671875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="8.6640625" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.109375" style="2"/>
+    <col min="11" max="11" width="14.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.28515625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.85546875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="5.140625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.7109375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.140625" style="2" customWidth="1"/>
+    <col min="20" max="21" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="4.85546875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="8.7109375" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="104" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="104" t="s">
+      <c r="G1" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104" t="s">
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
-      <c r="X1" s="104"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="105"/>
+      <c r="W1" s="105"/>
+      <c r="X1" s="105"/>
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
-    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -15099,28 +15122,28 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="53" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D3" s="53" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E3" s="53"/>
       <c r="F3" s="24" t="s">
         <v>54</v>
       </c>
       <c r="G3" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="25" t="s">
         <v>26</v>
-      </c>
-      <c r="H3" s="25" t="s">
-        <v>29</v>
       </c>
       <c r="I3" s="25" t="s">
         <v>29</v>
@@ -15173,18 +15196,18 @@
       </c>
       <c r="Z3" s="56"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="53" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D4" s="53" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E4" s="53"/>
       <c r="F4" s="30" t="s">
@@ -15194,7 +15217,7 @@
         <v>29</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I4" s="25" t="s">
         <v>26</v>
@@ -15247,18 +15270,18 @@
       </c>
       <c r="Z4" s="58"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="53" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D5" s="53" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E5" s="53"/>
       <c r="F5" s="24" t="s">
@@ -15268,10 +15291,10 @@
         <v>26</v>
       </c>
       <c r="H5" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="25" t="s">
         <v>29</v>
-      </c>
-      <c r="I5" s="25" t="s">
-        <v>26</v>
       </c>
       <c r="J5" s="54"/>
       <c r="K5" s="57">
@@ -15321,7 +15344,7 @@
       </c>
       <c r="Z5" s="58"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="53"/>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
@@ -15387,7 +15410,7 @@
       </c>
       <c r="Z6" s="58"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="53"/>
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
@@ -15400,7 +15423,7 @@
         <v>29</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I7" s="25" t="s">
         <v>26</v>
@@ -15453,7 +15476,7 @@
       </c>
       <c r="Z7" s="58"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="53"/>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
@@ -15511,7 +15534,7 @@
       </c>
       <c r="Z8" s="58"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="25"/>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
@@ -15569,7 +15592,7 @@
       </c>
       <c r="Z9" s="58"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="53"/>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
@@ -15627,7 +15650,7 @@
       </c>
       <c r="Z10" s="58"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="53"/>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
@@ -15685,7 +15708,7 @@
       </c>
       <c r="Z11" s="58"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="53"/>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
@@ -15743,7 +15766,7 @@
       </c>
       <c r="Z12" s="58"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="53"/>
       <c r="B13" s="53"/>
       <c r="C13" s="25"/>
@@ -15801,7 +15824,7 @@
       </c>
       <c r="Z13" s="58"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="53"/>
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
@@ -15859,7 +15882,7 @@
       </c>
       <c r="Z14" s="58"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="53"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -15917,7 +15940,7 @@
       </c>
       <c r="Z15" s="58"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="53"/>
       <c r="B16" s="25"/>
       <c r="C16" s="60"/>
@@ -15975,7 +15998,7 @@
       </c>
       <c r="Z16" s="58"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="60"/>
       <c r="B17" s="60"/>
       <c r="C17" s="62"/>
@@ -16002,11 +16025,11 @@
       <c r="Y17" s="63"/>
       <c r="Z17" s="58"/>
     </row>
-    <row r="38" spans="5:5" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:5" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E40" s="51"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="43" t="s">
         <v>48</v>
       </c>
@@ -16014,7 +16037,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="45" t="s">
         <v>56</v>
       </c>
@@ -16025,7 +16048,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="46" t="s">
         <v>57</v>
       </c>
@@ -16036,18 +16059,18 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="46" t="s">
         <v>58</v>
       </c>
       <c r="B103" s="47" t="s">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="48" t="s">
         <v>59</v>
       </c>
@@ -16058,7 +16081,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="50" t="s">
         <v>49</v>
       </c>
@@ -16066,7 +16089,7 @@
       <c r="C110" s="50"/>
       <c r="D110" s="50"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>7</v>
       </c>
@@ -16104,68 +16127,68 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Z111"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E94" sqref="E94"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
     <col min="4" max="5" width="15" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="2" customWidth="1"/>
-    <col min="11" max="12" width="7.5546875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.33203125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7.109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.88671875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="4.88671875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="4.6640625" style="2" customWidth="1"/>
-    <col min="18" max="19" width="5.109375" style="2" customWidth="1"/>
-    <col min="20" max="24" width="4.88671875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="8.6640625" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.109375" style="2"/>
+    <col min="6" max="6" width="17.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="2" customWidth="1"/>
+    <col min="11" max="12" width="7.5703125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.28515625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.85546875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.7109375" style="2" customWidth="1"/>
+    <col min="18" max="19" width="5.140625" style="2" customWidth="1"/>
+    <col min="20" max="24" width="4.85546875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="8.7109375" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="104" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="104" t="s">
+      <c r="G1" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104" t="s">
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
-      <c r="X1" s="104"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="105"/>
+      <c r="W1" s="105"/>
+      <c r="X1" s="105"/>
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
-    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -16241,18 +16264,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E3" s="19"/>
       <c r="F3" s="24" t="s">
@@ -16262,7 +16285,7 @@
         <v>26</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I3" s="21" t="s">
         <v>29</v>
@@ -16315,7 +16338,7 @@
       </c>
       <c r="Z3" s="29"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="19"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -16325,7 +16348,7 @@
         <v>55</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H4" s="21" t="s">
         <v>29</v>
@@ -16383,7 +16406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="19"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -16443,7 +16466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -16503,7 +16526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="19"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -16563,7 +16586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="19"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -16623,7 +16646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -16683,7 +16706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="19"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -16743,7 +16766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -16803,7 +16826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="19"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -16863,7 +16886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="21"/>
@@ -16923,7 +16946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -16983,7 +17006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="19"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -17043,7 +17066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
       <c r="B16" s="21"/>
       <c r="C16" s="37"/>
@@ -17103,7 +17126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="39"/>
@@ -17131,12 +17154,12 @@
       <c r="Y17" s="37"/>
       <c r="Z17" s="34"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="I25" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="43" t="s">
         <v>48</v>
       </c>
@@ -17144,7 +17167,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="45" t="s">
         <v>56</v>
       </c>
@@ -17155,7 +17178,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="46" t="s">
         <v>57</v>
       </c>
@@ -17166,18 +17189,18 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="46" t="s">
         <v>58</v>
       </c>
       <c r="B103" s="47" t="s">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="48" t="s">
         <v>59</v>
       </c>
@@ -17188,7 +17211,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="50" t="s">
         <v>49</v>
       </c>
@@ -17196,7 +17219,7 @@
       <c r="C110" s="50"/>
       <c r="D110" s="50"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>7</v>
       </c>
@@ -17234,68 +17257,68 @@
   <dimension ref="A1:Z111"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:I4"/>
+      <selection activeCell="A3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="2" customWidth="1"/>
-    <col min="11" max="12" width="7.5546875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.33203125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7.109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.88671875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="4.88671875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="4.6640625" style="2" customWidth="1"/>
-    <col min="18" max="19" width="5.109375" style="2" customWidth="1"/>
-    <col min="20" max="24" width="4.88671875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="8.6640625" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.109375" style="2"/>
+    <col min="6" max="6" width="12.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="2" customWidth="1"/>
+    <col min="11" max="12" width="7.5703125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.28515625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.85546875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.7109375" style="2" customWidth="1"/>
+    <col min="18" max="19" width="5.140625" style="2" customWidth="1"/>
+    <col min="20" max="24" width="4.85546875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="8.7109375" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="104" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="104" t="s">
+      <c r="G1" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104" t="s">
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
-      <c r="X1" s="104"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="105"/>
+      <c r="W1" s="105"/>
+      <c r="X1" s="105"/>
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
-    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -17371,18 +17394,32 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="19"/>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>114</v>
+      </c>
       <c r="E3" s="19"/>
       <c r="F3" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
+      <c r="G3" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>26</v>
+      </c>
       <c r="J3" s="26"/>
       <c r="K3" s="27" t="s">
         <v>12</v>
@@ -17431,7 +17468,7 @@
       </c>
       <c r="Z3" s="29"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="19"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -17440,9 +17477,15 @@
       <c r="F4" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
+      <c r="G4" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>29</v>
+      </c>
       <c r="J4" s="26"/>
       <c r="K4" s="31">
         <v>1</v>
@@ -17467,7 +17510,7 @@
       <c r="Y4" s="33"/>
       <c r="Z4" s="34"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="19"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -17501,7 +17544,7 @@
       <c r="Y5" s="21"/>
       <c r="Z5" s="34"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -17537,7 +17580,7 @@
       <c r="Y6" s="21"/>
       <c r="Z6" s="34"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="19"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -17575,7 +17618,7 @@
       <c r="Y7" s="21"/>
       <c r="Z7" s="34"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="19"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -17615,7 +17658,7 @@
       <c r="Y8" s="21"/>
       <c r="Z8" s="34"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -17657,7 +17700,7 @@
       <c r="Y9" s="21"/>
       <c r="Z9" s="34"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="19"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -17701,7 +17744,7 @@
       <c r="Y10" s="21"/>
       <c r="Z10" s="34"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -17747,7 +17790,7 @@
       <c r="Y11" s="21"/>
       <c r="Z11" s="34"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="19"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -17795,7 +17838,7 @@
       <c r="Y12" s="21"/>
       <c r="Z12" s="34"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="21"/>
@@ -17845,7 +17888,7 @@
       <c r="Y13" s="21"/>
       <c r="Z13" s="34"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -17897,7 +17940,7 @@
       <c r="Y14" s="21"/>
       <c r="Z14" s="34"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="19"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -17951,7 +17994,7 @@
       <c r="Y15" s="21"/>
       <c r="Z15" s="34"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
       <c r="B16" s="21"/>
       <c r="C16" s="37"/>
@@ -18007,7 +18050,7 @@
       <c r="Y16" s="21"/>
       <c r="Z16" s="34"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="39"/>
@@ -18035,10 +18078,10 @@
       <c r="Y17" s="37"/>
       <c r="Z17" s="34"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E40" s="51"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="43" t="s">
         <v>48</v>
       </c>
@@ -18046,7 +18089,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="45" t="s">
         <v>56</v>
       </c>
@@ -18057,7 +18100,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="46" t="s">
         <v>57</v>
       </c>
@@ -18068,18 +18111,18 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="B103" s="47">
-        <v>1</v>
+      <c r="B103" s="47" t="s">
+        <v>26</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="48" t="s">
         <v>59</v>
       </c>
@@ -18090,7 +18133,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="50" t="s">
         <v>49</v>
       </c>
@@ -18098,7 +18141,7 @@
       <c r="C110" s="50"/>
       <c r="D110" s="50"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>7</v>
       </c>
@@ -18139,65 +18182,65 @@
       <selection activeCell="G3" sqref="G3:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="2" customWidth="1"/>
-    <col min="11" max="12" width="7.5546875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.33203125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7.109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.88671875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="4.88671875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="4.6640625" style="2" customWidth="1"/>
-    <col min="18" max="19" width="5.109375" style="2" customWidth="1"/>
-    <col min="20" max="24" width="4.88671875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="8.6640625" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.109375" style="2"/>
+    <col min="6" max="6" width="17.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="2" customWidth="1"/>
+    <col min="11" max="12" width="7.5703125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.28515625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.85546875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.7109375" style="2" customWidth="1"/>
+    <col min="18" max="19" width="5.140625" style="2" customWidth="1"/>
+    <col min="20" max="24" width="4.85546875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="8.7109375" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="104" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="104" t="s">
+      <c r="G1" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104" t="s">
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
-      <c r="X1" s="104"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="105"/>
+      <c r="W1" s="105"/>
+      <c r="X1" s="105"/>
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
-    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -18273,7 +18316,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="19"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -18333,7 +18376,7 @@
       </c>
       <c r="Z3" s="29"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="19"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -18369,7 +18412,7 @@
       <c r="Y4" s="33"/>
       <c r="Z4" s="34"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="19"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -18403,7 +18446,7 @@
       <c r="Y5" s="21"/>
       <c r="Z5" s="34"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -18439,7 +18482,7 @@
       <c r="Y6" s="21"/>
       <c r="Z6" s="34"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="19"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -18477,7 +18520,7 @@
       <c r="Y7" s="21"/>
       <c r="Z7" s="34"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="19"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -18517,7 +18560,7 @@
       <c r="Y8" s="21"/>
       <c r="Z8" s="34"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -18559,7 +18602,7 @@
       <c r="Y9" s="21"/>
       <c r="Z9" s="34"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="19"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -18603,7 +18646,7 @@
       <c r="Y10" s="21"/>
       <c r="Z10" s="34"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -18649,7 +18692,7 @@
       <c r="Y11" s="21"/>
       <c r="Z11" s="34"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="19"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -18697,7 +18740,7 @@
       <c r="Y12" s="21"/>
       <c r="Z12" s="34"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="21"/>
@@ -18747,7 +18790,7 @@
       <c r="Y13" s="21"/>
       <c r="Z13" s="34"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -18799,7 +18842,7 @@
       <c r="Y14" s="21"/>
       <c r="Z14" s="34"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="19"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -18853,7 +18896,7 @@
       <c r="Y15" s="21"/>
       <c r="Z15" s="34"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
       <c r="B16" s="21"/>
       <c r="C16" s="37"/>
@@ -18909,7 +18952,7 @@
       <c r="Y16" s="21"/>
       <c r="Z16" s="34"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="39"/>
@@ -18937,7 +18980,7 @@
       <c r="Y17" s="37"/>
       <c r="Z17" s="34"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="37"/>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
@@ -18948,7 +18991,7 @@
       <c r="H18" s="37"/>
       <c r="I18" s="21"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -18959,60 +19002,60 @@
       <c r="H19" s="37"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="37"/>
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="37"/>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="37"/>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="37"/>
       <c r="B26" s="37"/>
       <c r="C26" s="37"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="37"/>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E40" s="51"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="43" t="s">
         <v>48</v>
       </c>
@@ -19020,7 +19063,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="45" t="s">
         <v>56</v>
       </c>
@@ -19031,7 +19074,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="46" t="s">
         <v>57</v>
       </c>
@@ -19042,7 +19085,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="46" t="s">
         <v>58</v>
       </c>
@@ -19053,7 +19096,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="48" t="s">
         <v>59</v>
       </c>
@@ -19064,7 +19107,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="50" t="s">
         <v>49</v>
       </c>
@@ -19072,7 +19115,7 @@
       <c r="C110" s="50"/>
       <c r="D110" s="50"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>7</v>
       </c>
@@ -19113,65 +19156,65 @@
       <selection activeCell="G3" sqref="G3:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="43" style="76" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" style="76" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" style="76" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" style="76" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="76" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="76" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" style="76" customWidth="1"/>
     <col min="5" max="5" width="9" style="76" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" style="76" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" style="76" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" style="76" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" style="76" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="76" customWidth="1"/>
-    <col min="11" max="12" width="7.5546875" style="76" customWidth="1"/>
-    <col min="13" max="13" width="6.33203125" style="76" customWidth="1"/>
-    <col min="14" max="14" width="7.109375" style="76" customWidth="1"/>
-    <col min="15" max="15" width="5.88671875" style="76" customWidth="1"/>
-    <col min="16" max="16" width="4.88671875" style="76" customWidth="1"/>
-    <col min="17" max="17" width="4.6640625" style="76" customWidth="1"/>
-    <col min="18" max="19" width="5.109375" style="76" customWidth="1"/>
-    <col min="20" max="24" width="4.88671875" style="76" customWidth="1"/>
-    <col min="25" max="25" width="8.6640625" style="76" customWidth="1"/>
-    <col min="26" max="16384" width="9.109375" style="76"/>
+    <col min="6" max="6" width="17.7109375" style="76" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="76" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="76" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="76" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="76" customWidth="1"/>
+    <col min="11" max="12" width="7.5703125" style="76" customWidth="1"/>
+    <col min="13" max="13" width="6.28515625" style="76" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" style="76" customWidth="1"/>
+    <col min="15" max="15" width="5.85546875" style="76" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" style="76" customWidth="1"/>
+    <col min="17" max="17" width="4.7109375" style="76" customWidth="1"/>
+    <col min="18" max="19" width="5.140625" style="76" customWidth="1"/>
+    <col min="20" max="24" width="4.85546875" style="76" customWidth="1"/>
+    <col min="25" max="25" width="8.7109375" style="76" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="76"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="104" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="73"/>
-      <c r="G1" s="104" t="s">
+      <c r="G1" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104" t="s">
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
-      <c r="X1" s="104"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="105"/>
+      <c r="W1" s="105"/>
+      <c r="X1" s="105"/>
       <c r="Y1" s="74"/>
       <c r="Z1" s="75"/>
     </row>
-    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="77" t="s">
         <v>64</v>
       </c>
@@ -19247,7 +19290,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="79"/>
       <c r="B3" s="20"/>
       <c r="C3" s="21"/>
@@ -19307,7 +19350,7 @@
       </c>
       <c r="Z3" s="29"/>
     </row>
-    <row r="4" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="80"/>
       <c r="B4" s="20"/>
       <c r="C4" s="21"/>
@@ -19343,7 +19386,7 @@
       <c r="Y4" s="33"/>
       <c r="Z4" s="34"/>
     </row>
-    <row r="5" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="80"/>
       <c r="B5" s="20"/>
       <c r="C5" s="21"/>
@@ -19377,7 +19420,7 @@
       <c r="Y5" s="21"/>
       <c r="Z5" s="34"/>
     </row>
-    <row r="6" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="80"/>
       <c r="B6" s="38"/>
       <c r="C6" s="21"/>
@@ -19413,7 +19456,7 @@
       <c r="Y6" s="21"/>
       <c r="Z6" s="34"/>
     </row>
-    <row r="7" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="80"/>
       <c r="B7" s="38"/>
       <c r="C7" s="21"/>
@@ -19451,7 +19494,7 @@
       <c r="Y7" s="21"/>
       <c r="Z7" s="34"/>
     </row>
-    <row r="8" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="80"/>
       <c r="B8" s="38"/>
       <c r="C8" s="21"/>
@@ -19491,7 +19534,7 @@
       <c r="Y8" s="21"/>
       <c r="Z8" s="34"/>
     </row>
-    <row r="9" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="80"/>
       <c r="B9" s="38"/>
       <c r="C9" s="21"/>
@@ -19533,7 +19576,7 @@
       <c r="Y9" s="21"/>
       <c r="Z9" s="34"/>
     </row>
-    <row r="10" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="80"/>
       <c r="B10" s="38"/>
       <c r="C10" s="21"/>
@@ -19577,7 +19620,7 @@
       <c r="Y10" s="21"/>
       <c r="Z10" s="34"/>
     </row>
-    <row r="11" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="80"/>
       <c r="B11" s="38"/>
       <c r="C11" s="21"/>
@@ -19623,7 +19666,7 @@
       <c r="Y11" s="21"/>
       <c r="Z11" s="34"/>
     </row>
-    <row r="12" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="80"/>
       <c r="B12" s="38"/>
       <c r="C12" s="21"/>
@@ -19671,7 +19714,7 @@
       <c r="Y12" s="21"/>
       <c r="Z12" s="34"/>
     </row>
-    <row r="13" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="80"/>
       <c r="B13" s="38"/>
       <c r="C13" s="21"/>
@@ -19721,7 +19764,7 @@
       <c r="Y13" s="21"/>
       <c r="Z13" s="34"/>
     </row>
-    <row r="14" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="80"/>
       <c r="B14" s="38"/>
       <c r="C14" s="21"/>
@@ -19773,7 +19816,7 @@
       <c r="Y14" s="21"/>
       <c r="Z14" s="34"/>
     </row>
-    <row r="15" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="80"/>
       <c r="B15" s="38"/>
       <c r="C15" s="21"/>
@@ -19827,7 +19870,7 @@
       <c r="Y15" s="21"/>
       <c r="Z15" s="34"/>
     </row>
-    <row r="16" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="80"/>
       <c r="B16" s="38"/>
       <c r="C16" s="37"/>
@@ -19883,7 +19926,7 @@
       <c r="Y16" s="21"/>
       <c r="Z16" s="34"/>
     </row>
-    <row r="17" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="80"/>
       <c r="B17" s="38"/>
       <c r="C17" s="39"/>
@@ -19911,7 +19954,7 @@
       <c r="Y17" s="37"/>
       <c r="Z17" s="34"/>
     </row>
-    <row r="18" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="80"/>
       <c r="B18" s="38"/>
       <c r="C18" s="37"/>
@@ -19922,7 +19965,7 @@
       <c r="H18" s="37"/>
       <c r="I18" s="21"/>
     </row>
-    <row r="19" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="80"/>
       <c r="B19" s="38"/>
       <c r="C19" s="37"/>
@@ -19933,214 +19976,214 @@
       <c r="H19" s="37"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A20" s="80"/>
       <c r="B20" s="20"/>
       <c r="C20" s="37"/>
       <c r="D20" s="52"/>
     </row>
-    <row r="21" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A21" s="80"/>
       <c r="B21" s="20"/>
       <c r="C21" s="37"/>
       <c r="D21" s="52"/>
     </row>
-    <row r="22" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A22" s="80"/>
       <c r="B22" s="38"/>
       <c r="C22" s="37"/>
       <c r="D22" s="52"/>
     </row>
-    <row r="23" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A23" s="80"/>
       <c r="B23" s="20"/>
       <c r="C23" s="37"/>
       <c r="D23" s="52"/>
     </row>
-    <row r="24" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A24" s="80"/>
       <c r="B24" s="20"/>
       <c r="C24" s="37"/>
       <c r="D24" s="52"/>
     </row>
-    <row r="25" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A25" s="80"/>
       <c r="B25" s="20"/>
       <c r="C25" s="37"/>
       <c r="D25" s="52"/>
     </row>
-    <row r="26" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A26" s="80"/>
       <c r="B26" s="20"/>
       <c r="C26" s="37"/>
       <c r="D26" s="52"/>
     </row>
-    <row r="27" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A27" s="82"/>
       <c r="B27" s="36"/>
       <c r="C27" s="37"/>
       <c r="D27" s="52"/>
     </row>
-    <row r="28" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A28" s="80"/>
       <c r="B28" s="20"/>
       <c r="C28" s="37"/>
       <c r="D28" s="52"/>
     </row>
-    <row r="29" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A29" s="80"/>
       <c r="B29" s="20"/>
       <c r="C29" s="37"/>
       <c r="D29" s="52"/>
     </row>
-    <row r="30" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A30" s="80"/>
       <c r="B30" s="20"/>
       <c r="C30" s="37"/>
       <c r="D30" s="52"/>
     </row>
-    <row r="31" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="83"/>
       <c r="B31" s="38"/>
       <c r="C31" s="37"/>
       <c r="D31" s="52"/>
     </row>
-    <row r="32" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="83"/>
       <c r="B32" s="38"/>
       <c r="C32" s="37"/>
       <c r="D32" s="52"/>
     </row>
-    <row r="33" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="83"/>
       <c r="B33" s="38"/>
       <c r="C33" s="37"/>
       <c r="D33" s="52"/>
     </row>
-    <row r="34" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="94"/>
       <c r="B34" s="38"/>
       <c r="C34" s="37"/>
       <c r="D34" s="52"/>
     </row>
-    <row r="35" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="94"/>
       <c r="B35" s="38"/>
       <c r="C35" s="37"/>
       <c r="D35" s="52"/>
     </row>
-    <row r="36" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="94"/>
       <c r="B36" s="38"/>
       <c r="C36" s="37"/>
       <c r="D36" s="52"/>
     </row>
-    <row r="37" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="94"/>
       <c r="B37" s="38"/>
       <c r="C37" s="37"/>
       <c r="D37" s="52"/>
     </row>
-    <row r="38" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="94"/>
       <c r="B38" s="38"/>
       <c r="C38" s="37"/>
       <c r="D38" s="52"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="38"/>
       <c r="B39" s="38"/>
       <c r="C39" s="37"/>
       <c r="D39" s="52"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="38"/>
       <c r="B40" s="38"/>
       <c r="C40" s="37"/>
       <c r="D40" s="40"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="38"/>
       <c r="B41" s="38"/>
       <c r="C41" s="37"/>
       <c r="D41" s="40"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="38"/>
       <c r="B42" s="38"/>
       <c r="C42" s="37"/>
       <c r="D42" s="40"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="38"/>
       <c r="B43" s="38"/>
       <c r="C43" s="37"/>
       <c r="D43" s="40"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="38"/>
       <c r="B44" s="38"/>
       <c r="C44" s="37"/>
       <c r="D44" s="40"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="38"/>
       <c r="B45" s="38"/>
       <c r="C45" s="37"/>
       <c r="D45" s="40"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="38"/>
       <c r="B46" s="38"/>
       <c r="C46" s="37"/>
       <c r="D46" s="40"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="38"/>
       <c r="B47" s="38"/>
       <c r="C47" s="37"/>
       <c r="D47" s="40"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="38"/>
       <c r="B48" s="38"/>
       <c r="C48" s="37"/>
       <c r="D48" s="40"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="38"/>
       <c r="B49" s="38"/>
       <c r="C49" s="37"/>
       <c r="D49" s="40"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="38"/>
       <c r="B50" s="38"/>
       <c r="C50" s="37"/>
       <c r="D50" s="40"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="38"/>
       <c r="B51" s="38"/>
       <c r="C51" s="37"/>
       <c r="D51" s="40"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="38"/>
       <c r="B52" s="38"/>
       <c r="C52" s="37"/>
       <c r="D52" s="40"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="37"/>
       <c r="B53" s="37"/>
       <c r="C53" s="37"/>
       <c r="D53" s="84"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E64" s="93"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="85" t="s">
         <v>48</v>
       </c>
@@ -20148,7 +20191,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="87" t="s">
         <v>56</v>
       </c>
@@ -20159,7 +20202,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="88" t="s">
         <v>57</v>
       </c>
@@ -20170,7 +20213,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="88" t="s">
         <v>58</v>
       </c>
@@ -20181,7 +20224,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="90" t="s">
         <v>59</v>
       </c>
@@ -20192,7 +20235,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="92" t="s">
         <v>49</v>
       </c>
@@ -20200,7 +20243,7 @@
       <c r="C110" s="92"/>
       <c r="D110" s="92"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="76" t="s">
         <v>7</v>
       </c>
@@ -20241,65 +20284,65 @@
       <selection activeCell="G3" sqref="G3:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="38.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="38.7109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="2" customWidth="1"/>
-    <col min="11" max="12" width="7.5546875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.33203125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7.109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.88671875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="4.88671875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="4.6640625" style="2" customWidth="1"/>
-    <col min="18" max="19" width="5.109375" style="2" customWidth="1"/>
-    <col min="20" max="24" width="4.88671875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="8.6640625" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.109375" style="2"/>
+    <col min="6" max="6" width="17.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="2" customWidth="1"/>
+    <col min="11" max="12" width="7.5703125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.28515625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.85546875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.7109375" style="2" customWidth="1"/>
+    <col min="18" max="19" width="5.140625" style="2" customWidth="1"/>
+    <col min="20" max="24" width="4.85546875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="8.7109375" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="104" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="104" t="s">
+      <c r="G1" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104" t="s">
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
-      <c r="X1" s="104"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="105"/>
+      <c r="W1" s="105"/>
+      <c r="X1" s="105"/>
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
-    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -20375,7 +20418,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="19"/>
       <c r="B3" s="20"/>
       <c r="C3" s="21"/>
@@ -20435,7 +20478,7 @@
       </c>
       <c r="Z3" s="29"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="19"/>
       <c r="B4" s="20"/>
       <c r="C4" s="21"/>
@@ -20471,7 +20514,7 @@
       <c r="Y4" s="33"/>
       <c r="Z4" s="34"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="19"/>
       <c r="B5" s="20"/>
       <c r="C5" s="21"/>
@@ -20505,7 +20548,7 @@
       <c r="Y5" s="21"/>
       <c r="Z5" s="34"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
       <c r="B6" s="20"/>
       <c r="C6" s="21"/>
@@ -20541,7 +20584,7 @@
       <c r="Y6" s="21"/>
       <c r="Z6" s="34"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="19"/>
       <c r="B7" s="20"/>
       <c r="C7" s="21"/>
@@ -20579,7 +20622,7 @@
       <c r="Y7" s="21"/>
       <c r="Z7" s="34"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="19"/>
       <c r="B8" s="20"/>
       <c r="C8" s="21"/>
@@ -20619,7 +20662,7 @@
       <c r="Y8" s="21"/>
       <c r="Z8" s="34"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="21"/>
       <c r="B9" s="20"/>
       <c r="C9" s="21"/>
@@ -20661,7 +20704,7 @@
       <c r="Y9" s="21"/>
       <c r="Z9" s="34"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="19"/>
       <c r="B10" s="20"/>
       <c r="C10" s="21"/>
@@ -20705,7 +20748,7 @@
       <c r="Y10" s="21"/>
       <c r="Z10" s="34"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -20751,7 +20794,7 @@
       <c r="Y11" s="21"/>
       <c r="Z11" s="34"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="19"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -20799,7 +20842,7 @@
       <c r="Y12" s="21"/>
       <c r="Z12" s="34"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="21"/>
@@ -20849,7 +20892,7 @@
       <c r="Y13" s="21"/>
       <c r="Z13" s="34"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -20901,7 +20944,7 @@
       <c r="Y14" s="21"/>
       <c r="Z14" s="34"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="19"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -20955,7 +20998,7 @@
       <c r="Y15" s="21"/>
       <c r="Z15" s="34"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
       <c r="B16" s="21"/>
       <c r="C16" s="37"/>
@@ -21011,7 +21054,7 @@
       <c r="Y16" s="21"/>
       <c r="Z16" s="34"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="39"/>
@@ -21039,7 +21082,7 @@
       <c r="Y17" s="37"/>
       <c r="Z17" s="34"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="37"/>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
@@ -21050,7 +21093,7 @@
       <c r="H18" s="37"/>
       <c r="I18" s="21"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -21061,70 +21104,70 @@
       <c r="H19" s="37"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="37"/>
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
       <c r="D20" s="42"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
       <c r="D21" s="42"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="37"/>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
       <c r="D22" s="42"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
       <c r="D23" s="42"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="37"/>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
       <c r="D24" s="42"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
       <c r="D25" s="42"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="37"/>
       <c r="B26" s="37"/>
       <c r="C26" s="37"/>
       <c r="D26" s="42"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
       <c r="D27" s="42"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="37"/>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
       <c r="D28" s="42"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
       <c r="D29" s="42"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E40" s="51"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="43" t="s">
         <v>48</v>
       </c>
@@ -21132,7 +21175,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="45" t="s">
         <v>56</v>
       </c>
@@ -21143,7 +21186,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="46" t="s">
         <v>57</v>
       </c>
@@ -21154,7 +21197,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="46" t="s">
         <v>58</v>
       </c>
@@ -21165,7 +21208,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="48" t="s">
         <v>59</v>
       </c>
@@ -21176,7 +21219,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="50" t="s">
         <v>49</v>
       </c>
@@ -21184,7 +21227,7 @@
       <c r="C110" s="50"/>
       <c r="D110" s="50"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>7</v>
       </c>
@@ -21225,65 +21268,65 @@
       <selection activeCell="G3" sqref="G3:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="2" customWidth="1"/>
-    <col min="11" max="12" width="7.5546875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.33203125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7.109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.88671875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="4.88671875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="4.6640625" style="2" customWidth="1"/>
-    <col min="18" max="19" width="5.109375" style="2" customWidth="1"/>
-    <col min="20" max="24" width="4.88671875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="8.6640625" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.109375" style="2"/>
+    <col min="6" max="6" width="17.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="2" customWidth="1"/>
+    <col min="11" max="12" width="7.5703125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.28515625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.85546875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.7109375" style="2" customWidth="1"/>
+    <col min="18" max="19" width="5.140625" style="2" customWidth="1"/>
+    <col min="20" max="24" width="4.85546875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="8.7109375" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="104" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="104" t="s">
+      <c r="G1" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104" t="s">
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
-      <c r="X1" s="104"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="105"/>
+      <c r="W1" s="105"/>
+      <c r="X1" s="105"/>
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
-    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -21359,7 +21402,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="19"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -21419,7 +21462,7 @@
       </c>
       <c r="Z3" s="29"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="19"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -21455,7 +21498,7 @@
       <c r="Y4" s="33"/>
       <c r="Z4" s="34"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="19"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -21489,7 +21532,7 @@
       <c r="Y5" s="21"/>
       <c r="Z5" s="34"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -21525,7 +21568,7 @@
       <c r="Y6" s="21"/>
       <c r="Z6" s="34"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="19"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -21563,7 +21606,7 @@
       <c r="Y7" s="21"/>
       <c r="Z7" s="34"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="19"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -21603,7 +21646,7 @@
       <c r="Y8" s="21"/>
       <c r="Z8" s="34"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -21645,7 +21688,7 @@
       <c r="Y9" s="21"/>
       <c r="Z9" s="34"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="19"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -21689,7 +21732,7 @@
       <c r="Y10" s="21"/>
       <c r="Z10" s="34"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -21735,7 +21778,7 @@
       <c r="Y11" s="21"/>
       <c r="Z11" s="34"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="19"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -21783,7 +21826,7 @@
       <c r="Y12" s="21"/>
       <c r="Z12" s="34"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="21"/>
@@ -21833,7 +21876,7 @@
       <c r="Y13" s="21"/>
       <c r="Z13" s="34"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -21885,7 +21928,7 @@
       <c r="Y14" s="21"/>
       <c r="Z14" s="34"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="19"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -21939,7 +21982,7 @@
       <c r="Y15" s="21"/>
       <c r="Z15" s="34"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
       <c r="B16" s="21"/>
       <c r="C16" s="37"/>
@@ -21995,7 +22038,7 @@
       <c r="Y16" s="21"/>
       <c r="Z16" s="34"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="39"/>
@@ -22023,7 +22066,7 @@
       <c r="Y17" s="37"/>
       <c r="Z17" s="34"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="37"/>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
@@ -22034,7 +22077,7 @@
       <c r="H18" s="37"/>
       <c r="I18" s="21"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -22045,60 +22088,60 @@
       <c r="H19" s="37"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="37"/>
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="37"/>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="37"/>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="37"/>
       <c r="B26" s="37"/>
       <c r="C26" s="37"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="37"/>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E40" s="51"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="43" t="s">
         <v>48</v>
       </c>
@@ -22106,7 +22149,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="45" t="s">
         <v>56</v>
       </c>
@@ -22117,7 +22160,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="46" t="s">
         <v>57</v>
       </c>
@@ -22128,7 +22171,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="46" t="s">
         <v>58</v>
       </c>
@@ -22139,7 +22182,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="48" t="s">
         <v>59</v>
       </c>
@@ -22150,7 +22193,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="50" t="s">
         <v>49</v>
       </c>
@@ -22158,7 +22201,7 @@
       <c r="C110" s="50"/>
       <c r="D110" s="50"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>7</v>
       </c>
@@ -22199,65 +22242,65 @@
       <selection activeCell="G3" sqref="G3:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="2" customWidth="1"/>
-    <col min="11" max="12" width="7.5546875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.33203125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7.109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.88671875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="4.88671875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="4.6640625" style="2" customWidth="1"/>
-    <col min="18" max="19" width="5.109375" style="2" customWidth="1"/>
-    <col min="20" max="24" width="4.88671875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="8.6640625" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.109375" style="2"/>
+    <col min="6" max="6" width="17.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="2" customWidth="1"/>
+    <col min="11" max="12" width="7.5703125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.28515625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.85546875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.7109375" style="2" customWidth="1"/>
+    <col min="18" max="19" width="5.140625" style="2" customWidth="1"/>
+    <col min="20" max="24" width="4.85546875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="8.7109375" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="104" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="104" t="s">
+      <c r="G1" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104" t="s">
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
-      <c r="X1" s="104"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="105"/>
+      <c r="W1" s="105"/>
+      <c r="X1" s="105"/>
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
-    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -22333,7 +22376,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="19"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -22393,7 +22436,7 @@
       </c>
       <c r="Z3" s="29"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="19"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -22429,7 +22472,7 @@
       <c r="Y4" s="33"/>
       <c r="Z4" s="34"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="19"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -22463,7 +22506,7 @@
       <c r="Y5" s="21"/>
       <c r="Z5" s="34"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -22499,7 +22542,7 @@
       <c r="Y6" s="21"/>
       <c r="Z6" s="34"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="19"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -22537,7 +22580,7 @@
       <c r="Y7" s="21"/>
       <c r="Z7" s="34"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="19"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -22577,7 +22620,7 @@
       <c r="Y8" s="21"/>
       <c r="Z8" s="34"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -22619,7 +22662,7 @@
       <c r="Y9" s="21"/>
       <c r="Z9" s="34"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="19"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -22663,7 +22706,7 @@
       <c r="Y10" s="21"/>
       <c r="Z10" s="34"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -22709,7 +22752,7 @@
       <c r="Y11" s="21"/>
       <c r="Z11" s="34"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="19"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -22757,7 +22800,7 @@
       <c r="Y12" s="21"/>
       <c r="Z12" s="34"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="21"/>
@@ -22807,7 +22850,7 @@
       <c r="Y13" s="21"/>
       <c r="Z13" s="34"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -22859,7 +22902,7 @@
       <c r="Y14" s="21"/>
       <c r="Z14" s="34"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="19"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -22913,7 +22956,7 @@
       <c r="Y15" s="21"/>
       <c r="Z15" s="34"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
       <c r="B16" s="21"/>
       <c r="C16" s="37"/>
@@ -22969,7 +23012,7 @@
       <c r="Y16" s="21"/>
       <c r="Z16" s="34"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="39"/>
@@ -22997,7 +23040,7 @@
       <c r="Y17" s="37"/>
       <c r="Z17" s="34"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="37"/>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
@@ -23024,7 +23067,7 @@
       <c r="Y18" s="37"/>
       <c r="Z18" s="34"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -23051,60 +23094,60 @@
       <c r="Y19" s="37"/>
       <c r="Z19" s="34"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="37"/>
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="37"/>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="37"/>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="37"/>
       <c r="B26" s="37"/>
       <c r="C26" s="37"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="37"/>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E40" s="51"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="43" t="s">
         <v>48</v>
       </c>
@@ -23112,7 +23155,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="45" t="s">
         <v>56</v>
       </c>
@@ -23123,7 +23166,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="46" t="s">
         <v>57</v>
       </c>
@@ -23134,7 +23177,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="46" t="s">
         <v>58</v>
       </c>
@@ -23145,7 +23188,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="48" t="s">
         <v>59</v>
       </c>
@@ -23156,7 +23199,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="50" t="s">
         <v>49</v>
       </c>
@@ -23164,7 +23207,7 @@
       <c r="C110" s="50"/>
       <c r="D110" s="50"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>7</v>
       </c>

--- a/dcomtestcasegeneration/Database/DB_SAIC_AS28_R1.0_DCOM.xlsx
+++ b/dcomtestcasegeneration/Database/DB_SAIC_AS28_R1.0_DCOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HuyNA_repo\dcomtestcasegeneration\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158F7C34-1592-4AD7-A606-C779D43646A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{34531A85-38BC-4393-B79B-09C66D377CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14160" yWindow="3495" windowWidth="12555" windowHeight="12915" tabRatio="903" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14160" yWindow="3495" windowWidth="12555" windowHeight="12915" tabRatio="903" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Common_settings" sheetId="2" r:id="rId1"/>
@@ -14981,8 +14981,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Z111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15423,7 +15423,7 @@
         <v>29</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I7" s="25" t="s">
         <v>26</v>
@@ -16285,7 +16285,7 @@
         <v>26</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I3" s="21" t="s">
         <v>29</v>
@@ -17415,7 +17415,7 @@
         <v>29</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I3" s="25" t="s">
         <v>26</v>
@@ -18178,7 +18178,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:Z111"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G3" sqref="G3:I4"/>
     </sheetView>
   </sheetViews>

--- a/dcomtestcasegeneration/Database/DB_SAIC_AS28_R1.0_DCOM.xlsx
+++ b/dcomtestcasegeneration/Database/DB_SAIC_AS28_R1.0_DCOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HuyNA_repo\dcomtestcasegeneration\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34531A85-38BC-4393-B79B-09C66D377CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7239883E-3E52-41A7-809F-2B10BE717824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14160" yWindow="3495" windowWidth="12555" windowHeight="12915" tabRatio="903" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14160" yWindow="3495" windowWidth="12555" windowHeight="12915" tabRatio="903" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Common_settings" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2116" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2119" uniqueCount="119">
   <si>
     <t>Sub_function</t>
   </si>
@@ -407,7 +407,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -455,6 +455,12 @@
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="10">
@@ -797,7 +803,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1005,6 +1011,8 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10119,8 +10127,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="78" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table1279" displayName="Table1279" ref="K2:Z17" headerRowDxfId="700" dataDxfId="699" totalsRowDxfId="698">
-  <autoFilter ref="K2:Z17" xr:uid="{00000000-0009-0000-0100-00004E000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="78" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table1279" displayName="Table1279" ref="K2:Z18" headerRowDxfId="700" dataDxfId="699" totalsRowDxfId="698">
+  <autoFilter ref="K2:Z18" xr:uid="{00000000-0009-0000-0100-00004E000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -14981,8 +14989,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Z111"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:I7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15954,8 +15962,8 @@
       <c r="K16" s="57">
         <v>13</v>
       </c>
-      <c r="L16" s="61">
-        <v>37</v>
+      <c r="L16" s="61" t="s">
+        <v>23</v>
       </c>
       <c r="M16" s="102" t="s">
         <v>46</v>
@@ -16009,7 +16017,9 @@
       <c r="H17" s="25"/>
       <c r="I17" s="25"/>
       <c r="K17" s="13"/>
-      <c r="L17" s="63"/>
+      <c r="L17" s="63" t="s">
+        <v>111</v>
+      </c>
       <c r="M17" s="59"/>
       <c r="N17" s="59"/>
       <c r="O17" s="59"/>
@@ -16024,6 +16034,25 @@
       <c r="X17" s="63"/>
       <c r="Y17" s="63"/>
       <c r="Z17" s="58"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K18" s="63"/>
+      <c r="L18" s="107" t="s">
+        <v>111</v>
+      </c>
+      <c r="M18" s="63"/>
+      <c r="N18" s="63"/>
+      <c r="O18" s="63"/>
+      <c r="P18" s="63"/>
+      <c r="Q18" s="63"/>
+      <c r="R18" s="63"/>
+      <c r="S18" s="63"/>
+      <c r="T18" s="63"/>
+      <c r="U18" s="63"/>
+      <c r="V18" s="63"/>
+      <c r="W18" s="108"/>
+      <c r="X18" s="108"/>
+      <c r="Y18" s="108"/>
     </row>
     <row r="38" spans="5:5" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="40" spans="5:5" x14ac:dyDescent="0.2">
@@ -18178,7 +18207,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:Z111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G3" sqref="G3:I4"/>
     </sheetView>
   </sheetViews>

--- a/dcomtestcasegeneration/Database/DB_SAIC_AS28_R1.0_DCOM.xlsx
+++ b/dcomtestcasegeneration/Database/DB_SAIC_AS28_R1.0_DCOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HuyNA_repo\dcomtestcasegeneration\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BOSCH_WORK\DCOM_TestcaseTool\dcomtestcasegeneration\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7239883E-3E52-41A7-809F-2B10BE717824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{09FD9DD3-ABC9-46A2-937C-2CB37F5F9B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14160" yWindow="3495" windowWidth="12555" windowHeight="12915" tabRatio="903" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5748" yWindow="960" windowWidth="11280" windowHeight="10356" tabRatio="903" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Common_settings" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2119" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2125" uniqueCount="119">
   <si>
     <t>Sub_function</t>
   </si>
@@ -376,13 +376,13 @@
     <t>Local</t>
   </si>
   <si>
-    <t>D:\HuyNA_repo\dcomtestcasegeneration\Database\DB_SAIC_AS28_R1.0_DCOM.xlsx</t>
+    <t>D:\BOSCH_WORK\DCOM_TestcaseTool\dcomtestcasegeneration\Database\DB_SAIC_AS28_R1.0_DCOM.xlsx</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>D:\HuyNA_repo\dcomtestcasegeneration\DB_SAIC_AS28_R1.0_DCOM.xlsx\Template</t>
+    <t>D:\BOSCH_WORK\DCOM_TestcaseTool\dcomtestcasegeneration\DB_SAIC_AS28_R1.0_DCOM.xlsx\Template</t>
   </si>
   <si>
     <t>01</t>
@@ -803,7 +803,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1013,6 +1013,9 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9174,7 +9177,7 @@
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF10000000}" name="Table12242" displayName="Table12242" ref="K2:Z17" headerRowDxfId="574" dataDxfId="573" totalsRowDxfId="572">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF10000000}" name="Table12242" displayName="Table12242" ref="K2:Z18" headerRowDxfId="574" dataDxfId="573" totalsRowDxfId="572">
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-1000-000001000000}" name=" " totalsRowLabel="Total" dataDxfId="571" totalsRowDxfId="570"/>
     <tableColumn id="16" xr3:uid="{00000000-0010-0000-1000-000010000000}" name="Priority2" dataDxfId="569" totalsRowDxfId="568"/>
@@ -10237,8 +10240,8 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table1224" displayName="Table1224" ref="K2:Z17" headerRowDxfId="654" dataDxfId="653" totalsRowDxfId="652">
-  <autoFilter ref="K2:Z17" xr:uid="{00000000-0009-0000-0100-000017000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table1224" displayName="Table1224" ref="K2:Z18" headerRowDxfId="654" dataDxfId="653" totalsRowDxfId="652">
+  <autoFilter ref="K2:Z18" xr:uid="{00000000-0009-0000-0100-000017000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
@@ -10547,17 +10550,17 @@
       <selection activeCell="B51" sqref="B51:B62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="39.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="12" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="4" max="4" width="13.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
@@ -10571,7 +10574,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>85</v>
       </c>
@@ -10585,7 +10588,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>88</v>
       </c>
@@ -10599,7 +10602,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>89</v>
       </c>
@@ -10613,7 +10616,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>90</v>
       </c>
@@ -10627,7 +10630,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>91</v>
       </c>
@@ -10641,7 +10644,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>42</v>
       </c>
@@ -10652,7 +10655,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>92</v>
       </c>
@@ -10663,7 +10666,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>95</v>
       </c>
@@ -10674,7 +10677,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>96</v>
       </c>
@@ -10685,13 +10688,13 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>61</v>
       </c>
@@ -10701,7 +10704,7 @@
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="1:4" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>99</v>
       </c>
@@ -10711,7 +10714,7 @@
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>101</v>
       </c>
@@ -10721,7 +10724,7 @@
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>103</v>
       </c>
@@ -10731,43 +10734,43 @@
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:4" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>70</v>
       </c>
@@ -10777,7 +10780,7 @@
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
     </row>
-    <row r="31" spans="1:4" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A31" s="104" t="s">
         <v>81</v>
       </c>
@@ -10787,7 +10790,7 @@
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="104" t="s">
         <v>82</v>
       </c>
@@ -10797,7 +10800,7 @@
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="104" t="s">
         <v>83</v>
       </c>
@@ -10807,7 +10810,7 @@
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="104" t="s">
         <v>84</v>
       </c>
@@ -10815,7 +10818,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>69</v>
       </c>
@@ -10823,7 +10826,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>66</v>
       </c>
@@ -10831,7 +10834,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>67</v>
       </c>
@@ -10839,7 +10842,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>79</v>
       </c>
@@ -10847,7 +10850,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>80</v>
       </c>
@@ -10855,7 +10858,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>68</v>
       </c>
@@ -10863,7 +10866,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>71</v>
       </c>
@@ -10871,7 +10874,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>35</v>
       </c>
@@ -10879,7 +10882,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>15</v>
       </c>
@@ -10887,7 +10890,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>51</v>
       </c>
@@ -10895,7 +10898,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>72</v>
       </c>
@@ -10903,7 +10906,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>19</v>
       </c>
@@ -10911,7 +10914,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>73</v>
       </c>
@@ -10919,7 +10922,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>74</v>
       </c>
@@ -10927,7 +10930,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>75</v>
       </c>
@@ -10935,7 +10938,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>76</v>
       </c>
@@ -10943,7 +10946,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>17</v>
       </c>
@@ -10951,7 +10954,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>77</v>
       </c>
@@ -10959,7 +10962,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>78</v>
       </c>
@@ -10987,31 +10990,31 @@
       <selection activeCell="G3" sqref="G3:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="2" customWidth="1"/>
-    <col min="11" max="12" width="7.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.85546875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="4.7109375" style="2" customWidth="1"/>
-    <col min="18" max="19" width="5.140625" style="2" customWidth="1"/>
-    <col min="20" max="24" width="4.85546875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="8.7109375" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="17.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="2" customWidth="1"/>
+    <col min="11" max="12" width="7.5546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.88671875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="4.88671875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.6640625" style="2" customWidth="1"/>
+    <col min="18" max="19" width="5.109375" style="2" customWidth="1"/>
+    <col min="20" max="24" width="4.88671875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="8.6640625" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="105" t="s">
         <v>25</v>
       </c>
@@ -11045,7 +11048,7 @@
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
-    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -11121,7 +11124,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -11181,7 +11184,7 @@
       </c>
       <c r="Z3" s="29"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -11217,7 +11220,7 @@
       <c r="Y4" s="33"/>
       <c r="Z4" s="34"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -11251,7 +11254,7 @@
       <c r="Y5" s="21"/>
       <c r="Z5" s="34"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -11287,7 +11290,7 @@
       <c r="Y6" s="21"/>
       <c r="Z6" s="34"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -11325,7 +11328,7 @@
       <c r="Y7" s="21"/>
       <c r="Z7" s="34"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -11365,7 +11368,7 @@
       <c r="Y8" s="21"/>
       <c r="Z8" s="34"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -11407,7 +11410,7 @@
       <c r="Y9" s="21"/>
       <c r="Z9" s="34"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -11451,7 +11454,7 @@
       <c r="Y10" s="21"/>
       <c r="Z10" s="34"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -11497,7 +11500,7 @@
       <c r="Y11" s="21"/>
       <c r="Z11" s="34"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -11545,7 +11548,7 @@
       <c r="Y12" s="21"/>
       <c r="Z12" s="34"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
@@ -11595,7 +11598,7 @@
       <c r="Y13" s="21"/>
       <c r="Z13" s="34"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -11647,7 +11650,7 @@
       <c r="Y14" s="21"/>
       <c r="Z14" s="34"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -11701,7 +11704,7 @@
       <c r="Y15" s="21"/>
       <c r="Z15" s="34"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="21"/>
       <c r="C16" s="37"/>
@@ -11757,7 +11760,7 @@
       <c r="Y16" s="21"/>
       <c r="Z16" s="34"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="39"/>
@@ -11785,7 +11788,7 @@
       <c r="Y17" s="37"/>
       <c r="Z17" s="34"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="37"/>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
@@ -11796,7 +11799,7 @@
       <c r="H18" s="37"/>
       <c r="I18" s="21"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -11807,7 +11810,7 @@
       <c r="H19" s="37"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="37"/>
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
@@ -11817,7 +11820,7 @@
       <c r="H20" s="37"/>
       <c r="I20" s="21"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
@@ -11827,7 +11830,7 @@
       <c r="H21" s="37"/>
       <c r="I21" s="21"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="37"/>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
@@ -11837,7 +11840,7 @@
       <c r="H22" s="37"/>
       <c r="I22" s="21"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
@@ -11847,45 +11850,45 @@
       <c r="H23" s="37"/>
       <c r="I23" s="21"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="37"/>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
       <c r="D24" s="37"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
       <c r="D25" s="37"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="37"/>
       <c r="B26" s="37"/>
       <c r="C26" s="37"/>
       <c r="D26" s="37"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
       <c r="D27" s="37"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="37"/>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
       <c r="D28" s="37"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E40" s="51"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="43" t="s">
         <v>48</v>
       </c>
@@ -11893,7 +11896,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="45" t="s">
         <v>56</v>
       </c>
@@ -11904,7 +11907,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="46" t="s">
         <v>57</v>
       </c>
@@ -11915,7 +11918,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="46" t="s">
         <v>58</v>
       </c>
@@ -11926,7 +11929,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="48" t="s">
         <v>59</v>
       </c>
@@ -11937,7 +11940,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="50" t="s">
         <v>49</v>
       </c>
@@ -11945,7 +11948,7 @@
       <c r="C110" s="50"/>
       <c r="D110" s="50"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>7</v>
       </c>
@@ -11986,31 +11989,31 @@
       <selection activeCell="G3" sqref="G3:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="42" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="42" customWidth="1"/>
     <col min="5" max="5" width="9" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="2" customWidth="1"/>
-    <col min="11" max="12" width="7.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.85546875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="4.7109375" style="2" customWidth="1"/>
-    <col min="18" max="19" width="5.140625" style="2" customWidth="1"/>
-    <col min="20" max="24" width="4.85546875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="8.7109375" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="17.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="2" customWidth="1"/>
+    <col min="11" max="12" width="7.5546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.88671875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="4.88671875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.6640625" style="2" customWidth="1"/>
+    <col min="18" max="19" width="5.109375" style="2" customWidth="1"/>
+    <col min="20" max="24" width="4.88671875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="8.6640625" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="106" t="s">
         <v>25</v>
       </c>
@@ -12044,7 +12047,7 @@
       <c r="Y1" s="65"/>
       <c r="Z1" s="65"/>
     </row>
-    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="66" t="s">
         <v>0</v>
       </c>
@@ -12120,7 +12123,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -12180,7 +12183,7 @@
       </c>
       <c r="Z3" s="29"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -12216,7 +12219,7 @@
       <c r="Y4" s="33"/>
       <c r="Z4" s="34"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -12250,7 +12253,7 @@
       <c r="Y5" s="21"/>
       <c r="Z5" s="34"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -12286,7 +12289,7 @@
       <c r="Y6" s="21"/>
       <c r="Z6" s="34"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -12324,7 +12327,7 @@
       <c r="Y7" s="21"/>
       <c r="Z7" s="34"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="68"/>
       <c r="C8" s="21"/>
@@ -12364,7 +12367,7 @@
       <c r="Y8" s="21"/>
       <c r="Z8" s="34"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -12406,7 +12409,7 @@
       <c r="Y9" s="21"/>
       <c r="Z9" s="34"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -12450,7 +12453,7 @@
       <c r="Y10" s="21"/>
       <c r="Z10" s="34"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -12496,7 +12499,7 @@
       <c r="Y11" s="21"/>
       <c r="Z11" s="34"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -12544,7 +12547,7 @@
       <c r="Y12" s="21"/>
       <c r="Z12" s="34"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="21"/>
@@ -12594,7 +12597,7 @@
       <c r="Y13" s="21"/>
       <c r="Z13" s="34"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -12646,7 +12649,7 @@
       <c r="Y14" s="21"/>
       <c r="Z14" s="34"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -12700,7 +12703,7 @@
       <c r="Y15" s="21"/>
       <c r="Z15" s="34"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="21"/>
       <c r="C16" s="69"/>
@@ -12756,7 +12759,7 @@
       <c r="Y16" s="21"/>
       <c r="Z16" s="34"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="39"/>
@@ -12784,7 +12787,7 @@
       <c r="Y17" s="37"/>
       <c r="Z17" s="34"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="37"/>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
@@ -12811,7 +12814,7 @@
       <c r="Y18" s="37"/>
       <c r="Z18" s="34"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -12838,69 +12841,69 @@
       <c r="Y19" s="37"/>
       <c r="Z19" s="34"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="37"/>
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="37"/>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="37"/>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="37"/>
       <c r="B26" s="37"/>
       <c r="C26" s="37"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="37"/>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
     </row>
-    <row r="34" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="5:9" x14ac:dyDescent="0.25">
       <c r="I34" s="70"/>
     </row>
-    <row r="37" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="5:9" x14ac:dyDescent="0.25">
       <c r="I37" s="100"/>
     </row>
-    <row r="38" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="5:9" x14ac:dyDescent="0.25">
       <c r="I38" s="100"/>
     </row>
-    <row r="40" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E40" s="51"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="43" t="s">
         <v>48</v>
       </c>
@@ -12908,7 +12911,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="45" t="s">
         <v>56</v>
       </c>
@@ -12919,7 +12922,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="46" t="s">
         <v>57</v>
       </c>
@@ -12930,7 +12933,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="46" t="s">
         <v>58</v>
       </c>
@@ -12941,7 +12944,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="48" t="s">
         <v>59</v>
       </c>
@@ -12952,7 +12955,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="50" t="s">
         <v>49</v>
       </c>
@@ -12960,7 +12963,7 @@
       <c r="C110" s="50"/>
       <c r="D110" s="99"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>7</v>
       </c>
@@ -13001,31 +13004,31 @@
       <selection activeCell="G3" sqref="G3:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="2" customWidth="1"/>
-    <col min="11" max="12" width="7.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.85546875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="4.7109375" style="2" customWidth="1"/>
-    <col min="18" max="19" width="5.140625" style="2" customWidth="1"/>
-    <col min="20" max="24" width="4.85546875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="8.7109375" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="17.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="2" customWidth="1"/>
+    <col min="11" max="12" width="7.5546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.88671875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="4.88671875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.6640625" style="2" customWidth="1"/>
+    <col min="18" max="19" width="5.109375" style="2" customWidth="1"/>
+    <col min="20" max="24" width="4.88671875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="8.6640625" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="105" t="s">
         <v>25</v>
       </c>
@@ -13059,7 +13062,7 @@
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
-    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -13135,7 +13138,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -13195,7 +13198,7 @@
       </c>
       <c r="Z3" s="29"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -13231,7 +13234,7 @@
       <c r="Y4" s="33"/>
       <c r="Z4" s="34"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -13265,7 +13268,7 @@
       <c r="Y5" s="21"/>
       <c r="Z5" s="34"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -13301,7 +13304,7 @@
       <c r="Y6" s="21"/>
       <c r="Z6" s="34"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -13339,7 +13342,7 @@
       <c r="Y7" s="21"/>
       <c r="Z7" s="34"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -13379,7 +13382,7 @@
       <c r="Y8" s="21"/>
       <c r="Z8" s="34"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -13421,7 +13424,7 @@
       <c r="Y9" s="21"/>
       <c r="Z9" s="34"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -13465,7 +13468,7 @@
       <c r="Y10" s="21"/>
       <c r="Z10" s="34"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -13511,7 +13514,7 @@
       <c r="Y11" s="21"/>
       <c r="Z11" s="34"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -13559,7 +13562,7 @@
       <c r="Y12" s="21"/>
       <c r="Z12" s="34"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="21"/>
@@ -13609,7 +13612,7 @@
       <c r="Y13" s="21"/>
       <c r="Z13" s="34"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -13661,7 +13664,7 @@
       <c r="Y14" s="21"/>
       <c r="Z14" s="34"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -13715,7 +13718,7 @@
       <c r="Y15" s="21"/>
       <c r="Z15" s="34"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="21"/>
       <c r="C16" s="37"/>
@@ -13771,7 +13774,7 @@
       <c r="Y16" s="21"/>
       <c r="Z16" s="34"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="39"/>
@@ -13799,7 +13802,7 @@
       <c r="Y17" s="37"/>
       <c r="Z17" s="34"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="37"/>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
@@ -13826,7 +13829,7 @@
       <c r="Y18" s="37"/>
       <c r="Z18" s="34"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -13853,60 +13856,60 @@
       <c r="Y19" s="37"/>
       <c r="Z19" s="34"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="37"/>
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="37"/>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="37"/>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="37"/>
       <c r="B26" s="37"/>
       <c r="C26" s="37"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="37"/>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E40" s="51"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="43" t="s">
         <v>48</v>
       </c>
@@ -13914,7 +13917,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="45" t="s">
         <v>56</v>
       </c>
@@ -13925,7 +13928,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="46" t="s">
         <v>57</v>
       </c>
@@ -13936,7 +13939,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="46" t="s">
         <v>58</v>
       </c>
@@ -13947,7 +13950,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="48" t="s">
         <v>59</v>
       </c>
@@ -13958,7 +13961,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="50" t="s">
         <v>49</v>
       </c>
@@ -13966,7 +13969,7 @@
       <c r="C110" s="50"/>
       <c r="D110" s="50"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>7</v>
       </c>
@@ -14007,31 +14010,31 @@
       <selection activeCell="G3" sqref="G3:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="2" customWidth="1"/>
-    <col min="11" max="12" width="7.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.85546875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="4.7109375" style="2" customWidth="1"/>
-    <col min="18" max="19" width="5.140625" style="2" customWidth="1"/>
-    <col min="20" max="24" width="4.85546875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="8.7109375" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="17.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="2" customWidth="1"/>
+    <col min="11" max="12" width="7.5546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.88671875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="4.88671875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.6640625" style="2" customWidth="1"/>
+    <col min="18" max="19" width="5.109375" style="2" customWidth="1"/>
+    <col min="20" max="24" width="4.88671875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="8.6640625" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="105" t="s">
         <v>25</v>
       </c>
@@ -14065,7 +14068,7 @@
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
-    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -14141,7 +14144,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3" s="20"/>
       <c r="C3" s="21"/>
@@ -14201,7 +14204,7 @@
       </c>
       <c r="Z3" s="29"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4" s="20"/>
       <c r="C4" s="21"/>
@@ -14237,7 +14240,7 @@
       <c r="Y4" s="33"/>
       <c r="Z4" s="34"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" s="20"/>
       <c r="C5" s="21"/>
@@ -14271,7 +14274,7 @@
       <c r="Y5" s="21"/>
       <c r="Z5" s="34"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="20"/>
       <c r="C6" s="21"/>
@@ -14307,7 +14310,7 @@
       <c r="Y6" s="21"/>
       <c r="Z6" s="34"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="20"/>
       <c r="C7" s="21"/>
@@ -14345,7 +14348,7 @@
       <c r="Y7" s="21"/>
       <c r="Z7" s="34"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="20"/>
       <c r="C8" s="21"/>
@@ -14385,7 +14388,7 @@
       <c r="Y8" s="21"/>
       <c r="Z8" s="34"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -14427,7 +14430,7 @@
       <c r="Y9" s="21"/>
       <c r="Z9" s="34"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -14471,7 +14474,7 @@
       <c r="Y10" s="21"/>
       <c r="Z10" s="34"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -14517,7 +14520,7 @@
       <c r="Y11" s="21"/>
       <c r="Z11" s="34"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -14565,7 +14568,7 @@
       <c r="Y12" s="21"/>
       <c r="Z12" s="34"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="21"/>
@@ -14615,7 +14618,7 @@
       <c r="Y13" s="21"/>
       <c r="Z13" s="34"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -14667,7 +14670,7 @@
       <c r="Y14" s="21"/>
       <c r="Z14" s="34"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -14721,7 +14724,7 @@
       <c r="Y15" s="21"/>
       <c r="Z15" s="34"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="21"/>
       <c r="C16" s="37"/>
@@ -14777,7 +14780,7 @@
       <c r="Y16" s="21"/>
       <c r="Z16" s="34"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="39"/>
@@ -14805,7 +14808,7 @@
       <c r="Y17" s="37"/>
       <c r="Z17" s="34"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="37"/>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
@@ -14816,7 +14819,7 @@
       <c r="H18" s="37"/>
       <c r="I18" s="21"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -14827,60 +14830,60 @@
       <c r="H19" s="37"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="37"/>
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="37"/>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="37"/>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="37"/>
       <c r="B26" s="37"/>
       <c r="C26" s="37"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="37"/>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E40" s="51"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="43" t="s">
         <v>48</v>
       </c>
@@ -14888,7 +14891,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="45" t="s">
         <v>56</v>
       </c>
@@ -14899,7 +14902,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="46" t="s">
         <v>57</v>
       </c>
@@ -14910,7 +14913,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="46" t="s">
         <v>58</v>
       </c>
@@ -14921,7 +14924,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="48" t="s">
         <v>59</v>
       </c>
@@ -14932,7 +14935,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="50" t="s">
         <v>49</v>
       </c>
@@ -14940,7 +14943,7 @@
       <c r="C110" s="50"/>
       <c r="D110" s="50"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>7</v>
       </c>
@@ -14978,7 +14981,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14989,38 +14992,38 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Z111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" style="2" customWidth="1"/>
     <col min="10" max="10" width="12" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.85546875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="5.140625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="4.7109375" style="2" customWidth="1"/>
-    <col min="18" max="18" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.140625" style="2" customWidth="1"/>
-    <col min="20" max="21" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="4.85546875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="8.7109375" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="2"/>
+    <col min="11" max="11" width="14.6640625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.88671875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="5.109375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.6640625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.109375" style="2" customWidth="1"/>
+    <col min="20" max="21" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="4.88671875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="8.6640625" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="105" t="s">
         <v>25</v>
       </c>
@@ -15054,7 +15057,7 @@
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
-    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -15130,7 +15133,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>113</v>
       </c>
@@ -15204,7 +15207,7 @@
       </c>
       <c r="Z3" s="56"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="53" t="s">
         <v>116</v>
       </c>
@@ -15278,7 +15281,7 @@
       </c>
       <c r="Z4" s="58"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="53" t="s">
         <v>117</v>
       </c>
@@ -15352,7 +15355,7 @@
       </c>
       <c r="Z5" s="58"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="53"/>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
@@ -15418,7 +15421,7 @@
       </c>
       <c r="Z6" s="58"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="53"/>
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
@@ -15484,7 +15487,7 @@
       </c>
       <c r="Z7" s="58"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="53"/>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
@@ -15542,7 +15545,7 @@
       </c>
       <c r="Z8" s="58"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="25"/>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
@@ -15600,7 +15603,7 @@
       </c>
       <c r="Z9" s="58"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="53"/>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
@@ -15658,7 +15661,7 @@
       </c>
       <c r="Z10" s="58"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="53"/>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
@@ -15716,7 +15719,7 @@
       </c>
       <c r="Z11" s="58"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="53"/>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
@@ -15774,7 +15777,7 @@
       </c>
       <c r="Z12" s="58"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="53"/>
       <c r="B13" s="53"/>
       <c r="C13" s="25"/>
@@ -15832,7 +15835,7 @@
       </c>
       <c r="Z13" s="58"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="53"/>
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
@@ -15890,7 +15893,7 @@
       </c>
       <c r="Z14" s="58"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="53"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -15948,7 +15951,7 @@
       </c>
       <c r="Z15" s="58"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="53"/>
       <c r="B16" s="25"/>
       <c r="C16" s="60"/>
@@ -16006,7 +16009,7 @@
       </c>
       <c r="Z16" s="58"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="60"/>
       <c r="B17" s="60"/>
       <c r="C17" s="62"/>
@@ -16035,7 +16038,7 @@
       <c r="Y17" s="63"/>
       <c r="Z17" s="58"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="K18" s="63"/>
       <c r="L18" s="107" t="s">
         <v>111</v>
@@ -16054,11 +16057,11 @@
       <c r="X18" s="108"/>
       <c r="Y18" s="108"/>
     </row>
-    <row r="38" spans="5:5" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="5:5" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E40" s="51"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="43" t="s">
         <v>48</v>
       </c>
@@ -16066,7 +16069,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="45" t="s">
         <v>56</v>
       </c>
@@ -16077,7 +16080,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="46" t="s">
         <v>57</v>
       </c>
@@ -16088,7 +16091,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="46" t="s">
         <v>58</v>
       </c>
@@ -16099,7 +16102,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="48" t="s">
         <v>59</v>
       </c>
@@ -16110,7 +16113,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="50" t="s">
         <v>49</v>
       </c>
@@ -16118,7 +16121,7 @@
       <c r="C110" s="50"/>
       <c r="D110" s="50"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>7</v>
       </c>
@@ -16156,34 +16159,34 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Z111"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="2" customWidth="1"/>
     <col min="4" max="5" width="15" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="2" customWidth="1"/>
-    <col min="11" max="12" width="7.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.85546875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="4.7109375" style="2" customWidth="1"/>
-    <col min="18" max="19" width="5.140625" style="2" customWidth="1"/>
-    <col min="20" max="24" width="4.85546875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="8.7109375" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="17.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="2" customWidth="1"/>
+    <col min="11" max="12" width="7.5546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.88671875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="4.88671875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.6640625" style="2" customWidth="1"/>
+    <col min="18" max="19" width="5.109375" style="2" customWidth="1"/>
+    <col min="20" max="24" width="4.88671875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="8.6640625" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="105" t="s">
         <v>25</v>
       </c>
@@ -16217,7 +16220,7 @@
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
-    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -16293,7 +16296,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>113</v>
       </c>
@@ -16367,7 +16370,7 @@
       </c>
       <c r="Z3" s="29"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -16435,7 +16438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -16495,7 +16498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -16555,7 +16558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -16615,7 +16618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -16675,7 +16678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -16735,7 +16738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -16795,7 +16798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -16855,7 +16858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -16915,7 +16918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="21"/>
@@ -16975,7 +16978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -17035,7 +17038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -17095,7 +17098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="21"/>
       <c r="C16" s="37"/>
@@ -17109,53 +17112,1923 @@
       <c r="K16" s="31">
         <v>13</v>
       </c>
+      <c r="L16" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="N16" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="O16" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="P16" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q16" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="R16" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="S16" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="T16" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="U16" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="V16" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="W16" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="X16" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y16" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z16" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="37"/>
+      <c r="Y17" s="37"/>
+      <c r="Z17" s="34"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="K18" s="37"/>
+      <c r="L18" s="109" t="s">
+        <v>111</v>
+      </c>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="37"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="37"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="37"/>
+      <c r="Y18" s="37"/>
+      <c r="Z18" s="39"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="I25" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B100" s="44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="B101" s="44">
+        <v>1</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B102" s="47">
+        <v>1</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="B103" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="B104" s="49">
+        <v>0</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B110" s="50"/>
+      <c r="C110" s="50"/>
+      <c r="D110" s="50"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:X1"/>
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="5">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:Z111"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4:L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="2" customWidth="1"/>
+    <col min="11" max="12" width="7.5546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.88671875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="4.88671875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.6640625" style="2" customWidth="1"/>
+    <col min="18" max="19" width="5.109375" style="2" customWidth="1"/>
+    <col min="20" max="24" width="4.88671875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="8.6640625" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.109375" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="105" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="105"/>
+      <c r="W1" s="105"/>
+      <c r="X1" s="105"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="13"/>
+    </row>
+    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="U2" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="V2" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="W2" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="X2" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y2" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z2" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" s="19"/>
+      <c r="F3" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="26"/>
+      <c r="K3" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="R3" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="S3" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="T3" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="U3" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="V3" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="W3" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="X3" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y3" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z3" s="29"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="19"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="26"/>
+      <c r="K4" s="31">
+        <v>1</v>
+      </c>
+      <c r="L4" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="33"/>
+      <c r="Y4" s="33"/>
+      <c r="Z4" s="34"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="19"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="31">
+        <v>2</v>
+      </c>
+      <c r="L5" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="34"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="19"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="31">
+        <v>3</v>
+      </c>
+      <c r="L6" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="34"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="19"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="31">
+        <v>4</v>
+      </c>
+      <c r="L7" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="N7" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="34"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="19"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="31">
+        <v>5</v>
+      </c>
+      <c r="L8" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="N8" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="O8" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="34"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="31">
+        <v>6</v>
+      </c>
+      <c r="L9" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="N9" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="O9" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="P9" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q9" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="34"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="19"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="31">
+        <v>7</v>
+      </c>
+      <c r="L10" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="N10" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="O10" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="P10" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q10" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="R10" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="21"/>
+      <c r="Z10" s="34"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="19"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="31">
+        <v>8</v>
+      </c>
+      <c r="L11" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="M11" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="N11" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="O11" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="P11" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q11" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="R11" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="S11" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21"/>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="34"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="19"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="31">
+        <v>9</v>
+      </c>
+      <c r="L12" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="N12" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="O12" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="P12" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q12" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="R12" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="S12" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="T12" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="34"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="31">
+        <v>10</v>
+      </c>
+      <c r="L13" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="N13" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="O13" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="P13" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q13" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="R13" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="S13" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="T13" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="U13" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="34"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="19"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="31">
+        <v>11</v>
+      </c>
+      <c r="L14" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="N14" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="O14" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="P14" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q14" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="R14" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="S14" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="T14" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="U14" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="V14" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="34"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="19"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="31">
+        <v>12</v>
+      </c>
+      <c r="L15" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="M15" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="N15" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="O15" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="P15" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q15" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="R15" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="S15" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="T15" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="U15" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="V15" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="W15" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="X15" s="21"/>
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="34"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="19"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="31">
+        <v>13</v>
+      </c>
+      <c r="L16" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="N16" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="O16" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="P16" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q16" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="R16" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="S16" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="T16" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="U16" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="V16" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="W16" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="X16" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="34"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="37"/>
+      <c r="Y17" s="37"/>
+      <c r="Z17" s="34"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="K18" s="37"/>
+      <c r="L18" s="109" t="s">
+        <v>111</v>
+      </c>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="37"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="37"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="37"/>
+      <c r="Y18" s="37"/>
+      <c r="Z18" s="39"/>
+    </row>
+    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E40" s="51"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B100" s="44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="B101" s="44">
+        <v>1</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B102" s="47">
+        <v>1</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="B103" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="B104" s="49">
+        <v>0</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B110" s="50"/>
+      <c r="C110" s="50"/>
+      <c r="D110" s="50"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:X1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="5">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:Z111"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="2" customWidth="1"/>
+    <col min="11" max="12" width="7.5546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.88671875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="4.88671875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.6640625" style="2" customWidth="1"/>
+    <col min="18" max="19" width="5.109375" style="2" customWidth="1"/>
+    <col min="20" max="24" width="4.88671875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="8.6640625" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.109375" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="105" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="105"/>
+      <c r="W1" s="105"/>
+      <c r="X1" s="105"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="13"/>
+    </row>
+    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="U2" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="V2" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="W2" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="X2" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y2" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z2" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="19"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="R3" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="S3" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="T3" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="U3" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="V3" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="W3" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="X3" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y3" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z3" s="29"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="19"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="31">
+        <v>1</v>
+      </c>
+      <c r="L4" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="33"/>
+      <c r="Y4" s="33"/>
+      <c r="Z4" s="34"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="19"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="31">
+        <v>2</v>
+      </c>
+      <c r="L5" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="34"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="19"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="31">
+        <v>3</v>
+      </c>
+      <c r="L6" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="34"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="19"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="31">
+        <v>4</v>
+      </c>
+      <c r="L7" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="N7" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="34"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="19"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="31">
+        <v>5</v>
+      </c>
+      <c r="L8" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="N8" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="O8" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="34"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="31">
+        <v>6</v>
+      </c>
+      <c r="L9" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="N9" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="O9" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="P9" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q9" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="34"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="19"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="31">
+        <v>7</v>
+      </c>
+      <c r="L10" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="N10" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="O10" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="P10" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q10" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="R10" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="21"/>
+      <c r="Z10" s="34"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="19"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="31">
+        <v>8</v>
+      </c>
+      <c r="L11" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="M11" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="N11" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="O11" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="P11" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q11" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="R11" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="S11" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21"/>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="34"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="19"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="31">
+        <v>9</v>
+      </c>
+      <c r="L12" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="N12" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="O12" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="P12" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q12" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="R12" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="S12" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="T12" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="34"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="31">
+        <v>10</v>
+      </c>
+      <c r="L13" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="N13" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="O13" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="P13" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q13" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="R13" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="S13" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="T13" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="U13" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="34"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="19"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="31">
+        <v>11</v>
+      </c>
+      <c r="L14" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="N14" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="O14" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="P14" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q14" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="R14" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="S14" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="T14" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="U14" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="V14" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="34"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="19"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="31">
+        <v>12</v>
+      </c>
+      <c r="L15" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="M15" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="N15" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="O15" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="P15" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q15" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="R15" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="S15" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="T15" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="U15" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="V15" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="W15" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="X15" s="21"/>
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="34"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="19"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="31">
+        <v>13</v>
+      </c>
       <c r="L16" s="28">
         <v>37</v>
       </c>
-      <c r="M16" s="102" t="s">
-        <v>46</v>
-      </c>
-      <c r="N16" s="102" t="s">
-        <v>46</v>
-      </c>
-      <c r="O16" s="102" t="s">
-        <v>46</v>
-      </c>
-      <c r="P16" s="102" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q16" s="102" t="s">
-        <v>46</v>
-      </c>
-      <c r="R16" s="102" t="s">
-        <v>46</v>
-      </c>
-      <c r="S16" s="102" t="s">
-        <v>46</v>
-      </c>
-      <c r="T16" s="102" t="s">
-        <v>46</v>
-      </c>
-      <c r="U16" s="102" t="s">
-        <v>46</v>
-      </c>
-      <c r="V16" s="102" t="s">
-        <v>46</v>
-      </c>
-      <c r="W16" s="102" t="s">
-        <v>46</v>
-      </c>
-      <c r="X16" s="102" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y16" s="103" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z16" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="M16" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="N16" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="O16" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="P16" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q16" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="R16" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="S16" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="T16" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="U16" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="V16" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="W16" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="X16" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="34"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="39"/>
@@ -17183,1833 +19056,7 @@
       <c r="Y17" s="37"/>
       <c r="Z17" s="34"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="I25" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="B100" s="44" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="B101" s="44">
-        <v>1</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="B102" s="47">
-        <v>1</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="B103" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="B104" s="49">
-        <v>0</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="B110" s="50"/>
-      <c r="C110" s="50"/>
-      <c r="D110" s="50"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:X1"/>
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="5">
-    <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
-    <tablePart r:id="rId4"/>
-    <tablePart r:id="rId5"/>
-    <tablePart r:id="rId6"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:Z111"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="2" customWidth="1"/>
-    <col min="11" max="12" width="7.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.85546875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="4.7109375" style="2" customWidth="1"/>
-    <col min="18" max="19" width="5.140625" style="2" customWidth="1"/>
-    <col min="20" max="24" width="4.85546875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="8.7109375" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="105" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
-      <c r="N1" s="105"/>
-      <c r="O1" s="105"/>
-      <c r="P1" s="105"/>
-      <c r="Q1" s="105"/>
-      <c r="R1" s="105"/>
-      <c r="S1" s="105"/>
-      <c r="T1" s="105"/>
-      <c r="U1" s="105"/>
-      <c r="V1" s="105"/>
-      <c r="W1" s="105"/>
-      <c r="X1" s="105"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="13"/>
-    </row>
-    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="M2" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q2" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="R2" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="S2" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="T2" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="U2" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="V2" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="W2" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="X2" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y2" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z2" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="26"/>
-      <c r="K3" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="O3" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="P3" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q3" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="R3" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="S3" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="T3" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="U3" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="V3" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="W3" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="X3" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y3" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z3" s="29"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A4" s="19"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="26"/>
-      <c r="K4" s="31">
-        <v>1</v>
-      </c>
-      <c r="L4" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="33"/>
-      <c r="Z4" s="34"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A5" s="19"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="31">
-        <v>2</v>
-      </c>
-      <c r="L5" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="M5" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="21"/>
-      <c r="Y5" s="21"/>
-      <c r="Z5" s="34"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A6" s="19"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="31">
-        <v>3</v>
-      </c>
-      <c r="L6" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="M6" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="N6" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="34"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A7" s="19"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="31">
-        <v>4</v>
-      </c>
-      <c r="L7" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M7" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="N7" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="O7" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="21"/>
-      <c r="Y7" s="21"/>
-      <c r="Z7" s="34"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A8" s="19"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="31">
-        <v>5</v>
-      </c>
-      <c r="L8" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="M8" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="N8" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="O8" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="P8" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="21"/>
-      <c r="X8" s="21"/>
-      <c r="Y8" s="21"/>
-      <c r="Z8" s="34"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="31">
-        <v>6</v>
-      </c>
-      <c r="L9" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="N9" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="O9" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="P9" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q9" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="21"/>
-      <c r="W9" s="21"/>
-      <c r="X9" s="21"/>
-      <c r="Y9" s="21"/>
-      <c r="Z9" s="34"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A10" s="19"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="31">
-        <v>7</v>
-      </c>
-      <c r="L10" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="M10" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="N10" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="O10" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="P10" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q10" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="R10" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="21"/>
-      <c r="W10" s="21"/>
-      <c r="X10" s="21"/>
-      <c r="Y10" s="21"/>
-      <c r="Z10" s="34"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A11" s="19"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="31">
-        <v>8</v>
-      </c>
-      <c r="L11" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="M11" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="N11" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="O11" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="P11" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q11" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="R11" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="S11" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="21"/>
-      <c r="W11" s="21"/>
-      <c r="X11" s="21"/>
-      <c r="Y11" s="21"/>
-      <c r="Z11" s="34"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A12" s="19"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="31">
-        <v>9</v>
-      </c>
-      <c r="L12" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="N12" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="O12" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="P12" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q12" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="R12" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="S12" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="T12" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="U12" s="21"/>
-      <c r="V12" s="21"/>
-      <c r="W12" s="21"/>
-      <c r="X12" s="21"/>
-      <c r="Y12" s="21"/>
-      <c r="Z12" s="34"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="31">
-        <v>10</v>
-      </c>
-      <c r="L13" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="M13" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="N13" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="O13" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="P13" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q13" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="R13" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="S13" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="T13" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="U13" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="V13" s="21"/>
-      <c r="W13" s="21"/>
-      <c r="X13" s="21"/>
-      <c r="Y13" s="21"/>
-      <c r="Z13" s="34"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A14" s="19"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="31">
-        <v>11</v>
-      </c>
-      <c r="L14" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="M14" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="N14" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="O14" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="P14" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q14" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="R14" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="S14" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="T14" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="U14" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="V14" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="W14" s="21"/>
-      <c r="X14" s="21"/>
-      <c r="Y14" s="21"/>
-      <c r="Z14" s="34"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A15" s="19"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="31">
-        <v>12</v>
-      </c>
-      <c r="L15" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="M15" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="N15" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="O15" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="P15" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q15" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="R15" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="S15" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="T15" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="U15" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="V15" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="W15" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="X15" s="21"/>
-      <c r="Y15" s="21"/>
-      <c r="Z15" s="34"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A16" s="19"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="31">
-        <v>13</v>
-      </c>
-      <c r="L16" s="28">
-        <v>37</v>
-      </c>
-      <c r="M16" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="N16" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="O16" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="P16" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q16" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="R16" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="S16" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="T16" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="U16" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="V16" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="W16" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="X16" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y16" s="21"/>
-      <c r="Z16" s="34"/>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="21"/>
-      <c r="U17" s="21"/>
-      <c r="V17" s="21"/>
-      <c r="W17" s="21"/>
-      <c r="X17" s="37"/>
-      <c r="Y17" s="37"/>
-      <c r="Z17" s="34"/>
-    </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E40" s="51"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="B100" s="44" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="B101" s="44">
-        <v>1</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="B102" s="47">
-        <v>1</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="B103" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="B104" s="49">
-        <v>0</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="B110" s="50"/>
-      <c r="C110" s="50"/>
-      <c r="D110" s="50"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:X1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="5">
-    <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
-    <tablePart r:id="rId4"/>
-    <tablePart r:id="rId5"/>
-    <tablePart r:id="rId6"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:Z111"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:I4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="2" customWidth="1"/>
-    <col min="11" max="12" width="7.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.85546875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="4.7109375" style="2" customWidth="1"/>
-    <col min="18" max="19" width="5.140625" style="2" customWidth="1"/>
-    <col min="20" max="24" width="4.85546875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="8.7109375" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="105" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
-      <c r="N1" s="105"/>
-      <c r="O1" s="105"/>
-      <c r="P1" s="105"/>
-      <c r="Q1" s="105"/>
-      <c r="R1" s="105"/>
-      <c r="S1" s="105"/>
-      <c r="T1" s="105"/>
-      <c r="U1" s="105"/>
-      <c r="V1" s="105"/>
-      <c r="W1" s="105"/>
-      <c r="X1" s="105"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="13"/>
-    </row>
-    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="M2" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q2" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="R2" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="S2" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="T2" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="U2" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="V2" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="W2" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="X2" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y2" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z2" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A3" s="19"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="O3" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="P3" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q3" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="R3" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="S3" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="T3" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="U3" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="V3" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="W3" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="X3" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y3" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z3" s="29"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A4" s="19"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="31">
-        <v>1</v>
-      </c>
-      <c r="L4" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="33"/>
-      <c r="Z4" s="34"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A5" s="19"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="31">
-        <v>2</v>
-      </c>
-      <c r="L5" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="M5" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="21"/>
-      <c r="Y5" s="21"/>
-      <c r="Z5" s="34"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A6" s="19"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="31">
-        <v>3</v>
-      </c>
-      <c r="L6" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="M6" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="N6" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="34"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A7" s="19"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="31">
-        <v>4</v>
-      </c>
-      <c r="L7" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M7" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="N7" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="O7" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="21"/>
-      <c r="Y7" s="21"/>
-      <c r="Z7" s="34"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A8" s="19"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="31">
-        <v>5</v>
-      </c>
-      <c r="L8" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="M8" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="N8" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="O8" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="P8" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="21"/>
-      <c r="X8" s="21"/>
-      <c r="Y8" s="21"/>
-      <c r="Z8" s="34"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="31">
-        <v>6</v>
-      </c>
-      <c r="L9" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="N9" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="O9" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="P9" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q9" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="21"/>
-      <c r="W9" s="21"/>
-      <c r="X9" s="21"/>
-      <c r="Y9" s="21"/>
-      <c r="Z9" s="34"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A10" s="19"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="31">
-        <v>7</v>
-      </c>
-      <c r="L10" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="M10" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="N10" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="O10" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="P10" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q10" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="R10" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="21"/>
-      <c r="W10" s="21"/>
-      <c r="X10" s="21"/>
-      <c r="Y10" s="21"/>
-      <c r="Z10" s="34"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A11" s="19"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="31">
-        <v>8</v>
-      </c>
-      <c r="L11" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="M11" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="N11" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="O11" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="P11" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q11" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="R11" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="S11" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="21"/>
-      <c r="W11" s="21"/>
-      <c r="X11" s="21"/>
-      <c r="Y11" s="21"/>
-      <c r="Z11" s="34"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A12" s="19"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="31">
-        <v>9</v>
-      </c>
-      <c r="L12" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="N12" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="O12" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="P12" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q12" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="R12" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="S12" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="T12" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="U12" s="21"/>
-      <c r="V12" s="21"/>
-      <c r="W12" s="21"/>
-      <c r="X12" s="21"/>
-      <c r="Y12" s="21"/>
-      <c r="Z12" s="34"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="31">
-        <v>10</v>
-      </c>
-      <c r="L13" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="M13" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="N13" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="O13" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="P13" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q13" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="R13" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="S13" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="T13" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="U13" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="V13" s="21"/>
-      <c r="W13" s="21"/>
-      <c r="X13" s="21"/>
-      <c r="Y13" s="21"/>
-      <c r="Z13" s="34"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A14" s="19"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="31">
-        <v>11</v>
-      </c>
-      <c r="L14" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="M14" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="N14" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="O14" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="P14" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q14" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="R14" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="S14" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="T14" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="U14" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="V14" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="W14" s="21"/>
-      <c r="X14" s="21"/>
-      <c r="Y14" s="21"/>
-      <c r="Z14" s="34"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A15" s="19"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="31">
-        <v>12</v>
-      </c>
-      <c r="L15" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="M15" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="N15" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="O15" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="P15" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q15" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="R15" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="S15" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="T15" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="U15" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="V15" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="W15" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="X15" s="21"/>
-      <c r="Y15" s="21"/>
-      <c r="Z15" s="34"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A16" s="19"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="31">
-        <v>13</v>
-      </c>
-      <c r="L16" s="28">
-        <v>37</v>
-      </c>
-      <c r="M16" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="N16" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="O16" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="P16" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q16" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="R16" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="S16" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="T16" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="U16" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="V16" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="W16" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="X16" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y16" s="21"/>
-      <c r="Z16" s="34"/>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="21"/>
-      <c r="U17" s="21"/>
-      <c r="V17" s="21"/>
-      <c r="W17" s="21"/>
-      <c r="X17" s="37"/>
-      <c r="Y17" s="37"/>
-      <c r="Z17" s="34"/>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="37"/>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
@@ -19020,7 +19067,7 @@
       <c r="H18" s="37"/>
       <c r="I18" s="21"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -19031,60 +19078,60 @@
       <c r="H19" s="37"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="37"/>
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="37"/>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="37"/>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="37"/>
       <c r="B26" s="37"/>
       <c r="C26" s="37"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="37"/>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E40" s="51"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="43" t="s">
         <v>48</v>
       </c>
@@ -19092,7 +19139,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="45" t="s">
         <v>56</v>
       </c>
@@ -19103,7 +19150,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="46" t="s">
         <v>57</v>
       </c>
@@ -19114,7 +19161,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="46" t="s">
         <v>58</v>
       </c>
@@ -19125,7 +19172,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="48" t="s">
         <v>59</v>
       </c>
@@ -19136,7 +19183,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="50" t="s">
         <v>49</v>
       </c>
@@ -19144,7 +19191,7 @@
       <c r="C110" s="50"/>
       <c r="D110" s="50"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>7</v>
       </c>
@@ -19185,31 +19232,31 @@
       <selection activeCell="G3" sqref="G3:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43" style="76" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="76" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="76" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" style="76" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="76" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="76" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" style="76" customWidth="1"/>
     <col min="5" max="5" width="9" style="76" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="76" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="76" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="76" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="76" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="76" customWidth="1"/>
-    <col min="11" max="12" width="7.5703125" style="76" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" style="76" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" style="76" customWidth="1"/>
-    <col min="15" max="15" width="5.85546875" style="76" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="76" customWidth="1"/>
-    <col min="17" max="17" width="4.7109375" style="76" customWidth="1"/>
-    <col min="18" max="19" width="5.140625" style="76" customWidth="1"/>
-    <col min="20" max="24" width="4.85546875" style="76" customWidth="1"/>
-    <col min="25" max="25" width="8.7109375" style="76" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="76"/>
+    <col min="6" max="6" width="17.6640625" style="76" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="76" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" style="76" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" style="76" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="76" customWidth="1"/>
+    <col min="11" max="12" width="7.5546875" style="76" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" style="76" customWidth="1"/>
+    <col min="14" max="14" width="7.109375" style="76" customWidth="1"/>
+    <col min="15" max="15" width="5.88671875" style="76" customWidth="1"/>
+    <col min="16" max="16" width="4.88671875" style="76" customWidth="1"/>
+    <col min="17" max="17" width="4.6640625" style="76" customWidth="1"/>
+    <col min="18" max="19" width="5.109375" style="76" customWidth="1"/>
+    <col min="20" max="24" width="4.88671875" style="76" customWidth="1"/>
+    <col min="25" max="25" width="8.6640625" style="76" customWidth="1"/>
+    <col min="26" max="16384" width="9.109375" style="76"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="105" t="s">
         <v>25</v>
       </c>
@@ -19243,7 +19290,7 @@
       <c r="Y1" s="74"/>
       <c r="Z1" s="75"/>
     </row>
-    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="77" t="s">
         <v>64</v>
       </c>
@@ -19319,7 +19366,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="79"/>
       <c r="B3" s="20"/>
       <c r="C3" s="21"/>
@@ -19379,7 +19426,7 @@
       </c>
       <c r="Z3" s="29"/>
     </row>
-    <row r="4" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="80"/>
       <c r="B4" s="20"/>
       <c r="C4" s="21"/>
@@ -19415,7 +19462,7 @@
       <c r="Y4" s="33"/>
       <c r="Z4" s="34"/>
     </row>
-    <row r="5" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="80"/>
       <c r="B5" s="20"/>
       <c r="C5" s="21"/>
@@ -19449,7 +19496,7 @@
       <c r="Y5" s="21"/>
       <c r="Z5" s="34"/>
     </row>
-    <row r="6" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="80"/>
       <c r="B6" s="38"/>
       <c r="C6" s="21"/>
@@ -19485,7 +19532,7 @@
       <c r="Y6" s="21"/>
       <c r="Z6" s="34"/>
     </row>
-    <row r="7" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="80"/>
       <c r="B7" s="38"/>
       <c r="C7" s="21"/>
@@ -19523,7 +19570,7 @@
       <c r="Y7" s="21"/>
       <c r="Z7" s="34"/>
     </row>
-    <row r="8" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="80"/>
       <c r="B8" s="38"/>
       <c r="C8" s="21"/>
@@ -19563,7 +19610,7 @@
       <c r="Y8" s="21"/>
       <c r="Z8" s="34"/>
     </row>
-    <row r="9" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="80"/>
       <c r="B9" s="38"/>
       <c r="C9" s="21"/>
@@ -19605,7 +19652,7 @@
       <c r="Y9" s="21"/>
       <c r="Z9" s="34"/>
     </row>
-    <row r="10" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="80"/>
       <c r="B10" s="38"/>
       <c r="C10" s="21"/>
@@ -19649,7 +19696,7 @@
       <c r="Y10" s="21"/>
       <c r="Z10" s="34"/>
     </row>
-    <row r="11" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="80"/>
       <c r="B11" s="38"/>
       <c r="C11" s="21"/>
@@ -19695,7 +19742,7 @@
       <c r="Y11" s="21"/>
       <c r="Z11" s="34"/>
     </row>
-    <row r="12" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="80"/>
       <c r="B12" s="38"/>
       <c r="C12" s="21"/>
@@ -19743,7 +19790,7 @@
       <c r="Y12" s="21"/>
       <c r="Z12" s="34"/>
     </row>
-    <row r="13" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="80"/>
       <c r="B13" s="38"/>
       <c r="C13" s="21"/>
@@ -19793,7 +19840,7 @@
       <c r="Y13" s="21"/>
       <c r="Z13" s="34"/>
     </row>
-    <row r="14" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="80"/>
       <c r="B14" s="38"/>
       <c r="C14" s="21"/>
@@ -19845,7 +19892,7 @@
       <c r="Y14" s="21"/>
       <c r="Z14" s="34"/>
     </row>
-    <row r="15" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="80"/>
       <c r="B15" s="38"/>
       <c r="C15" s="21"/>
@@ -19899,7 +19946,7 @@
       <c r="Y15" s="21"/>
       <c r="Z15" s="34"/>
     </row>
-    <row r="16" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="80"/>
       <c r="B16" s="38"/>
       <c r="C16" s="37"/>
@@ -19955,7 +20002,7 @@
       <c r="Y16" s="21"/>
       <c r="Z16" s="34"/>
     </row>
-    <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="80"/>
       <c r="B17" s="38"/>
       <c r="C17" s="39"/>
@@ -19983,7 +20030,7 @@
       <c r="Y17" s="37"/>
       <c r="Z17" s="34"/>
     </row>
-    <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="80"/>
       <c r="B18" s="38"/>
       <c r="C18" s="37"/>
@@ -19994,7 +20041,7 @@
       <c r="H18" s="37"/>
       <c r="I18" s="21"/>
     </row>
-    <row r="19" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="80"/>
       <c r="B19" s="38"/>
       <c r="C19" s="37"/>
@@ -20005,214 +20052,214 @@
       <c r="H19" s="37"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="80"/>
       <c r="B20" s="20"/>
       <c r="C20" s="37"/>
       <c r="D20" s="52"/>
     </row>
-    <row r="21" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="80"/>
       <c r="B21" s="20"/>
       <c r="C21" s="37"/>
       <c r="D21" s="52"/>
     </row>
-    <row r="22" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A22" s="80"/>
       <c r="B22" s="38"/>
       <c r="C22" s="37"/>
       <c r="D22" s="52"/>
     </row>
-    <row r="23" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="80"/>
       <c r="B23" s="20"/>
       <c r="C23" s="37"/>
       <c r="D23" s="52"/>
     </row>
-    <row r="24" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A24" s="80"/>
       <c r="B24" s="20"/>
       <c r="C24" s="37"/>
       <c r="D24" s="52"/>
     </row>
-    <row r="25" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A25" s="80"/>
       <c r="B25" s="20"/>
       <c r="C25" s="37"/>
       <c r="D25" s="52"/>
     </row>
-    <row r="26" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A26" s="80"/>
       <c r="B26" s="20"/>
       <c r="C26" s="37"/>
       <c r="D26" s="52"/>
     </row>
-    <row r="27" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A27" s="82"/>
       <c r="B27" s="36"/>
       <c r="C27" s="37"/>
       <c r="D27" s="52"/>
     </row>
-    <row r="28" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A28" s="80"/>
       <c r="B28" s="20"/>
       <c r="C28" s="37"/>
       <c r="D28" s="52"/>
     </row>
-    <row r="29" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A29" s="80"/>
       <c r="B29" s="20"/>
       <c r="C29" s="37"/>
       <c r="D29" s="52"/>
     </row>
-    <row r="30" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A30" s="80"/>
       <c r="B30" s="20"/>
       <c r="C30" s="37"/>
       <c r="D30" s="52"/>
     </row>
-    <row r="31" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A31" s="83"/>
       <c r="B31" s="38"/>
       <c r="C31" s="37"/>
       <c r="D31" s="52"/>
     </row>
-    <row r="32" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A32" s="83"/>
       <c r="B32" s="38"/>
       <c r="C32" s="37"/>
       <c r="D32" s="52"/>
     </row>
-    <row r="33" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A33" s="83"/>
       <c r="B33" s="38"/>
       <c r="C33" s="37"/>
       <c r="D33" s="52"/>
     </row>
-    <row r="34" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A34" s="94"/>
       <c r="B34" s="38"/>
       <c r="C34" s="37"/>
       <c r="D34" s="52"/>
     </row>
-    <row r="35" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A35" s="94"/>
       <c r="B35" s="38"/>
       <c r="C35" s="37"/>
       <c r="D35" s="52"/>
     </row>
-    <row r="36" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A36" s="94"/>
       <c r="B36" s="38"/>
       <c r="C36" s="37"/>
       <c r="D36" s="52"/>
     </row>
-    <row r="37" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A37" s="94"/>
       <c r="B37" s="38"/>
       <c r="C37" s="37"/>
       <c r="D37" s="52"/>
     </row>
-    <row r="38" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A38" s="94"/>
       <c r="B38" s="38"/>
       <c r="C38" s="37"/>
       <c r="D38" s="52"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="38"/>
       <c r="B39" s="38"/>
       <c r="C39" s="37"/>
       <c r="D39" s="52"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="38"/>
       <c r="B40" s="38"/>
       <c r="C40" s="37"/>
       <c r="D40" s="40"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="38"/>
       <c r="B41" s="38"/>
       <c r="C41" s="37"/>
       <c r="D41" s="40"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="38"/>
       <c r="B42" s="38"/>
       <c r="C42" s="37"/>
       <c r="D42" s="40"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="38"/>
       <c r="B43" s="38"/>
       <c r="C43" s="37"/>
       <c r="D43" s="40"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="38"/>
       <c r="B44" s="38"/>
       <c r="C44" s="37"/>
       <c r="D44" s="40"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="38"/>
       <c r="B45" s="38"/>
       <c r="C45" s="37"/>
       <c r="D45" s="40"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="38"/>
       <c r="B46" s="38"/>
       <c r="C46" s="37"/>
       <c r="D46" s="40"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="38"/>
       <c r="B47" s="38"/>
       <c r="C47" s="37"/>
       <c r="D47" s="40"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="38"/>
       <c r="B48" s="38"/>
       <c r="C48" s="37"/>
       <c r="D48" s="40"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="38"/>
       <c r="B49" s="38"/>
       <c r="C49" s="37"/>
       <c r="D49" s="40"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="38"/>
       <c r="B50" s="38"/>
       <c r="C50" s="37"/>
       <c r="D50" s="40"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="38"/>
       <c r="B51" s="38"/>
       <c r="C51" s="37"/>
       <c r="D51" s="40"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="38"/>
       <c r="B52" s="38"/>
       <c r="C52" s="37"/>
       <c r="D52" s="40"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="37"/>
       <c r="B53" s="37"/>
       <c r="C53" s="37"/>
       <c r="D53" s="84"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E64" s="93"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="85" t="s">
         <v>48</v>
       </c>
@@ -20220,7 +20267,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="87" t="s">
         <v>56</v>
       </c>
@@ -20231,7 +20278,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="88" t="s">
         <v>57</v>
       </c>
@@ -20242,7 +20289,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="88" t="s">
         <v>58</v>
       </c>
@@ -20253,7 +20300,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="90" t="s">
         <v>59</v>
       </c>
@@ -20264,7 +20311,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="92" t="s">
         <v>49</v>
       </c>
@@ -20272,7 +20319,7 @@
       <c r="C110" s="92"/>
       <c r="D110" s="92"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="76" t="s">
         <v>7</v>
       </c>
@@ -20313,31 +20360,31 @@
       <selection activeCell="G3" sqref="G3:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="38.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="38.6640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="2" customWidth="1"/>
-    <col min="11" max="12" width="7.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.85546875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="4.7109375" style="2" customWidth="1"/>
-    <col min="18" max="19" width="5.140625" style="2" customWidth="1"/>
-    <col min="20" max="24" width="4.85546875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="8.7109375" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="17.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="2" customWidth="1"/>
+    <col min="11" max="12" width="7.5546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.88671875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="4.88671875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.6640625" style="2" customWidth="1"/>
+    <col min="18" max="19" width="5.109375" style="2" customWidth="1"/>
+    <col min="20" max="24" width="4.88671875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="8.6640625" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="105" t="s">
         <v>25</v>
       </c>
@@ -20371,7 +20418,7 @@
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
-    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -20447,7 +20494,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3" s="20"/>
       <c r="C3" s="21"/>
@@ -20507,7 +20554,7 @@
       </c>
       <c r="Z3" s="29"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4" s="20"/>
       <c r="C4" s="21"/>
@@ -20543,7 +20590,7 @@
       <c r="Y4" s="33"/>
       <c r="Z4" s="34"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" s="20"/>
       <c r="C5" s="21"/>
@@ -20577,7 +20624,7 @@
       <c r="Y5" s="21"/>
       <c r="Z5" s="34"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="20"/>
       <c r="C6" s="21"/>
@@ -20613,7 +20660,7 @@
       <c r="Y6" s="21"/>
       <c r="Z6" s="34"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="20"/>
       <c r="C7" s="21"/>
@@ -20651,7 +20698,7 @@
       <c r="Y7" s="21"/>
       <c r="Z7" s="34"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="20"/>
       <c r="C8" s="21"/>
@@ -20691,7 +20738,7 @@
       <c r="Y8" s="21"/>
       <c r="Z8" s="34"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="20"/>
       <c r="C9" s="21"/>
@@ -20733,7 +20780,7 @@
       <c r="Y9" s="21"/>
       <c r="Z9" s="34"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="20"/>
       <c r="C10" s="21"/>
@@ -20777,7 +20824,7 @@
       <c r="Y10" s="21"/>
       <c r="Z10" s="34"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -20823,7 +20870,7 @@
       <c r="Y11" s="21"/>
       <c r="Z11" s="34"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -20871,7 +20918,7 @@
       <c r="Y12" s="21"/>
       <c r="Z12" s="34"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="21"/>
@@ -20921,7 +20968,7 @@
       <c r="Y13" s="21"/>
       <c r="Z13" s="34"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -20973,7 +21020,7 @@
       <c r="Y14" s="21"/>
       <c r="Z14" s="34"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -21027,7 +21074,7 @@
       <c r="Y15" s="21"/>
       <c r="Z15" s="34"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="21"/>
       <c r="C16" s="37"/>
@@ -21083,7 +21130,7 @@
       <c r="Y16" s="21"/>
       <c r="Z16" s="34"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="39"/>
@@ -21111,7 +21158,7 @@
       <c r="Y17" s="37"/>
       <c r="Z17" s="34"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="37"/>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
@@ -21122,7 +21169,7 @@
       <c r="H18" s="37"/>
       <c r="I18" s="21"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -21133,70 +21180,70 @@
       <c r="H19" s="37"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="37"/>
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
       <c r="D20" s="42"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
       <c r="D21" s="42"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="37"/>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
       <c r="D22" s="42"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
       <c r="D23" s="42"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="37"/>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
       <c r="D24" s="42"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
       <c r="D25" s="42"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="37"/>
       <c r="B26" s="37"/>
       <c r="C26" s="37"/>
       <c r="D26" s="42"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
       <c r="D27" s="42"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="37"/>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
       <c r="D28" s="42"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
       <c r="D29" s="42"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E40" s="51"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="43" t="s">
         <v>48</v>
       </c>
@@ -21204,7 +21251,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="45" t="s">
         <v>56</v>
       </c>
@@ -21215,7 +21262,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="46" t="s">
         <v>57</v>
       </c>
@@ -21226,7 +21273,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="46" t="s">
         <v>58</v>
       </c>
@@ -21237,7 +21284,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="48" t="s">
         <v>59</v>
       </c>
@@ -21248,7 +21295,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="50" t="s">
         <v>49</v>
       </c>
@@ -21256,7 +21303,7 @@
       <c r="C110" s="50"/>
       <c r="D110" s="50"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>7</v>
       </c>
@@ -21297,31 +21344,31 @@
       <selection activeCell="G3" sqref="G3:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="2" customWidth="1"/>
-    <col min="11" max="12" width="7.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.85546875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="4.7109375" style="2" customWidth="1"/>
-    <col min="18" max="19" width="5.140625" style="2" customWidth="1"/>
-    <col min="20" max="24" width="4.85546875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="8.7109375" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="17.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="2" customWidth="1"/>
+    <col min="11" max="12" width="7.5546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.88671875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="4.88671875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.6640625" style="2" customWidth="1"/>
+    <col min="18" max="19" width="5.109375" style="2" customWidth="1"/>
+    <col min="20" max="24" width="4.88671875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="8.6640625" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="105" t="s">
         <v>25</v>
       </c>
@@ -21355,7 +21402,7 @@
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
-    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -21431,7 +21478,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -21491,7 +21538,7 @@
       </c>
       <c r="Z3" s="29"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -21527,7 +21574,7 @@
       <c r="Y4" s="33"/>
       <c r="Z4" s="34"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -21561,7 +21608,7 @@
       <c r="Y5" s="21"/>
       <c r="Z5" s="34"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -21597,7 +21644,7 @@
       <c r="Y6" s="21"/>
       <c r="Z6" s="34"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -21635,7 +21682,7 @@
       <c r="Y7" s="21"/>
       <c r="Z7" s="34"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -21675,7 +21722,7 @@
       <c r="Y8" s="21"/>
       <c r="Z8" s="34"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -21717,7 +21764,7 @@
       <c r="Y9" s="21"/>
       <c r="Z9" s="34"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -21761,7 +21808,7 @@
       <c r="Y10" s="21"/>
       <c r="Z10" s="34"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -21807,7 +21854,7 @@
       <c r="Y11" s="21"/>
       <c r="Z11" s="34"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -21855,7 +21902,7 @@
       <c r="Y12" s="21"/>
       <c r="Z12" s="34"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="21"/>
@@ -21905,7 +21952,7 @@
       <c r="Y13" s="21"/>
       <c r="Z13" s="34"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -21957,7 +22004,7 @@
       <c r="Y14" s="21"/>
       <c r="Z14" s="34"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -22011,7 +22058,7 @@
       <c r="Y15" s="21"/>
       <c r="Z15" s="34"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="21"/>
       <c r="C16" s="37"/>
@@ -22067,7 +22114,7 @@
       <c r="Y16" s="21"/>
       <c r="Z16" s="34"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="39"/>
@@ -22095,7 +22142,7 @@
       <c r="Y17" s="37"/>
       <c r="Z17" s="34"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="37"/>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
@@ -22106,7 +22153,7 @@
       <c r="H18" s="37"/>
       <c r="I18" s="21"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -22117,60 +22164,60 @@
       <c r="H19" s="37"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="37"/>
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="37"/>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="37"/>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="37"/>
       <c r="B26" s="37"/>
       <c r="C26" s="37"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="37"/>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E40" s="51"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="43" t="s">
         <v>48</v>
       </c>
@@ -22178,7 +22225,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="45" t="s">
         <v>56</v>
       </c>
@@ -22189,7 +22236,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="46" t="s">
         <v>57</v>
       </c>
@@ -22200,7 +22247,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="46" t="s">
         <v>58</v>
       </c>
@@ -22211,7 +22258,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="48" t="s">
         <v>59</v>
       </c>
@@ -22222,7 +22269,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="50" t="s">
         <v>49</v>
       </c>
@@ -22230,7 +22277,7 @@
       <c r="C110" s="50"/>
       <c r="D110" s="50"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>7</v>
       </c>
@@ -22271,31 +22318,31 @@
       <selection activeCell="G3" sqref="G3:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="2" customWidth="1"/>
-    <col min="11" max="12" width="7.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.85546875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="4.7109375" style="2" customWidth="1"/>
-    <col min="18" max="19" width="5.140625" style="2" customWidth="1"/>
-    <col min="20" max="24" width="4.85546875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="8.7109375" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="17.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="2" customWidth="1"/>
+    <col min="11" max="12" width="7.5546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.88671875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="4.88671875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.6640625" style="2" customWidth="1"/>
+    <col min="18" max="19" width="5.109375" style="2" customWidth="1"/>
+    <col min="20" max="24" width="4.88671875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="8.6640625" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="105" t="s">
         <v>25</v>
       </c>
@@ -22329,7 +22376,7 @@
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
-    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -22405,7 +22452,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -22465,7 +22512,7 @@
       </c>
       <c r="Z3" s="29"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -22501,7 +22548,7 @@
       <c r="Y4" s="33"/>
       <c r="Z4" s="34"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -22535,7 +22582,7 @@
       <c r="Y5" s="21"/>
       <c r="Z5" s="34"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -22571,7 +22618,7 @@
       <c r="Y6" s="21"/>
       <c r="Z6" s="34"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -22609,7 +22656,7 @@
       <c r="Y7" s="21"/>
       <c r="Z7" s="34"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -22649,7 +22696,7 @@
       <c r="Y8" s="21"/>
       <c r="Z8" s="34"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -22691,7 +22738,7 @@
       <c r="Y9" s="21"/>
       <c r="Z9" s="34"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -22735,7 +22782,7 @@
       <c r="Y10" s="21"/>
       <c r="Z10" s="34"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -22781,7 +22828,7 @@
       <c r="Y11" s="21"/>
       <c r="Z11" s="34"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -22829,7 +22876,7 @@
       <c r="Y12" s="21"/>
       <c r="Z12" s="34"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="21"/>
@@ -22879,7 +22926,7 @@
       <c r="Y13" s="21"/>
       <c r="Z13" s="34"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -22931,7 +22978,7 @@
       <c r="Y14" s="21"/>
       <c r="Z14" s="34"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -22985,7 +23032,7 @@
       <c r="Y15" s="21"/>
       <c r="Z15" s="34"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="21"/>
       <c r="C16" s="37"/>
@@ -23041,7 +23088,7 @@
       <c r="Y16" s="21"/>
       <c r="Z16" s="34"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="39"/>
@@ -23069,7 +23116,7 @@
       <c r="Y17" s="37"/>
       <c r="Z17" s="34"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="37"/>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
@@ -23096,7 +23143,7 @@
       <c r="Y18" s="37"/>
       <c r="Z18" s="34"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -23123,60 +23170,60 @@
       <c r="Y19" s="37"/>
       <c r="Z19" s="34"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="37"/>
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="37"/>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="37"/>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="37"/>
       <c r="B26" s="37"/>
       <c r="C26" s="37"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="37"/>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E40" s="51"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="43" t="s">
         <v>48</v>
       </c>
@@ -23184,7 +23231,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="45" t="s">
         <v>56</v>
       </c>
@@ -23195,7 +23242,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="46" t="s">
         <v>57</v>
       </c>
@@ -23206,7 +23253,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="46" t="s">
         <v>58</v>
       </c>
@@ -23217,7 +23264,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="48" t="s">
         <v>59</v>
       </c>
@@ -23228,7 +23275,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="50" t="s">
         <v>49</v>
       </c>
@@ -23236,7 +23283,7 @@
       <c r="C110" s="50"/>
       <c r="D110" s="50"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>7</v>
       </c>

--- a/dcomtestcasegeneration/Database/DB_SAIC_AS28_R1.0_DCOM.xlsx
+++ b/dcomtestcasegeneration/Database/DB_SAIC_AS28_R1.0_DCOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HuyNA_repo\dcomtestcasegeneration\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2265B8F1-3BFE-4317-A9C3-0101F3B01C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1CB310-2252-4AC6-8931-5770EA4E2FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13095" yWindow="1740" windowWidth="14685" windowHeight="14490" tabRatio="903" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13095" yWindow="1740" windowWidth="14685" windowHeight="14490" tabRatio="903" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Common_settings" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2149" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2157" uniqueCount="123">
   <si>
     <t>Sub_function</t>
   </si>
@@ -307,6 +307,9 @@
     <t>Vehicle Speed</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>Create_fault</t>
   </si>
   <si>
@@ -385,9 +388,6 @@
     <t>D:\HuyNA_repo\dcomtestcasegeneration\Database\DB_SAIC_AS28_R1.0_DCOM.xlsx</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>D:\HuyNA_repo\dcomtestcasegeneration\Template</t>
   </si>
   <si>
@@ -404,6 +404,12 @@
   </si>
   <si>
     <t>03</t>
+  </si>
+  <si>
+    <t>117f12</t>
+  </si>
+  <si>
+    <t>5103</t>
   </si>
   <si>
     <t>ffffff</t>
@@ -1014,16 +1020,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10528,8 +10534,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51:B62"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10558,72 +10564,72 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -10639,35 +10645,35 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -10688,30 +10694,30 @@
     </row>
     <row r="21" spans="1:4" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -10767,7 +10773,7 @@
         <v>80</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -10777,7 +10783,7 @@
         <v>81</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -10787,7 +10793,7 @@
         <v>82</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -10797,7 +10803,7 @@
         <v>83</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -10813,7 +10819,7 @@
         <v>65</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -10821,7 +10827,7 @@
         <v>66</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -10829,7 +10835,7 @@
         <v>78</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -10837,7 +10843,7 @@
         <v>79</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -10861,7 +10867,7 @@
         <v>35</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -10933,7 +10939,7 @@
         <v>17</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -10941,7 +10947,7 @@
         <v>76</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -10949,7 +10955,7 @@
         <v>77</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -10997,36 +11003,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="108" t="s">
+      <c r="G1" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108" t="s">
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="108"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="111"/>
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
@@ -12012,36 +12018,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
       <c r="D1" s="94"/>
       <c r="E1" s="64"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="109" t="s">
+      <c r="G1" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109" t="s">
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
-      <c r="U1" s="109"/>
-      <c r="V1" s="109"/>
-      <c r="W1" s="109"/>
-      <c r="X1" s="109"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="112"/>
+      <c r="T1" s="112"/>
+      <c r="U1" s="112"/>
+      <c r="V1" s="112"/>
+      <c r="W1" s="112"/>
+      <c r="X1" s="112"/>
       <c r="Y1" s="65"/>
       <c r="Z1" s="65"/>
     </row>
@@ -13043,36 +13049,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="108" t="s">
+      <c r="G1" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108" t="s">
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="108"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="111"/>
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
@@ -14065,36 +14071,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="108" t="s">
+      <c r="G1" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108" t="s">
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="108"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="111"/>
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
@@ -15038,8 +15044,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Z113"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110:XFD110"/>
+    <sheetView topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4:L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15070,36 +15076,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="108" t="s">
+      <c r="G1" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108" t="s">
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="108"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="111"/>
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
@@ -15271,7 +15277,7 @@
         <v>54</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H4" s="25" t="s">
         <v>26</v>
@@ -15348,10 +15354,10 @@
         <v>26</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J5" s="54"/>
       <c r="K5" s="57">
@@ -15411,7 +15417,7 @@
         <v>10</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H6" s="25" t="s">
         <v>26</v>
@@ -16067,7 +16073,7 @@
       <c r="I17" s="25"/>
       <c r="K17" s="13"/>
       <c r="L17" s="63" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="M17" s="59"/>
       <c r="N17" s="59"/>
@@ -16086,8 +16092,8 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="K18" s="63"/>
-      <c r="L18" s="110" t="s">
-        <v>113</v>
+      <c r="L18" s="108" t="s">
+        <v>87</v>
       </c>
       <c r="M18" s="63"/>
       <c r="N18" s="63"/>
@@ -16099,9 +16105,9 @@
       <c r="T18" s="63"/>
       <c r="U18" s="63"/>
       <c r="V18" s="63"/>
-      <c r="W18" s="111"/>
-      <c r="X18" s="111"/>
-      <c r="Y18" s="111"/>
+      <c r="W18" s="109"/>
+      <c r="X18" s="109"/>
+      <c r="Y18" s="109"/>
     </row>
     <row r="38" spans="5:5" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="40" spans="5:5" x14ac:dyDescent="0.2">
@@ -16194,7 +16200,7 @@
         <v>86</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>19</v>
@@ -16224,8 +16230,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Z113"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110:XFD110"/>
+    <sheetView topLeftCell="A73" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4:L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16252,36 +16258,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="108" t="s">
+      <c r="G1" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108" t="s">
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="108"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="111"/>
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
@@ -16372,14 +16378,14 @@
         <v>116</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E3" s="19"/>
       <c r="F3" s="24" t="s">
         <v>53</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H3" s="21" t="s">
         <v>29</v>
@@ -16436,10 +16442,18 @@
       <c r="Z3" s="29"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A4" s="19"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="19"/>
+      <c r="A4" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>120</v>
+      </c>
       <c r="E4" s="19"/>
       <c r="F4" s="30" t="s">
         <v>54</v>
@@ -16504,10 +16518,18 @@
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A5" s="19"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="19"/>
+      <c r="A5" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>121</v>
+      </c>
       <c r="E5" s="19"/>
       <c r="F5" s="24"/>
       <c r="G5" s="21"/>
@@ -17236,7 +17258,7 @@
       <c r="J17" s="39"/>
       <c r="K17" s="41"/>
       <c r="L17" s="37" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="M17" s="21"/>
       <c r="N17" s="21"/>
@@ -17255,8 +17277,8 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="K18" s="37"/>
-      <c r="L18" s="112" t="s">
-        <v>113</v>
+      <c r="L18" s="110" t="s">
+        <v>87</v>
       </c>
       <c r="M18" s="37"/>
       <c r="N18" s="37"/>
@@ -17354,7 +17376,7 @@
         <v>85</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>19</v>
@@ -17365,7 +17387,7 @@
         <v>86</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>19</v>
@@ -17394,8 +17416,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:Z113"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110:XFD110"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17423,36 +17445,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="108" t="s">
+      <c r="G1" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108" t="s">
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="108"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="111"/>
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
@@ -17537,7 +17559,7 @@
         <v>116</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C3" s="21" t="s">
         <v>116</v>
@@ -17550,13 +17572,13 @@
         <v>53</v>
       </c>
       <c r="G3" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="25" t="s">
-        <v>26</v>
-      </c>
       <c r="I3" s="25" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J3" s="26"/>
       <c r="K3" s="27" t="s">
@@ -17622,7 +17644,7 @@
         <v>26</v>
       </c>
       <c r="I4" s="25" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J4" s="26"/>
       <c r="K4" s="31">
@@ -18201,7 +18223,7 @@
       <c r="J17" s="39"/>
       <c r="K17" s="41"/>
       <c r="L17" s="37" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="M17" s="21"/>
       <c r="N17" s="21"/>
@@ -18220,8 +18242,8 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="K18" s="37"/>
-      <c r="L18" s="112" t="s">
-        <v>113</v>
+      <c r="L18" s="110" t="s">
+        <v>87</v>
       </c>
       <c r="M18" s="37"/>
       <c r="N18" s="37"/>
@@ -18317,7 +18339,7 @@
         <v>85</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>19</v>
@@ -18386,36 +18408,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="108" t="s">
+      <c r="G1" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108" t="s">
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="108"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="111"/>
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
@@ -19367,36 +19389,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="73"/>
-      <c r="G1" s="108" t="s">
+      <c r="G1" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108" t="s">
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="108"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="111"/>
       <c r="Y1" s="74"/>
       <c r="Z1" s="75"/>
     </row>
@@ -20486,7 +20508,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:Z114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
@@ -20515,36 +20537,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="108" t="s">
+      <c r="G1" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108" t="s">
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="108"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="111"/>
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
@@ -21515,36 +21537,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="108" t="s">
+      <c r="G1" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108" t="s">
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="108"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="111"/>
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
@@ -22505,36 +22527,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="108" t="s">
+      <c r="G1" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108" t="s">
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="108"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="111"/>
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>

--- a/dcomtestcasegeneration/Database/DB_SAIC_AS28_R1.0_DCOM.xlsx
+++ b/dcomtestcasegeneration/Database/DB_SAIC_AS28_R1.0_DCOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HuyNA_repo\dcomtestcasegeneration\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1CB310-2252-4AC6-8931-5770EA4E2FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C353A7-3DF6-42FF-BBD9-563BAE76168B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13095" yWindow="1740" windowWidth="14685" windowHeight="14490" tabRatio="903" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" tabRatio="903" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Common_settings" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2157" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2157" uniqueCount="124">
   <si>
     <t>Sub_function</t>
   </si>
@@ -413,6 +413,9 @@
   </si>
   <si>
     <t>ffffff</t>
+  </si>
+  <si>
+    <t>Length</t>
   </si>
 </sst>
 </file>
@@ -1035,7 +1038,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="722">
+  <dxfs count="721">
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -5255,40 +5258,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="0"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="5" tint="0.39997558519241921"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="0.39997558519241921"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -9117,7 +9086,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A1:D6" totalsRowShown="0" headerRowDxfId="721" dataDxfId="720">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A1:D6" totalsRowShown="0" headerRowDxfId="720" dataDxfId="719">
   <autoFilter ref="A1:D6" xr:uid="{00000000-0009-0000-0100-00000F000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -9125,17 +9094,17 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Common_Setting" dataDxfId="719"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Variable" dataDxfId="718"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Value" dataDxfId="717"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Time_out " dataDxfId="716"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Common_Setting" dataDxfId="718"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Variable" dataDxfId="717"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Value" dataDxfId="716"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Time_out " dataDxfId="715"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Table1425" displayName="Table1425" ref="A2:D17" headerRowDxfId="609" dataDxfId="608" totalsRowDxfId="607">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Table1425" displayName="Table1425" ref="A2:D17" headerRowDxfId="608" dataDxfId="607" totalsRowDxfId="606">
   <autoFilter ref="A2:D17" xr:uid="{00000000-0009-0000-0100-000018000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -9143,59 +9112,59 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="Sub_function" dataDxfId="606" totalsRowDxfId="605"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="Parameter" dataDxfId="604" totalsRowDxfId="603"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="Record" dataDxfId="602" totalsRowDxfId="601"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0900-000009000000}" name="Expected_value" dataDxfId="600" totalsRowDxfId="599"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="Sub_function" dataDxfId="605" totalsRowDxfId="604"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="Parameter" dataDxfId="603" totalsRowDxfId="602"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="Record" dataDxfId="601" totalsRowDxfId="600"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0900-000009000000}" name="Expected_value" dataDxfId="599" totalsRowDxfId="598"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Table1626" displayName="Table1626" ref="A100:B104" totalsRowShown="0" headerRowDxfId="598" dataDxfId="596" headerRowBorderDxfId="597" tableBorderDxfId="595" totalsRowBorderDxfId="594">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Table1626" displayName="Table1626" ref="A100:B104" totalsRowShown="0" headerRowDxfId="597" dataDxfId="595" headerRowBorderDxfId="596" tableBorderDxfId="594" totalsRowBorderDxfId="593">
   <autoFilter ref="A100:B104" xr:uid="{00000000-0009-0000-0100-000019000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="Optional" dataDxfId="593"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="Status" dataDxfId="592"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="Optional" dataDxfId="592"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="Status" dataDxfId="591"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{153401C8-B8DA-4FEA-B36B-A3E3C06EE24C}" name="Table215" displayName="Table215" ref="A111:C113" totalsRowShown="0" headerRowDxfId="591" dataDxfId="590">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{153401C8-B8DA-4FEA-B36B-A3E3C06EE24C}" name="Table215" displayName="Table215" ref="A111:C113" totalsRowShown="0" headerRowDxfId="590" dataDxfId="589">
   <autoFilter ref="A111:C113" xr:uid="{153401C8-B8DA-4FEA-B36B-A3E3C06EE24C}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{6ABC6E67-3511-4AE6-8325-E6CF157254DA}" name="Condition" dataDxfId="589"/>
-    <tableColumn id="2" xr3:uid="{353AC64D-7BA1-45D0-AF4C-57B947E9013A}" name="Status" dataDxfId="588"/>
-    <tableColumn id="3" xr3:uid="{3B9141BA-DF56-4491-9D4F-574200D9F3EA}" name="NRC" dataDxfId="587"/>
+    <tableColumn id="1" xr3:uid="{6ABC6E67-3511-4AE6-8325-E6CF157254DA}" name="Condition" dataDxfId="588"/>
+    <tableColumn id="2" xr3:uid="{353AC64D-7BA1-45D0-AF4C-57B947E9013A}" name="Status" dataDxfId="587"/>
+    <tableColumn id="3" xr3:uid="{3B9141BA-DF56-4491-9D4F-574200D9F3EA}" name="NRC" dataDxfId="586"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium28" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="Table102329" displayName="Table102329" ref="G2:I17" totalsRowShown="0" headerRowDxfId="586" dataDxfId="585">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="Table102329" displayName="Table102329" ref="G2:I17" totalsRowShown="0" headerRowDxfId="585" dataDxfId="584">
   <autoFilter ref="G2:I17" xr:uid="{00000000-0009-0000-0100-00001C000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="Default" dataDxfId="584"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="Programming" dataDxfId="583"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" name="Extended" dataDxfId="582"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="Default" dataDxfId="583"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="Programming" dataDxfId="582"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" name="Extended" dataDxfId="581"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium27" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="Table142531" displayName="Table142531" ref="A2:D17" headerRowDxfId="581" dataDxfId="580" totalsRowDxfId="579">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="Table142531" displayName="Table142531" ref="A2:D17" headerRowDxfId="580" dataDxfId="579" totalsRowDxfId="578">
   <autoFilter ref="A2:D17" xr:uid="{00000000-0009-0000-0100-00001E000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -9203,80 +9172,80 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="Sub_function" dataDxfId="578" totalsRowDxfId="577"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0D00-000003000000}" name="Parameter" dataDxfId="576" totalsRowDxfId="575"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0D00-000004000000}" name="Record" dataDxfId="574" totalsRowDxfId="573"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0D00-000009000000}" name="Expected_value" dataDxfId="572" totalsRowDxfId="571"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="Sub_function" dataDxfId="577" totalsRowDxfId="576"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0D00-000003000000}" name="Parameter" dataDxfId="575" totalsRowDxfId="574"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0D00-000004000000}" name="Record" dataDxfId="573" totalsRowDxfId="572"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0D00-000009000000}" name="Expected_value" dataDxfId="571" totalsRowDxfId="570"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF10000000}" name="Table12242" displayName="Table12242" ref="K2:Z18" headerRowDxfId="570" dataDxfId="569" totalsRowDxfId="568">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF10000000}" name="Table12242" displayName="Table12242" ref="K2:Z18" headerRowDxfId="569" dataDxfId="568" totalsRowDxfId="567">
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1000-000001000000}" name=" " totalsRowLabel="Total" dataDxfId="567" totalsRowDxfId="566"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-1000-000010000000}" name="Priority2" dataDxfId="565" totalsRowDxfId="564"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1000-000002000000}" name="1" dataDxfId="563" totalsRowDxfId="562"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1000-000003000000}" name="2" dataDxfId="561" totalsRowDxfId="560"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1000-000004000000}" name="3" dataDxfId="559" totalsRowDxfId="558"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1000-000005000000}" name="4" dataDxfId="557" totalsRowDxfId="556"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1000-000006000000}" name="5" dataDxfId="555" totalsRowDxfId="554"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1000-000007000000}" name="6" dataDxfId="553" totalsRowDxfId="552"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1000-000008000000}" name="7" dataDxfId="551" totalsRowDxfId="550"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1000-000009000000}" name="8" dataDxfId="549" totalsRowDxfId="548"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1000-00000A000000}" name="9" dataDxfId="547" totalsRowDxfId="546"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-1000-00000B000000}" name="10" dataDxfId="545" totalsRowDxfId="544"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-1000-00000C000000}" name="11" dataDxfId="543" totalsRowDxfId="542"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-1000-00000D000000}" name="12" dataDxfId="541" totalsRowDxfId="540"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-1000-00000E000000}" name="13" dataDxfId="539" totalsRowDxfId="538"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-1000-00000F000000}" name="NRC_lenght for NRC 13" totalsRowFunction="count" dataDxfId="537"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1000-000001000000}" name=" " totalsRowLabel="Total" dataDxfId="566" totalsRowDxfId="565"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-1000-000010000000}" name="Priority2" dataDxfId="564" totalsRowDxfId="563"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1000-000002000000}" name="1" dataDxfId="562" totalsRowDxfId="561"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1000-000003000000}" name="2" dataDxfId="560" totalsRowDxfId="559"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1000-000004000000}" name="3" dataDxfId="558" totalsRowDxfId="557"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1000-000005000000}" name="4" dataDxfId="556" totalsRowDxfId="555"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1000-000006000000}" name="5" dataDxfId="554" totalsRowDxfId="553"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1000-000007000000}" name="6" dataDxfId="552" totalsRowDxfId="551"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1000-000008000000}" name="7" dataDxfId="550" totalsRowDxfId="549"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1000-000009000000}" name="8" dataDxfId="548" totalsRowDxfId="547"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1000-00000A000000}" name="9" dataDxfId="546" totalsRowDxfId="545"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-1000-00000B000000}" name="10" dataDxfId="544" totalsRowDxfId="543"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-1000-00000C000000}" name="11" dataDxfId="542" totalsRowDxfId="541"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-1000-00000D000000}" name="12" dataDxfId="540" totalsRowDxfId="539"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-1000-00000E000000}" name="13" dataDxfId="538" totalsRowDxfId="537"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-1000-00000F000000}" name="NRC_lenght for NRC 13" totalsRowFunction="count" dataDxfId="536"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{93F65FC0-1834-41AD-A1A6-45616A12E59F}" name="Table162643" displayName="Table162643" ref="A100:B104" totalsRowShown="0" headerRowDxfId="536" dataDxfId="534" headerRowBorderDxfId="535" tableBorderDxfId="533" totalsRowBorderDxfId="532">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{93F65FC0-1834-41AD-A1A6-45616A12E59F}" name="Table162643" displayName="Table162643" ref="A100:B104" totalsRowShown="0" headerRowDxfId="535" dataDxfId="533" headerRowBorderDxfId="534" tableBorderDxfId="532" totalsRowBorderDxfId="531">
   <autoFilter ref="A100:B104" xr:uid="{1A373EE4-57A2-4999-89C3-B8FA1113ED86}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{20F75510-FF4B-4A0D-9F04-5CB1D3B6CA12}" name="Optional" dataDxfId="531"/>
-    <tableColumn id="2" xr3:uid="{F0ADC1D3-00DF-4DBA-9690-AA33460547D5}" name="Status" dataDxfId="530"/>
+    <tableColumn id="1" xr3:uid="{20F75510-FF4B-4A0D-9F04-5CB1D3B6CA12}" name="Optional" dataDxfId="530"/>
+    <tableColumn id="2" xr3:uid="{F0ADC1D3-00DF-4DBA-9690-AA33460547D5}" name="Status" dataDxfId="529"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{3C57FABD-EA14-4CAB-B7D8-D530889708F7}" name="Table2127" displayName="Table2127" ref="A111:C113" totalsRowShown="0" headerRowDxfId="529" dataDxfId="528">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{3C57FABD-EA14-4CAB-B7D8-D530889708F7}" name="Table2127" displayName="Table2127" ref="A111:C113" totalsRowShown="0" headerRowDxfId="528" dataDxfId="527">
   <autoFilter ref="A111:C113" xr:uid="{3C57FABD-EA14-4CAB-B7D8-D530889708F7}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{7805AEC8-E02B-40AA-A01B-6BF09DB46105}" name="Condition" dataDxfId="527"/>
-    <tableColumn id="2" xr3:uid="{129CC707-F66E-457E-961E-CDFE2105C0DF}" name="Status" dataDxfId="526"/>
-    <tableColumn id="3" xr3:uid="{44CE911C-66BD-4A57-991D-F450BE36F7D4}" name="NRC" dataDxfId="525"/>
+    <tableColumn id="1" xr3:uid="{7805AEC8-E02B-40AA-A01B-6BF09DB46105}" name="Condition" dataDxfId="526"/>
+    <tableColumn id="2" xr3:uid="{129CC707-F66E-457E-961E-CDFE2105C0DF}" name="Status" dataDxfId="525"/>
+    <tableColumn id="3" xr3:uid="{44CE911C-66BD-4A57-991D-F450BE36F7D4}" name="NRC" dataDxfId="524"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium28" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{00000000-000C-0000-FFFF-FFFF11000000}" name="Table10232934" displayName="Table10232934" ref="G2:I19" totalsRowShown="0" headerRowDxfId="524" dataDxfId="523">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{00000000-000C-0000-FFFF-FFFF11000000}" name="Table10232934" displayName="Table10232934" ref="G2:I19" totalsRowShown="0" headerRowDxfId="523" dataDxfId="522">
   <autoFilter ref="G2:I19" xr:uid="{00000000-0009-0000-0100-000021000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" name="Default" dataDxfId="522"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1100-000002000000}" name="Programming" dataDxfId="521"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1100-000003000000}" name="Extended" dataDxfId="520"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" name="Default" dataDxfId="521"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1100-000002000000}" name="Programming" dataDxfId="520"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1100-000003000000}" name="Extended" dataDxfId="519"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium27" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{00000000-000C-0000-FFFF-FFFF12000000}" name="Table12243035" displayName="Table12243035" ref="K2:Z17" headerRowDxfId="519" dataDxfId="518" totalsRowDxfId="517">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{00000000-000C-0000-FFFF-FFFF12000000}" name="Table12243035" displayName="Table12243035" ref="K2:Z17" headerRowDxfId="518" dataDxfId="517" totalsRowDxfId="516">
   <autoFilter ref="K2:Z17" xr:uid="{00000000-0009-0000-0100-000022000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -9296,96 +9265,96 @@
     <filterColumn colId="15" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1200-000001000000}" name=" " totalsRowLabel="Total" dataDxfId="516" totalsRowDxfId="515"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-1200-000010000000}" name="Priority2" dataDxfId="514" totalsRowDxfId="513"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1200-000002000000}" name="1" dataDxfId="512" totalsRowDxfId="511"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1200-000003000000}" name="2" dataDxfId="510" totalsRowDxfId="509"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1200-000004000000}" name="3" dataDxfId="508" totalsRowDxfId="507"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1200-000005000000}" name="4" dataDxfId="506" totalsRowDxfId="505"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1200-000006000000}" name="5" dataDxfId="504" totalsRowDxfId="503"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1200-000007000000}" name="6" dataDxfId="502" totalsRowDxfId="501"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1200-000008000000}" name="7" dataDxfId="500" totalsRowDxfId="499"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1200-000009000000}" name="8" dataDxfId="498" totalsRowDxfId="497"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1200-00000A000000}" name="9" dataDxfId="496" totalsRowDxfId="495"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-1200-00000B000000}" name="10" dataDxfId="494" totalsRowDxfId="493"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-1200-00000C000000}" name="11" dataDxfId="492" totalsRowDxfId="491"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-1200-00000D000000}" name="12" dataDxfId="490" totalsRowDxfId="489"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-1200-00000E000000}" name="13" dataDxfId="488" totalsRowDxfId="487"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-1200-00000F000000}" name="NRC_lenght for NRC 13" totalsRowFunction="count" dataDxfId="486"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1200-000001000000}" name=" " totalsRowLabel="Total" dataDxfId="515" totalsRowDxfId="514"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-1200-000010000000}" name="Priority2" dataDxfId="513" totalsRowDxfId="512"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1200-000002000000}" name="1" dataDxfId="511" totalsRowDxfId="510"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1200-000003000000}" name="2" dataDxfId="509" totalsRowDxfId="508"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1200-000004000000}" name="3" dataDxfId="507" totalsRowDxfId="506"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1200-000005000000}" name="4" dataDxfId="505" totalsRowDxfId="504"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1200-000006000000}" name="5" dataDxfId="503" totalsRowDxfId="502"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1200-000007000000}" name="6" dataDxfId="501" totalsRowDxfId="500"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1200-000008000000}" name="7" dataDxfId="499" totalsRowDxfId="498"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1200-000009000000}" name="8" dataDxfId="497" totalsRowDxfId="496"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1200-00000A000000}" name="9" dataDxfId="495" totalsRowDxfId="494"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-1200-00000B000000}" name="10" dataDxfId="493" totalsRowDxfId="492"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-1200-00000C000000}" name="11" dataDxfId="491" totalsRowDxfId="490"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-1200-00000D000000}" name="12" dataDxfId="489" totalsRowDxfId="488"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-1200-00000E000000}" name="13" dataDxfId="487" totalsRowDxfId="486"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-1200-00000F000000}" name="NRC_lenght for NRC 13" totalsRowFunction="count" dataDxfId="485"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table27" displayName="Table27" ref="A10:C13" totalsRowShown="0" headerRowDxfId="715" dataDxfId="714">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table27" displayName="Table27" ref="A10:C13" totalsRowShown="0" headerRowDxfId="714" dataDxfId="713">
   <autoFilter ref="A10:C13" xr:uid="{00000000-0009-0000-0100-00001B000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Common_Command" dataDxfId="713"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Request" dataDxfId="712"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Response" dataDxfId="711"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Common_Command" dataDxfId="712"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Request" dataDxfId="711"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Response" dataDxfId="710"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{00000000-000C-0000-FFFF-FFFF13000000}" name="Table14253136" displayName="Table14253136" ref="A2:D19" headerRowDxfId="485" dataDxfId="484" totalsRowDxfId="483">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{00000000-000C-0000-FFFF-FFFF13000000}" name="Table14253136" displayName="Table14253136" ref="A2:D19" headerRowDxfId="484" dataDxfId="483" totalsRowDxfId="482">
   <tableColumns count="4">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1300-000002000000}" name="Sub_function" dataDxfId="482"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1300-000003000000}" name="Parameter/DTC" dataDxfId="481"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1300-000004000000}" name="Record" dataDxfId="480"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1300-000009000000}" name="Expected_value" dataDxfId="479"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1300-000002000000}" name="Sub_function" dataDxfId="481"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1300-000003000000}" name="Parameter/DTC" dataDxfId="480"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1300-000004000000}" name="Record" dataDxfId="479"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1300-000009000000}" name="Expected_value" dataDxfId="478"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0E79A099-2866-4895-B7E7-DFDE183C17E4}" name="Table1626436" displayName="Table1626436" ref="A100:B104" totalsRowShown="0" headerRowDxfId="478" dataDxfId="476" headerRowBorderDxfId="477" tableBorderDxfId="475" totalsRowBorderDxfId="474">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0E79A099-2866-4895-B7E7-DFDE183C17E4}" name="Table1626436" displayName="Table1626436" ref="A100:B104" totalsRowShown="0" headerRowDxfId="477" dataDxfId="475" headerRowBorderDxfId="476" tableBorderDxfId="474" totalsRowBorderDxfId="473">
   <autoFilter ref="A100:B104" xr:uid="{86BA01E9-EA44-49B0-AFB0-300670F55477}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{D15BF7F1-5916-40B6-B2D0-19EB1BFF7482}" name="Optional" dataDxfId="473"/>
-    <tableColumn id="2" xr3:uid="{2DA998A6-D5F0-443D-8D96-4F77FB70BDB6}" name="Status" dataDxfId="472"/>
+    <tableColumn id="1" xr3:uid="{D15BF7F1-5916-40B6-B2D0-19EB1BFF7482}" name="Optional" dataDxfId="472"/>
+    <tableColumn id="2" xr3:uid="{2DA998A6-D5F0-443D-8D96-4F77FB70BDB6}" name="Status" dataDxfId="471"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{F151774C-A725-48FF-ADF4-48EE6EFFC553}" name="Table212719" displayName="Table212719" ref="A111:C113" totalsRowShown="0" headerRowDxfId="471" dataDxfId="470">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{F151774C-A725-48FF-ADF4-48EE6EFFC553}" name="Table212719" displayName="Table212719" ref="A111:C113" totalsRowShown="0" headerRowDxfId="470" dataDxfId="469">
   <autoFilter ref="A111:C113" xr:uid="{F151774C-A725-48FF-ADF4-48EE6EFFC553}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{79446A50-CCB6-42FC-BA57-632D26AD3476}" name="Condition" dataDxfId="469"/>
-    <tableColumn id="2" xr3:uid="{825F318D-EC60-428A-AF2F-625BDB579BF1}" name="Status" dataDxfId="468"/>
-    <tableColumn id="3" xr3:uid="{4239EAB4-C655-4C1D-A409-DA955C515DEB}" name="NRC" dataDxfId="467"/>
+    <tableColumn id="1" xr3:uid="{79446A50-CCB6-42FC-BA57-632D26AD3476}" name="Condition" dataDxfId="468"/>
+    <tableColumn id="2" xr3:uid="{825F318D-EC60-428A-AF2F-625BDB579BF1}" name="Status" dataDxfId="467"/>
+    <tableColumn id="3" xr3:uid="{4239EAB4-C655-4C1D-A409-DA955C515DEB}" name="NRC" dataDxfId="466"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium28" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="38" xr:uid="{00000000-000C-0000-FFFF-FFFF16000000}" name="Table1023293439" displayName="Table1023293439" ref="G2:I19" totalsRowShown="0" headerRowDxfId="466" dataDxfId="465">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="38" xr:uid="{00000000-000C-0000-FFFF-FFFF16000000}" name="Table1023293439" displayName="Table1023293439" ref="G2:I19" totalsRowShown="0" headerRowDxfId="465" dataDxfId="464">
   <autoFilter ref="G2:I19" xr:uid="{00000000-0009-0000-0100-000026000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1600-000001000000}" name="Default" dataDxfId="464"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1600-000002000000}" name="Programming" dataDxfId="463"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1600-000003000000}" name="Extended" dataDxfId="462"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1600-000001000000}" name="Default" dataDxfId="463"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1600-000002000000}" name="Programming" dataDxfId="462"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1600-000003000000}" name="Extended" dataDxfId="461"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium27" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="39" xr:uid="{00000000-000C-0000-FFFF-FFFF17000000}" name="Table1224303540" displayName="Table1224303540" ref="K2:Z17" headerRowDxfId="461" dataDxfId="460" totalsRowDxfId="459">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="39" xr:uid="{00000000-000C-0000-FFFF-FFFF17000000}" name="Table1224303540" displayName="Table1224303540" ref="K2:Z17" headerRowDxfId="460" dataDxfId="459" totalsRowDxfId="458">
   <autoFilter ref="K2:Z17" xr:uid="{00000000-0009-0000-0100-000027000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -9405,80 +9374,80 @@
     <filterColumn colId="15" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1700-000001000000}" name=" " totalsRowLabel="Total" dataDxfId="458" totalsRowDxfId="457"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-1700-000010000000}" name="Priority2" dataDxfId="456" totalsRowDxfId="455"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1700-000002000000}" name="1" dataDxfId="454" totalsRowDxfId="453"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1700-000003000000}" name="2" dataDxfId="452" totalsRowDxfId="451"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1700-000004000000}" name="3" dataDxfId="450" totalsRowDxfId="449"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1700-000005000000}" name="4" dataDxfId="448" totalsRowDxfId="447"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1700-000006000000}" name="5" dataDxfId="446" totalsRowDxfId="445"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1700-000007000000}" name="6" dataDxfId="444" totalsRowDxfId="443"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1700-000008000000}" name="7" dataDxfId="442" totalsRowDxfId="441"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1700-000009000000}" name="8" dataDxfId="440" totalsRowDxfId="439"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1700-00000A000000}" name="9" dataDxfId="438" totalsRowDxfId="437"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-1700-00000B000000}" name="10" dataDxfId="436" totalsRowDxfId="435"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-1700-00000C000000}" name="11" dataDxfId="434" totalsRowDxfId="433"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-1700-00000D000000}" name="12" dataDxfId="432" totalsRowDxfId="431"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-1700-00000E000000}" name="13" dataDxfId="430" totalsRowDxfId="429"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-1700-00000F000000}" name="NRC_lenght for NRC 13" totalsRowFunction="count" dataDxfId="428"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1700-000001000000}" name=" " totalsRowLabel="Total" dataDxfId="457" totalsRowDxfId="456"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-1700-000010000000}" name="Priority2" dataDxfId="455" totalsRowDxfId="454"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1700-000002000000}" name="1" dataDxfId="453" totalsRowDxfId="452"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1700-000003000000}" name="2" dataDxfId="451" totalsRowDxfId="450"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1700-000004000000}" name="3" dataDxfId="449" totalsRowDxfId="448"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1700-000005000000}" name="4" dataDxfId="447" totalsRowDxfId="446"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1700-000006000000}" name="5" dataDxfId="445" totalsRowDxfId="444"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1700-000007000000}" name="6" dataDxfId="443" totalsRowDxfId="442"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1700-000008000000}" name="7" dataDxfId="441" totalsRowDxfId="440"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1700-000009000000}" name="8" dataDxfId="439" totalsRowDxfId="438"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1700-00000A000000}" name="9" dataDxfId="437" totalsRowDxfId="436"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-1700-00000B000000}" name="10" dataDxfId="435" totalsRowDxfId="434"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-1700-00000C000000}" name="11" dataDxfId="433" totalsRowDxfId="432"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-1700-00000D000000}" name="12" dataDxfId="431" totalsRowDxfId="430"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-1700-00000E000000}" name="13" dataDxfId="429" totalsRowDxfId="428"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-1700-00000F000000}" name="NRC_lenght for NRC 13" totalsRowFunction="count" dataDxfId="427"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="40" xr:uid="{00000000-000C-0000-FFFF-FFFF18000000}" name="Table1425313641" displayName="Table1425313641" ref="A2:D38" headerRowDxfId="427" dataDxfId="426" totalsRowDxfId="425">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="40" xr:uid="{00000000-000C-0000-FFFF-FFFF18000000}" name="Table1425313641" displayName="Table1425313641" ref="A2:D38" headerRowDxfId="426" dataDxfId="425" totalsRowDxfId="424">
   <tableColumns count="4">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1800-000002000000}" name="Name" dataDxfId="424"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1800-000003000000}" name="DID" dataDxfId="423"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1800-000004000000}" name="Record" dataDxfId="422"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1800-000009000000}" name="Expected_value" dataDxfId="421"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1800-000002000000}" name="Name" dataDxfId="423"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1800-000003000000}" name="DID" dataDxfId="422"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1800-000004000000}" name="Length" dataDxfId="421"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1800-000009000000}" name="Expected_value" dataDxfId="420"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E788DC98-597D-457C-974D-03AAA452567C}" name="Table1626437" displayName="Table1626437" ref="A100:B104" totalsRowShown="0" headerRowDxfId="420" dataDxfId="418" headerRowBorderDxfId="419" tableBorderDxfId="417" totalsRowBorderDxfId="416">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E788DC98-597D-457C-974D-03AAA452567C}" name="Table1626437" displayName="Table1626437" ref="A100:B104" totalsRowShown="0" headerRowDxfId="419" dataDxfId="417" headerRowBorderDxfId="418" tableBorderDxfId="416" totalsRowBorderDxfId="415">
   <autoFilter ref="A100:B104" xr:uid="{A67071C3-E807-4289-BE7B-50BCC599D64C}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{905AEEFD-93C6-40EA-ADCD-138F39B404B4}" name="Optional" dataDxfId="415"/>
-    <tableColumn id="2" xr3:uid="{278A32E1-4C73-4D3F-B397-5BCEE6300918}" name="Status" dataDxfId="414"/>
+    <tableColumn id="1" xr3:uid="{905AEEFD-93C6-40EA-ADCD-138F39B404B4}" name="Optional" dataDxfId="414"/>
+    <tableColumn id="2" xr3:uid="{278A32E1-4C73-4D3F-B397-5BCEE6300918}" name="Status" dataDxfId="413"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{3AA4607C-4163-441F-864E-087AFBF6938F}" name="Table212720" displayName="Table212720" ref="A111:C113" totalsRowShown="0" headerRowDxfId="413" dataDxfId="412">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{3AA4607C-4163-441F-864E-087AFBF6938F}" name="Table212720" displayName="Table212720" ref="A111:C113" totalsRowShown="0" headerRowDxfId="412" dataDxfId="411">
   <autoFilter ref="A111:C113" xr:uid="{3AA4607C-4163-441F-864E-087AFBF6938F}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{9C942C8A-310F-4BC5-AFDE-27B5C92A3BDE}" name="Condition" dataDxfId="411"/>
-    <tableColumn id="2" xr3:uid="{FC1558CB-3D4E-49C7-A4FA-C6EB39DA0DE4}" name="Status" dataDxfId="410"/>
-    <tableColumn id="3" xr3:uid="{187471E8-46D0-465D-A334-37C74B675D5B}" name="NRC" dataDxfId="409"/>
+    <tableColumn id="1" xr3:uid="{9C942C8A-310F-4BC5-AFDE-27B5C92A3BDE}" name="Condition" dataDxfId="410"/>
+    <tableColumn id="2" xr3:uid="{FC1558CB-3D4E-49C7-A4FA-C6EB39DA0DE4}" name="Status" dataDxfId="409"/>
+    <tableColumn id="3" xr3:uid="{187471E8-46D0-465D-A334-37C74B675D5B}" name="NRC" dataDxfId="408"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium28" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="43" xr:uid="{00000000-000C-0000-FFFF-FFFF1B000000}" name="Table102329343944" displayName="Table102329343944" ref="G2:I19" totalsRowShown="0" headerRowDxfId="408" dataDxfId="407">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="43" xr:uid="{00000000-000C-0000-FFFF-FFFF1B000000}" name="Table102329343944" displayName="Table102329343944" ref="G2:I19" totalsRowShown="0" headerRowDxfId="407" dataDxfId="406">
   <autoFilter ref="G2:I19" xr:uid="{00000000-0009-0000-0100-00002B000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1B00-000001000000}" name="Default" dataDxfId="406"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1B00-000002000000}" name="Programming" dataDxfId="405"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1B00-000003000000}" name="Extended" dataDxfId="404"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1B00-000001000000}" name="Default" dataDxfId="405"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1B00-000002000000}" name="Programming" dataDxfId="404"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1B00-000003000000}" name="Extended" dataDxfId="403"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium27" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="44" xr:uid="{00000000-000C-0000-FFFF-FFFF1C000000}" name="Table122430354045" displayName="Table122430354045" ref="K2:Z17" headerRowDxfId="403" dataDxfId="402" totalsRowDxfId="401">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="44" xr:uid="{00000000-000C-0000-FFFF-FFFF1C000000}" name="Table122430354045" displayName="Table122430354045" ref="K2:Z17" headerRowDxfId="402" dataDxfId="401" totalsRowDxfId="400">
   <autoFilter ref="K2:Z17" xr:uid="{00000000-0009-0000-0100-00002C000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -9498,49 +9467,49 @@
     <filterColumn colId="15" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1C00-000001000000}" name=" " totalsRowLabel="Total" dataDxfId="400" totalsRowDxfId="399"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-1C00-000010000000}" name="Priority2" dataDxfId="398" totalsRowDxfId="397"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1C00-000002000000}" name="1" dataDxfId="396" totalsRowDxfId="395"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1C00-000003000000}" name="2" dataDxfId="394" totalsRowDxfId="393"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1C00-000004000000}" name="3" dataDxfId="392" totalsRowDxfId="391"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1C00-000005000000}" name="4" dataDxfId="390" totalsRowDxfId="389"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1C00-000006000000}" name="5" dataDxfId="388" totalsRowDxfId="387"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1C00-000007000000}" name="6" dataDxfId="386" totalsRowDxfId="385"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1C00-000008000000}" name="7" dataDxfId="384" totalsRowDxfId="383"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1C00-000009000000}" name="8" dataDxfId="382" totalsRowDxfId="381"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1C00-00000A000000}" name="9" dataDxfId="380" totalsRowDxfId="379"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-1C00-00000B000000}" name="10" dataDxfId="378" totalsRowDxfId="377"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-1C00-00000C000000}" name="11" dataDxfId="376" totalsRowDxfId="375"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-1C00-00000D000000}" name="12" dataDxfId="374" totalsRowDxfId="373"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-1C00-00000E000000}" name="13" dataDxfId="372" totalsRowDxfId="371"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-1C00-00000F000000}" name="NRC_lenght for NRC 13" totalsRowFunction="count" dataDxfId="370"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1C00-000001000000}" name=" " totalsRowLabel="Total" dataDxfId="399" totalsRowDxfId="398"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-1C00-000010000000}" name="Priority2" dataDxfId="397" totalsRowDxfId="396"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1C00-000002000000}" name="1" dataDxfId="395" totalsRowDxfId="394"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1C00-000003000000}" name="2" dataDxfId="393" totalsRowDxfId="392"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1C00-000004000000}" name="3" dataDxfId="391" totalsRowDxfId="390"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1C00-000005000000}" name="4" dataDxfId="389" totalsRowDxfId="388"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1C00-000006000000}" name="5" dataDxfId="387" totalsRowDxfId="386"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1C00-000007000000}" name="6" dataDxfId="385" totalsRowDxfId="384"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1C00-000008000000}" name="7" dataDxfId="383" totalsRowDxfId="382"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1C00-000009000000}" name="8" dataDxfId="381" totalsRowDxfId="380"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1C00-00000A000000}" name="9" dataDxfId="379" totalsRowDxfId="378"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-1C00-00000B000000}" name="10" dataDxfId="377" totalsRowDxfId="376"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-1C00-00000C000000}" name="11" dataDxfId="375" totalsRowDxfId="374"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-1C00-00000D000000}" name="12" dataDxfId="373" totalsRowDxfId="372"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-1C00-00000E000000}" name="13" dataDxfId="371" totalsRowDxfId="370"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-1C00-00000F000000}" name="NRC_lenght for NRC 13" totalsRowFunction="count" dataDxfId="369"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table10" displayName="Table10" ref="G2:I17" totalsRowShown="0" headerRowDxfId="710" dataDxfId="709">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table10" displayName="Table10" ref="G2:I17" totalsRowShown="0" headerRowDxfId="709" dataDxfId="708">
   <autoFilter ref="G2:I17" xr:uid="{00000000-0009-0000-0100-00000A000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Default" dataDxfId="708"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Programming" dataDxfId="707"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Extended" dataDxfId="706"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Default" dataDxfId="707"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Programming" dataDxfId="706"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Extended" dataDxfId="705"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium27" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="45" xr:uid="{00000000-000C-0000-FFFF-FFFF1D000000}" name="Table142531364146" displayName="Table142531364146" ref="A2:D19" headerRowDxfId="369" dataDxfId="368" totalsRowDxfId="367">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="45" xr:uid="{00000000-000C-0000-FFFF-FFFF1D000000}" name="Table142531364146" displayName="Table142531364146" ref="A2:D19" dataDxfId="368" totalsRowDxfId="367">
   <tableColumns count="4">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1D00-000002000000}" name="Sub_function" dataDxfId="366"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1D00-000002000000}" name="Name" dataDxfId="366"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-1D00-000003000000}" name="DID" dataDxfId="365"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1D00-000004000000}" name="Record" dataDxfId="364"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1D00-000004000000}" name="Length" dataDxfId="364"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-1D00-000009000000}" name="Expected_value" dataDxfId="363"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -9722,7 +9691,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table14" displayName="Table14" ref="A2:D17" headerRowDxfId="705" dataDxfId="704" totalsRowDxfId="703">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table14" displayName="Table14" ref="A2:D17" headerRowDxfId="704" dataDxfId="703" totalsRowDxfId="702">
   <autoFilter ref="A2:D17" xr:uid="{00000000-0009-0000-0100-00000E000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -9730,10 +9699,10 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Sub_function" dataDxfId="702" totalsRowDxfId="701"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Parameter" dataDxfId="700" totalsRowDxfId="699"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Record" dataDxfId="698" totalsRowDxfId="697"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Expected_value" dataDxfId="696" totalsRowDxfId="695"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Sub_function" dataDxfId="701" totalsRowDxfId="700"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Parameter" dataDxfId="699" totalsRowDxfId="698"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Record" dataDxfId="697" totalsRowDxfId="696"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Expected_value" dataDxfId="695" totalsRowDxfId="694"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9926,7 +9895,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="78" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table1279" displayName="Table1279" ref="K2:Z18" headerRowDxfId="694" dataDxfId="693" totalsRowDxfId="692">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="78" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table1279" displayName="Table1279" ref="K2:Z18" headerRowDxfId="693" dataDxfId="692" totalsRowDxfId="691">
   <autoFilter ref="K2:Z18" xr:uid="{00000000-0009-0000-0100-00004E000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -9946,22 +9915,22 @@
     <filterColumn colId="15" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name=" " totalsRowLabel="Total" dataDxfId="691" totalsRowDxfId="690"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0600-000010000000}" name="Priority2" dataDxfId="689" totalsRowDxfId="688"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="1" dataDxfId="687" totalsRowDxfId="686"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="2" dataDxfId="685" totalsRowDxfId="684"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="3" dataDxfId="683" totalsRowDxfId="682"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="4" dataDxfId="681" totalsRowDxfId="680"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="0" dataDxfId="679" totalsRowDxfId="678"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0600-000007000000}" name="6" dataDxfId="677" totalsRowDxfId="676"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0600-000008000000}" name="7" dataDxfId="675" totalsRowDxfId="674"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0600-000009000000}" name="8" dataDxfId="673" totalsRowDxfId="672"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0600-00000A000000}" name="9" dataDxfId="671" totalsRowDxfId="670"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0600-00000B000000}" name="10" dataDxfId="669" totalsRowDxfId="668"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0600-00000C000000}" name="11" dataDxfId="667" totalsRowDxfId="666"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0600-00000D000000}" name="12" dataDxfId="665" totalsRowDxfId="664"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0600-00000E000000}" name="13" dataDxfId="663" totalsRowDxfId="662"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0600-00000F000000}" name="NRC_lenght for NRC 13" totalsRowFunction="count" dataDxfId="661"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name=" " totalsRowLabel="Total" dataDxfId="690" totalsRowDxfId="689"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0600-000010000000}" name="Priority2" dataDxfId="688" totalsRowDxfId="687"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="1" dataDxfId="686" totalsRowDxfId="685"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="2" dataDxfId="684" totalsRowDxfId="683"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="3" dataDxfId="682" totalsRowDxfId="681"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="4" dataDxfId="680" totalsRowDxfId="679"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="0" dataDxfId="678" totalsRowDxfId="677"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0600-000007000000}" name="6" dataDxfId="676" totalsRowDxfId="675"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0600-000008000000}" name="7" dataDxfId="674" totalsRowDxfId="673"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0600-000009000000}" name="8" dataDxfId="672" totalsRowDxfId="671"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0600-00000A000000}" name="9" dataDxfId="670" totalsRowDxfId="669"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0600-00000B000000}" name="10" dataDxfId="668" totalsRowDxfId="667"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0600-00000C000000}" name="11" dataDxfId="666" totalsRowDxfId="665"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0600-00000D000000}" name="12" dataDxfId="664" totalsRowDxfId="663"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0600-00000E000000}" name="13" dataDxfId="662" totalsRowDxfId="661"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0600-00000F000000}" name="NRC_lenght for NRC 13" totalsRowFunction="count" dataDxfId="660"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10154,11 +10123,11 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{370725A4-01D4-432E-AA40-BB1083C2CB66}" name="Table16264" displayName="Table16264" ref="A100:B104" totalsRowShown="0" headerRowDxfId="660" dataDxfId="658" headerRowBorderDxfId="659" tableBorderDxfId="657" totalsRowBorderDxfId="656">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{370725A4-01D4-432E-AA40-BB1083C2CB66}" name="Table16264" displayName="Table16264" ref="A100:B104" totalsRowShown="0" headerRowDxfId="659" dataDxfId="657" headerRowBorderDxfId="658" tableBorderDxfId="656" totalsRowBorderDxfId="655">
   <autoFilter ref="A100:B104" xr:uid="{ECA83BFB-8D08-4F82-8E0F-2E96A94DF834}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{91F8A3B5-6688-475C-888A-C1207E814706}" name="Optional" dataDxfId="655"/>
-    <tableColumn id="2" xr3:uid="{34AE152D-C723-4D19-BED3-D317FC75F84F}" name="Status" dataDxfId="654"/>
+    <tableColumn id="1" xr3:uid="{91F8A3B5-6688-475C-888A-C1207E814706}" name="Optional" dataDxfId="654"/>
+    <tableColumn id="2" xr3:uid="{34AE152D-C723-4D19-BED3-D317FC75F84F}" name="Status" dataDxfId="653"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10200,35 +10169,35 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{00415F5F-8242-426E-AA6A-3CF5C169A181}" name="Table212721" displayName="Table212721" ref="A111:C113" totalsRowShown="0" headerRowDxfId="653" dataDxfId="652">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{00415F5F-8242-426E-AA6A-3CF5C169A181}" name="Table212721" displayName="Table212721" ref="A111:C113" totalsRowShown="0" headerRowDxfId="652" dataDxfId="651">
   <autoFilter ref="A111:C113" xr:uid="{00415F5F-8242-426E-AA6A-3CF5C169A181}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{AB61A889-F164-49EA-8D9F-AC7C2DEF9A27}" name="Condition" dataDxfId="651"/>
-    <tableColumn id="2" xr3:uid="{898B2510-06EE-4D26-8EB4-7FE603A078E5}" name="Status" dataDxfId="650"/>
-    <tableColumn id="3" xr3:uid="{E31A577A-CED2-4732-A7E9-4DC42963FFF8}" name="NRC" dataDxfId="649"/>
+    <tableColumn id="1" xr3:uid="{AB61A889-F164-49EA-8D9F-AC7C2DEF9A27}" name="Condition" dataDxfId="650"/>
+    <tableColumn id="2" xr3:uid="{898B2510-06EE-4D26-8EB4-7FE603A078E5}" name="Status" dataDxfId="649"/>
+    <tableColumn id="3" xr3:uid="{E31A577A-CED2-4732-A7E9-4DC42963FFF8}" name="NRC" dataDxfId="648"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium28" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table1023" displayName="Table1023" ref="G2:I17" totalsRowShown="0" headerRowDxfId="648" dataDxfId="647">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table1023" displayName="Table1023" ref="G2:I17" totalsRowShown="0" headerRowDxfId="647" dataDxfId="646">
   <autoFilter ref="G2:I17" xr:uid="{00000000-0009-0000-0100-000016000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Default" dataDxfId="646"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Programming" dataDxfId="645"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Extended" dataDxfId="644"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Default" dataDxfId="645"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Programming" dataDxfId="644"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Extended" dataDxfId="643"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium27" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table1224" displayName="Table1224" ref="K2:Z18" headerRowDxfId="643" dataDxfId="642" totalsRowDxfId="641">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table1224" displayName="Table1224" ref="K2:Z18" headerRowDxfId="642" dataDxfId="641" totalsRowDxfId="640">
   <autoFilter ref="K2:Z18" xr:uid="{00000000-0009-0000-0100-000017000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -10247,22 +10216,22 @@
     <filterColumn colId="15" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name=" " totalsRowLabel="Total" dataDxfId="640" totalsRowDxfId="639"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0800-000010000000}" name="Priority2" dataDxfId="638" totalsRowDxfId="637"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="1" dataDxfId="636" totalsRowDxfId="635"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="2" dataDxfId="634" totalsRowDxfId="633"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="3" dataDxfId="632" totalsRowDxfId="631"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="4" dataDxfId="630" totalsRowDxfId="629"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="5" dataDxfId="628" totalsRowDxfId="627"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="6" dataDxfId="626" totalsRowDxfId="625"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0800-000008000000}" name="7" dataDxfId="624" totalsRowDxfId="623"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0800-000009000000}" name="8" dataDxfId="622" totalsRowDxfId="621"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0800-00000A000000}" name="9" dataDxfId="620" totalsRowDxfId="619"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0800-00000B000000}" name="10" dataDxfId="618" totalsRowDxfId="617"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0800-00000C000000}" name="11" dataDxfId="616" totalsRowDxfId="615"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0800-00000D000000}" name="12" dataDxfId="614" totalsRowDxfId="613"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0800-00000E000000}" name="13" dataDxfId="612" totalsRowDxfId="611"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0800-00000F000000}" name="NRC_lenght for NRC 13" totalsRowFunction="count" dataDxfId="610"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name=" " totalsRowLabel="Total" dataDxfId="639" totalsRowDxfId="638"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0800-000010000000}" name="Priority2" dataDxfId="637" totalsRowDxfId="636"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="1" dataDxfId="635" totalsRowDxfId="634"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="2" dataDxfId="633" totalsRowDxfId="632"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="3" dataDxfId="631" totalsRowDxfId="630"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="4" dataDxfId="629" totalsRowDxfId="628"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="5" dataDxfId="627" totalsRowDxfId="626"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="6" dataDxfId="625" totalsRowDxfId="624"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0800-000008000000}" name="7" dataDxfId="623" totalsRowDxfId="622"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0800-000009000000}" name="8" dataDxfId="621" totalsRowDxfId="620"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0800-00000A000000}" name="9" dataDxfId="619" totalsRowDxfId="618"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0800-00000B000000}" name="10" dataDxfId="617" totalsRowDxfId="616"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0800-00000C000000}" name="11" dataDxfId="615" totalsRowDxfId="614"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0800-00000D000000}" name="12" dataDxfId="613" totalsRowDxfId="612"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0800-00000E000000}" name="13" dataDxfId="611" totalsRowDxfId="610"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0800-00000F000000}" name="NRC_lenght for NRC 13" totalsRowFunction="count" dataDxfId="609"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10974,8 +10943,8 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:Z114"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110:XFD110"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15044,8 +15013,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Z113"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4:L16"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16230,8 +16199,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Z113"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4:L16"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17416,8 +17385,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:Z113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18379,8 +18348,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:Z113"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110:XFD110"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D3" sqref="A3:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19360,8 +19329,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:Z114"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110:XFD110"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19430,7 +19399,7 @@
         <v>61</v>
       </c>
       <c r="C2" s="77" t="s">
-        <v>2</v>
+        <v>123</v>
       </c>
       <c r="D2" s="78" t="s">
         <v>49</v>
@@ -20508,8 +20477,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:Z114"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C112" sqref="C112"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -20571,16 +20540,16 @@
       <c r="Z1" s="13"/>
     </row>
     <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="14" t="s">
+      <c r="A2" s="77" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="16" t="s">
+      <c r="C2" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="78" t="s">
         <v>49</v>
       </c>
       <c r="E2" s="17"/>
@@ -21508,8 +21477,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:Z114"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110:XFD110"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/dcomtestcasegeneration/Database/DB_SAIC_AS28_R1.0_DCOM.xlsx
+++ b/dcomtestcasegeneration/Database/DB_SAIC_AS28_R1.0_DCOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HuyNA_repo\dcomtestcasegeneration\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20214843-9057-477F-9093-6201EE4BF148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{31F29D79-E321-4F5C-B415-E91E4B848092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14025" yWindow="1995" windowWidth="14685" windowHeight="14490" tabRatio="903" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14115" yWindow="1845" windowWidth="14685" windowHeight="14490" tabRatio="903" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Common_settings" sheetId="2" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2040" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2047" uniqueCount="233">
   <si>
     <t>Common_Setting</t>
   </si>
@@ -6234,7 +6234,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B51" sqref="B51:B62"/>
     </sheetView>
   </sheetViews>
@@ -10813,7 +10813,7 @@
   <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S37" sqref="S37"/>
+      <selection activeCell="G3" sqref="G3:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10946,17 +10946,19 @@
       <c r="N3" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="60" t="s">
-        <v>58</v>
-      </c>
+      <c r="O3" s="60"/>
       <c r="P3" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q3" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="Q3" s="53"/>
       <c r="S3" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="T3" s="53"/>
+      <c r="T3" s="53" t="s">
+        <v>9</v>
+      </c>
       <c r="U3" s="52" t="s">
         <v>59</v>
       </c>
@@ -10991,17 +10993,19 @@
       <c r="N4" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="O4" s="60" t="s">
-        <v>9</v>
-      </c>
+      <c r="O4" s="60"/>
       <c r="P4" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="Q4" s="53"/>
       <c r="S4" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="T4" s="53"/>
+      <c r="T4" s="53" t="s">
+        <v>9</v>
+      </c>
       <c r="U4" s="52" t="s">
         <v>65</v>
       </c>
@@ -11024,7 +11028,7 @@
         <v>58</v>
       </c>
       <c r="I5" s="53" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="J5" s="18"/>
       <c r="K5" s="55" t="s">
@@ -11040,9 +11044,7 @@
       <c r="P5" s="53"/>
       <c r="Q5" s="53"/>
       <c r="S5" s="55"/>
-      <c r="T5" s="53" t="s">
-        <v>9</v>
-      </c>
+      <c r="T5" s="53"/>
     </row>
     <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="55"/>
@@ -11084,7 +11086,7 @@
         <v>71</v>
       </c>
       <c r="G7" s="53" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="H7" s="53" t="s">
         <v>58</v>
@@ -11345,8 +11347,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:U111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11453,13 +11455,15 @@
       <c r="A3" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="53"/>
+      <c r="B3" s="53" t="s">
+        <v>9</v>
+      </c>
       <c r="E3" s="16"/>
       <c r="F3" s="54" t="s">
         <v>56</v>
       </c>
       <c r="G3" s="53" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="H3" s="53" t="s">
         <v>9</v>
@@ -11477,18 +11481,18 @@
       <c r="N3" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="60" t="s">
-        <v>9</v>
-      </c>
+      <c r="O3" s="60"/>
       <c r="P3" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q3" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="Q3" s="53"/>
       <c r="S3" s="55" t="s">
         <v>57</v>
       </c>
       <c r="T3" s="53" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="U3" s="52" t="s">
         <v>59</v>
@@ -11498,7 +11502,9 @@
       <c r="A4" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="53"/>
+      <c r="B4" s="53" t="s">
+        <v>58</v>
+      </c>
       <c r="E4" s="16"/>
       <c r="F4" s="54" t="s">
         <v>61</v>
@@ -11522,17 +11528,19 @@
       <c r="N4" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="O4" s="60" t="s">
-        <v>9</v>
-      </c>
+      <c r="O4" s="60"/>
       <c r="P4" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q4" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="Q4" s="53"/>
       <c r="S4" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="T4" s="53"/>
+      <c r="T4" s="53" t="s">
+        <v>58</v>
+      </c>
       <c r="U4" s="52" t="s">
         <v>65</v>
       </c>
@@ -11541,7 +11549,9 @@
       <c r="A5" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="53"/>
+      <c r="B5" s="53" t="s">
+        <v>58</v>
+      </c>
       <c r="E5" s="16"/>
       <c r="F5" s="54"/>
       <c r="G5" s="53"/>
@@ -11989,17 +11999,19 @@
       <c r="N3" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="O3" s="60" t="s">
-        <v>9</v>
-      </c>
+      <c r="O3" s="60"/>
       <c r="P3" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q3" s="53" t="s">
         <v>231</v>
       </c>
-      <c r="Q3" s="53"/>
       <c r="S3" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="T3" s="53"/>
+      <c r="T3" s="53" t="s">
+        <v>58</v>
+      </c>
       <c r="U3" s="52" t="s">
         <v>59</v>
       </c>
@@ -12030,17 +12042,19 @@
       <c r="N4" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="60" t="s">
-        <v>58</v>
-      </c>
+      <c r="O4" s="60"/>
       <c r="P4" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="53" t="s">
         <v>231</v>
       </c>
-      <c r="Q4" s="53"/>
       <c r="S4" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="T4" s="53"/>
+      <c r="T4" s="53" t="s">
+        <v>58</v>
+      </c>
       <c r="U4" s="52" t="s">
         <v>65</v>
       </c>

--- a/dcomtestcasegeneration/Database/DB_SAIC_AS28_R1.0_DCOM.xlsx
+++ b/dcomtestcasegeneration/Database/DB_SAIC_AS28_R1.0_DCOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HuyNA_repo\dcomtestcasegeneration\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31F29D79-E321-4F5C-B415-E91E4B848092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4B29578-C4D8-49D3-BB4C-E179BFE1871D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14115" yWindow="1845" windowWidth="14685" windowHeight="14490" tabRatio="903" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10931,7 +10931,7 @@
         <v>58</v>
       </c>
       <c r="H3" s="53" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="I3" s="53" t="s">
         <v>9</v>
@@ -10951,13 +10951,13 @@
         <v>9</v>
       </c>
       <c r="Q3" s="53" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="S3" s="55" t="s">
         <v>57</v>
       </c>
       <c r="T3" s="53" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="U3" s="52" t="s">
         <v>59</v>
@@ -10978,10 +10978,10 @@
         <v>9</v>
       </c>
       <c r="H4" s="53" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="I4" s="53" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="J4" s="18"/>
       <c r="K4" s="55" t="s">
@@ -10995,7 +10995,7 @@
       </c>
       <c r="O4" s="60"/>
       <c r="P4" s="53" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="Q4" s="53" t="s">
         <v>34</v>
@@ -11025,10 +11025,10 @@
         <v>9</v>
       </c>
       <c r="H5" s="53" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="I5" s="53" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="J5" s="18"/>
       <c r="K5" s="55" t="s">
@@ -11060,7 +11060,7 @@
         <v>9</v>
       </c>
       <c r="I6" s="53" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="J6" s="18"/>
       <c r="K6" s="55" t="s">
@@ -11086,7 +11086,7 @@
         <v>71</v>
       </c>
       <c r="G7" s="53" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="H7" s="53" t="s">
         <v>58</v>
@@ -11469,7 +11469,7 @@
         <v>9</v>
       </c>
       <c r="I3" s="53" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="J3" s="18"/>
       <c r="K3" s="55" t="s">
@@ -11510,10 +11510,10 @@
         <v>61</v>
       </c>
       <c r="G4" s="53" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="H4" s="53" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="I4" s="53" t="s">
         <v>58</v>
@@ -11539,7 +11539,7 @@
         <v>64</v>
       </c>
       <c r="T4" s="53" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="U4" s="52" t="s">
         <v>65</v>
@@ -11981,7 +11981,7 @@
         <v>56</v>
       </c>
       <c r="G3" s="53" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="H3" s="53" t="s">
         <v>58</v>
@@ -12024,7 +12024,7 @@
         <v>61</v>
       </c>
       <c r="G4" s="53" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="H4" s="53" t="s">
         <v>58</v>
@@ -12044,7 +12044,7 @@
       </c>
       <c r="O4" s="60"/>
       <c r="P4" s="53" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="Q4" s="53" t="s">
         <v>231</v>

--- a/dcomtestcasegeneration/Database/DB_SAIC_AS28_R1.0_DCOM.xlsx
+++ b/dcomtestcasegeneration/Database/DB_SAIC_AS28_R1.0_DCOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BGSV_EDA2_Automation_Tool_LOCALREPO\dcomtestcasegeneration\DCOMTestcaseGenerationR1.1\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{572D452A-D9EF-4B59-B67D-C8990CBF9A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{87E4EC46-6A39-4C77-BE19-C89C40BD95F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5445" yWindow="900" windowWidth="21600" windowHeight="13185" tabRatio="903" firstSheet="1" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="207">
   <si>
     <t>NRC</t>
   </si>
@@ -613,6 +613,60 @@
   </si>
   <si>
     <t>ffff</t>
+  </si>
+  <si>
+    <t>56312E32</t>
+  </si>
+  <si>
+    <t>56312E35</t>
+  </si>
+  <si>
+    <t>56312E38</t>
+  </si>
+  <si>
+    <t>5357432E332E31.{2}</t>
+  </si>
+  <si>
+    <t>4857432E322E30.{2}</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>373931373033302D435230312D4141.{12}</t>
+  </si>
+  <si>
+    <t>53303632303220</t>
+  </si>
+  <si>
+    <t>00000000000000000000000000</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>0000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>393231323430312D43523031.{16}</t>
+  </si>
+  <si>
+    <t>48573032.{10}</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>0000</t>
+  </si>
+  <si>
+    <t>00000000000000</t>
+  </si>
+  <si>
+    <t>ff</t>
   </si>
 </sst>
 </file>
@@ -3350,7 +3404,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:V17"/>
+  <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="T3" sqref="T3:T4"/>
@@ -3382,7 +3436,7 @@
     <col min="27" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
         <v>14</v>
       </c>
@@ -3410,7 +3464,7 @@
       </c>
       <c r="T1" s="29"/>
     </row>
-    <row r="2" spans="1:22" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>59</v>
       </c>
@@ -3456,7 +3510,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
@@ -3487,24 +3541,25 @@
         <v>29</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="S3" s="9" t="s">
         <v>68</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>16</v>
+        <v>177</v>
       </c>
       <c r="U3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="V3" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
@@ -3535,24 +3590,25 @@
         <v>66</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="S4" s="9" t="s">
         <v>69</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>15</v>
+        <v>177</v>
       </c>
       <c r="U4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="V4" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>6</v>
       </c>
@@ -3588,7 +3644,7 @@
       <c r="S5" s="9"/>
       <c r="T5" s="7"/>
     </row>
-    <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="E6" s="2"/>
@@ -3620,7 +3676,7 @@
       <c r="S6" s="9"/>
       <c r="T6" s="7"/>
     </row>
-    <row r="7" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="E7" s="2"/>
@@ -3650,7 +3706,7 @@
       <c r="S7" s="9"/>
       <c r="T7" s="7"/>
     </row>
-    <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="E8" s="2"/>
@@ -3672,7 +3728,7 @@
       <c r="S8" s="9"/>
       <c r="T8" s="7"/>
     </row>
-    <row r="9" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="E9" s="3"/>
@@ -3694,7 +3750,7 @@
       <c r="S9" s="9"/>
       <c r="T9" s="7"/>
     </row>
-    <row r="10" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="E10" s="2"/>
@@ -3716,7 +3772,7 @@
       <c r="S10" s="9"/>
       <c r="T10" s="7"/>
     </row>
-    <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="E11" s="2"/>
@@ -3738,7 +3794,7 @@
       <c r="S11" s="9"/>
       <c r="T11" s="7"/>
     </row>
-    <row r="12" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="E12" s="2"/>
@@ -3760,7 +3816,7 @@
       <c r="S12" s="9"/>
       <c r="T12" s="7"/>
     </row>
-    <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="E13" s="2"/>
@@ -3782,7 +3838,7 @@
       <c r="S13" s="9"/>
       <c r="T13" s="7"/>
     </row>
-    <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="E14" s="2"/>
@@ -3804,7 +3860,7 @@
       <c r="S14" s="9"/>
       <c r="T14" s="7"/>
     </row>
-    <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="E15" s="2"/>
@@ -3826,7 +3882,7 @@
       <c r="S15" s="9"/>
       <c r="T15" s="7"/>
     </row>
-    <row r="16" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="E16" s="2"/>
@@ -3887,7 +3943,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:V111"/>
+  <dimension ref="A1:U111"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="T3" sqref="T3:T4"/>
@@ -3919,7 +3975,7 @@
     <col min="27" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
         <v>14</v>
       </c>
@@ -3947,7 +4003,7 @@
       </c>
       <c r="T1" s="29"/>
     </row>
-    <row r="2" spans="1:22" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>59</v>
       </c>
@@ -3993,7 +4049,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
@@ -4024,24 +4080,25 @@
         <v>29</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="S3" s="9" t="s">
         <v>68</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="V3" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
@@ -4072,24 +4129,25 @@
         <v>66</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="S4" s="9" t="s">
         <v>69</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>15</v>
+        <v>177</v>
       </c>
       <c r="U4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="V4" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>6</v>
       </c>
@@ -4117,7 +4175,7 @@
       <c r="S5" s="9"/>
       <c r="T5" s="7"/>
     </row>
-    <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="7"/>
       <c r="E6" s="2"/>
@@ -4141,7 +4199,7 @@
       <c r="S6" s="9"/>
       <c r="T6" s="7"/>
     </row>
-    <row r="7" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="7"/>
       <c r="E7" s="2"/>
@@ -4163,7 +4221,7 @@
       <c r="S7" s="9"/>
       <c r="T7" s="7"/>
     </row>
-    <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="7"/>
       <c r="E8" s="2"/>
@@ -4185,7 +4243,7 @@
       <c r="S8" s="9"/>
       <c r="T8" s="7"/>
     </row>
-    <row r="9" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="7"/>
       <c r="E9" s="3"/>
@@ -4207,7 +4265,7 @@
       <c r="S9" s="9"/>
       <c r="T9" s="7"/>
     </row>
-    <row r="10" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="7"/>
       <c r="E10" s="2"/>
@@ -4229,7 +4287,7 @@
       <c r="S10" s="9"/>
       <c r="T10" s="7"/>
     </row>
-    <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="7"/>
       <c r="E11" s="2"/>
@@ -4251,7 +4309,7 @@
       <c r="S11" s="9"/>
       <c r="T11" s="7"/>
     </row>
-    <row r="12" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="7"/>
       <c r="E12" s="2"/>
@@ -4273,7 +4331,7 @@
       <c r="S12" s="9"/>
       <c r="T12" s="7"/>
     </row>
-    <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="7"/>
       <c r="E13" s="2"/>
@@ -4295,7 +4353,7 @@
       <c r="S13" s="9"/>
       <c r="T13" s="7"/>
     </row>
-    <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="7"/>
       <c r="E14" s="2"/>
@@ -4317,7 +4375,7 @@
       <c r="S14" s="9"/>
       <c r="T14" s="7"/>
     </row>
-    <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="7"/>
       <c r="E15" s="2"/>
@@ -4339,7 +4397,7 @@
       <c r="S15" s="9"/>
       <c r="T15" s="7"/>
     </row>
-    <row r="16" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="7"/>
       <c r="E16" s="2"/>
@@ -4544,17 +4602,19 @@
       <c r="N3" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="O3" s="14" t="s">
+      <c r="O3" s="14"/>
+      <c r="P3" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="S3" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="T3" s="7"/>
+      <c r="T3" s="7" t="s">
+        <v>177</v>
+      </c>
       <c r="U3" s="6" t="s">
-        <v>177</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4584,14 +4644,16 @@
         <v>29</v>
       </c>
       <c r="O4" s="14"/>
-      <c r="P4" s="7"/>
+      <c r="P4" s="7" t="s">
+        <v>177</v>
+      </c>
       <c r="Q4" s="7"/>
       <c r="S4" s="9" t="s">
         <v>69</v>
       </c>
       <c r="T4" s="7"/>
       <c r="U4" s="6" t="s">
-        <v>177</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5543,29 +5605,49 @@
       <c r="B3" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="18"/>
+      <c r="C3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>189</v>
+      </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
+      <c r="F3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="K3" s="3"/>
       <c r="L3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="7"/>
+      <c r="M3" s="7" t="s">
+        <v>179</v>
+      </c>
       <c r="O3" s="9" t="s">
         <v>66</v>
       </c>
       <c r="P3" s="14"/>
-      <c r="Q3" s="7"/>
+      <c r="Q3" s="7" t="s">
+        <v>177</v>
+      </c>
       <c r="R3" s="7"/>
       <c r="T3" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="U3" s="7"/>
+      <c r="U3" s="7" t="s">
+        <v>177</v>
+      </c>
       <c r="V3" s="6" t="s">
         <v>36</v>
       </c>
@@ -5577,29 +5659,49 @@
       <c r="B4" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="18"/>
+      <c r="C4" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>190</v>
+      </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
+      <c r="F4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="K4" s="3"/>
       <c r="L4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="7"/>
+      <c r="M4" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="O4" s="9" t="s">
         <v>29</v>
       </c>
       <c r="P4" s="14"/>
-      <c r="Q4" s="7"/>
+      <c r="Q4" s="7" t="s">
+        <v>177</v>
+      </c>
       <c r="R4" s="7"/>
       <c r="T4" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="U4" s="7"/>
+      <c r="U4" s="7" t="s">
+        <v>177</v>
+      </c>
       <c r="V4" s="6" t="s">
         <v>35</v>
       </c>
@@ -5611,19 +5713,35 @@
       <c r="B5" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="18"/>
+      <c r="C5" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>191</v>
+      </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
+      <c r="F5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="K5" s="3"/>
       <c r="L5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="7"/>
+      <c r="M5" s="7" t="s">
+        <v>180</v>
+      </c>
       <c r="O5" s="9"/>
       <c r="P5" s="14"/>
       <c r="Q5" s="7"/>
@@ -5638,19 +5756,35 @@
       <c r="B6" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="18"/>
+      <c r="C6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>192</v>
+      </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
+      <c r="F6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="K6" s="3"/>
       <c r="L6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="7"/>
+      <c r="M6" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="O6" s="9"/>
       <c r="P6" s="14"/>
       <c r="Q6" s="7"/>
@@ -5665,19 +5799,35 @@
       <c r="B7" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="18"/>
+      <c r="C7" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>193</v>
+      </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
+      <c r="F7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="K7" s="3"/>
       <c r="L7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="M7" s="7"/>
+      <c r="M7" s="7" t="s">
+        <v>187</v>
+      </c>
       <c r="O7" s="9"/>
       <c r="P7" s="14"/>
       <c r="Q7" s="7"/>
@@ -5692,19 +5842,35 @@
       <c r="B8" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="18"/>
+      <c r="C8" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>195</v>
+      </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
+      <c r="F8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="K8" s="3"/>
       <c r="L8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="M8" s="7"/>
+      <c r="M8" s="7" t="s">
+        <v>187</v>
+      </c>
       <c r="O8" s="9"/>
       <c r="P8" s="14"/>
       <c r="Q8" s="7"/>
@@ -5719,19 +5885,35 @@
       <c r="B9" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="18"/>
+      <c r="C9" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>196</v>
+      </c>
       <c r="E9" s="3"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
+      <c r="F9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="K9" s="3"/>
       <c r="L9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="7"/>
+      <c r="M9" s="7" t="s">
+        <v>187</v>
+      </c>
       <c r="O9" s="9"/>
       <c r="P9" s="14"/>
       <c r="Q9" s="7"/>
@@ -5746,19 +5928,35 @@
       <c r="B10" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="18"/>
+      <c r="C10" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>197</v>
+      </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="K10" s="2"/>
       <c r="L10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M10" s="7"/>
+      <c r="M10" s="7" t="s">
+        <v>187</v>
+      </c>
       <c r="O10" s="9"/>
       <c r="P10" s="14"/>
       <c r="Q10" s="7"/>
@@ -5773,19 +5971,35 @@
       <c r="B11" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="18"/>
+      <c r="C11" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>199</v>
+      </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="K11" s="2"/>
       <c r="L11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="7"/>
+      <c r="M11" s="7" t="s">
+        <v>187</v>
+      </c>
       <c r="O11" s="9"/>
       <c r="P11" s="14"/>
       <c r="Q11" s="7"/>
@@ -5800,19 +6014,35 @@
       <c r="B12" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="18"/>
+      <c r="C12" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>187</v>
+      </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
+      <c r="F12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="K12" s="2"/>
       <c r="L12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M12" s="7"/>
+      <c r="M12" s="7" t="s">
+        <v>187</v>
+      </c>
       <c r="O12" s="9"/>
       <c r="P12" s="14"/>
       <c r="Q12" s="7"/>
@@ -5827,19 +6057,35 @@
       <c r="B13" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="18"/>
+      <c r="C13" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>187</v>
+      </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
+      <c r="F13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="K13" s="2"/>
       <c r="L13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="M13" s="7"/>
+      <c r="M13" s="7" t="s">
+        <v>187</v>
+      </c>
       <c r="O13" s="9"/>
       <c r="P13" s="14"/>
       <c r="Q13" s="7"/>
@@ -5854,19 +6100,35 @@
       <c r="B14" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="18"/>
+      <c r="C14" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>187</v>
+      </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
+      <c r="F14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="K14" s="2"/>
       <c r="L14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="7"/>
+      <c r="M14" s="7" t="s">
+        <v>187</v>
+      </c>
       <c r="O14" s="9"/>
       <c r="P14" s="14"/>
       <c r="Q14" s="7"/>
@@ -5881,19 +6143,35 @@
       <c r="B15" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="18"/>
+      <c r="C15" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>201</v>
+      </c>
       <c r="E15" s="2"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
+      <c r="F15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="K15" s="2"/>
       <c r="L15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="M15" s="7"/>
+      <c r="M15" s="7" t="s">
+        <v>187</v>
+      </c>
       <c r="O15" s="9"/>
       <c r="P15" s="14"/>
       <c r="Q15" s="7"/>
@@ -5908,19 +6186,35 @@
       <c r="B16" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="18"/>
+      <c r="C16" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>187</v>
+      </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
+      <c r="F16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="K16" s="2"/>
       <c r="L16" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="M16" s="7"/>
+      <c r="M16" s="7" t="s">
+        <v>187</v>
+      </c>
       <c r="O16" s="9"/>
       <c r="P16" s="14"/>
       <c r="Q16" s="7"/>
@@ -5935,19 +6229,35 @@
       <c r="B17" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="18"/>
+      <c r="C17" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>4</v>
+      </c>
       <c r="E17" s="4"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
+      <c r="F17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="K17" s="4"/>
       <c r="L17" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="M17" s="7"/>
+      <c r="M17" s="7" t="s">
+        <v>187</v>
+      </c>
       <c r="O17" s="9"/>
       <c r="P17" s="14"/>
       <c r="Q17" s="7"/>
@@ -5962,13 +6272,27 @@
       <c r="B18" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="18"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
+      <c r="C18" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="19" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
@@ -5977,13 +6301,27 @@
       <c r="B19" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="18"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
+      <c r="C19" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="20" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
@@ -5992,13 +6330,27 @@
       <c r="B20" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="18"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
+      <c r="C20" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="21" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
@@ -6007,13 +6359,27 @@
       <c r="B21" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="18"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
+      <c r="C21" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="22" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
@@ -6022,13 +6388,27 @@
       <c r="B22" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="18"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
+      <c r="C22" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="23" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
@@ -6037,13 +6417,27 @@
       <c r="B23" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="18"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
+      <c r="C23" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="24" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
@@ -6052,13 +6446,27 @@
       <c r="B24" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="18"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
+      <c r="C24" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="25" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
@@ -6067,13 +6475,27 @@
       <c r="B25" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="18"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
+      <c r="C25" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="26" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
@@ -6082,13 +6504,27 @@
       <c r="B26" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="18"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
+      <c r="C26" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="27" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
@@ -6097,13 +6533,27 @@
       <c r="B27" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="18"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
+      <c r="C27" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="28" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
@@ -6112,13 +6562,27 @@
       <c r="B28" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="18"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
+      <c r="C28" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="29" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
@@ -6127,13 +6591,27 @@
       <c r="B29" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="18"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
+      <c r="C29" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="30" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
@@ -6142,13 +6620,27 @@
       <c r="B30" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="18"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
+      <c r="C30" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="31" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
@@ -6157,13 +6649,27 @@
       <c r="B31" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="18"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
+      <c r="C31" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="32" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
@@ -6172,13 +6678,27 @@
       <c r="B32" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="18"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
+      <c r="C32" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="33" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
@@ -6187,13 +6707,27 @@
       <c r="B33" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="18"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
+      <c r="C33" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="34" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
@@ -6202,13 +6736,27 @@
       <c r="B34" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="18"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
+      <c r="C34" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="35" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="16" t="s">
@@ -6217,13 +6765,27 @@
       <c r="B35" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="18"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
+      <c r="C35" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="36" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
@@ -6232,13 +6794,27 @@
       <c r="B36" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="18"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
+      <c r="C36" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="37" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="16" t="s">
@@ -6247,13 +6823,27 @@
       <c r="B37" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="18"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
+      <c r="C37" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/dcomtestcasegeneration/Database/DB_SAIC_AS28_R1.0_DCOM.xlsx
+++ b/dcomtestcasegeneration/Database/DB_SAIC_AS28_R1.0_DCOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BOSCH_WORK\DCOM_TestcaseTool\dcomtestcasegeneration\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A144C16A-AF21-4C2F-A9B8-1BE1336F6E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{483784AC-2703-4A1C-B474-55BC7D79F625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5748" yWindow="960" windowWidth="11280" windowHeight="10356" tabRatio="903" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="207">
   <si>
     <t>NRC</t>
   </si>
@@ -611,9 +611,6 @@
   </si>
   <si>
     <t>ffff</t>
-  </si>
-  <si>
-    <t>83</t>
   </si>
   <si>
     <t>56312E32</t>
@@ -1669,24 +1666,36 @@
       <c r="F3" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="G3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="J3" s="3"/>
       <c r="K3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="7"/>
+      <c r="L3" s="7" t="s">
+        <v>179</v>
+      </c>
       <c r="N3" s="9" t="s">
         <v>66</v>
       </c>
       <c r="O3" s="14"/>
-      <c r="P3" s="7"/>
+      <c r="P3" s="7" t="s">
+        <v>177</v>
+      </c>
       <c r="Q3" s="7"/>
       <c r="S3" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="T3" s="7"/>
+      <c r="T3" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="U3" s="6" t="s">
         <v>36</v>
       </c>
@@ -1698,24 +1707,36 @@
       <c r="F4" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="J4" s="3"/>
       <c r="K4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="7"/>
+      <c r="L4" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="N4" s="9" t="s">
         <v>29</v>
       </c>
       <c r="O4" s="14"/>
-      <c r="P4" s="7"/>
+      <c r="P4" s="7" t="s">
+        <v>177</v>
+      </c>
       <c r="Q4" s="7"/>
       <c r="S4" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="T4" s="7"/>
+      <c r="T4" s="7" t="s">
+        <v>177</v>
+      </c>
       <c r="U4" s="6" t="s">
         <v>35</v>
       </c>
@@ -1732,7 +1753,9 @@
       <c r="K5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="7"/>
+      <c r="L5" s="7" t="s">
+        <v>180</v>
+      </c>
       <c r="N5" s="9"/>
       <c r="O5" s="14"/>
       <c r="P5" s="7"/>
@@ -1752,7 +1775,9 @@
       <c r="K6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="7"/>
+      <c r="L6" s="7" t="s">
+        <v>187</v>
+      </c>
       <c r="N6" s="9"/>
       <c r="O6" s="14"/>
       <c r="P6" s="7"/>
@@ -1772,7 +1797,9 @@
       <c r="K7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="7"/>
+      <c r="L7" s="7" t="s">
+        <v>187</v>
+      </c>
       <c r="N7" s="9"/>
       <c r="O7" s="14"/>
       <c r="P7" s="7"/>
@@ -1792,7 +1819,9 @@
       <c r="K8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="7"/>
+      <c r="L8" s="7" t="s">
+        <v>187</v>
+      </c>
       <c r="N8" s="9"/>
       <c r="O8" s="14"/>
       <c r="P8" s="7"/>
@@ -1812,7 +1841,9 @@
       <c r="K9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="7"/>
+      <c r="L9" s="7" t="s">
+        <v>187</v>
+      </c>
       <c r="N9" s="9"/>
       <c r="O9" s="14"/>
       <c r="P9" s="7"/>
@@ -1832,7 +1863,9 @@
       <c r="K10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="7"/>
+      <c r="L10" s="7" t="s">
+        <v>187</v>
+      </c>
       <c r="N10" s="9"/>
       <c r="O10" s="14"/>
       <c r="P10" s="7"/>
@@ -1852,7 +1885,9 @@
       <c r="K11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="7"/>
+      <c r="L11" s="7" t="s">
+        <v>187</v>
+      </c>
       <c r="N11" s="9"/>
       <c r="O11" s="14"/>
       <c r="P11" s="7"/>
@@ -1872,7 +1907,9 @@
       <c r="K12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L12" s="7"/>
+      <c r="L12" s="7" t="s">
+        <v>187</v>
+      </c>
       <c r="N12" s="9"/>
       <c r="O12" s="14"/>
       <c r="P12" s="7"/>
@@ -1892,7 +1929,9 @@
       <c r="K13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L13" s="7"/>
+      <c r="L13" s="7" t="s">
+        <v>187</v>
+      </c>
       <c r="N13" s="9"/>
       <c r="O13" s="14"/>
       <c r="P13" s="7"/>
@@ -1912,7 +1951,9 @@
       <c r="K14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="7"/>
+      <c r="L14" s="7" t="s">
+        <v>187</v>
+      </c>
       <c r="N14" s="9"/>
       <c r="O14" s="14"/>
       <c r="P14" s="7"/>
@@ -1932,7 +1973,9 @@
       <c r="K15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L15" s="7"/>
+      <c r="L15" s="7" t="s">
+        <v>187</v>
+      </c>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
       <c r="P15" s="7"/>
@@ -1952,7 +1995,9 @@
       <c r="K16" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="L16" s="7"/>
+      <c r="L16" s="7" t="s">
+        <v>187</v>
+      </c>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
       <c r="P16" s="7"/>
@@ -1972,7 +2017,9 @@
       <c r="K17" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="L17" s="7"/>
+      <c r="L17" s="7" t="s">
+        <v>187</v>
+      </c>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>
       <c r="P17" s="7"/>
@@ -2125,24 +2172,40 @@
       <c r="F3" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="G3" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="J3" s="3"/>
       <c r="K3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="7"/>
+      <c r="L3" s="7" t="s">
+        <v>178</v>
+      </c>
       <c r="N3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="14"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
+      <c r="O3" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="S3" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="T3" s="7"/>
+      <c r="T3" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="U3" s="6" t="s">
         <v>36</v>
       </c>
@@ -2161,24 +2224,40 @@
       <c r="F4" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="J4" s="3"/>
       <c r="K4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="7"/>
+      <c r="L4" s="7" t="s">
+        <v>179</v>
+      </c>
       <c r="N4" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="O4" s="14"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
+      <c r="O4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="S4" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="T4" s="7"/>
+      <c r="T4" s="7" t="s">
+        <v>177</v>
+      </c>
       <c r="U4" s="6" t="s">
         <v>35</v>
       </c>
@@ -2195,7 +2274,9 @@
       <c r="K5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="7"/>
+      <c r="L5" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="N5" s="9" t="s">
         <v>66</v>
       </c>
@@ -2217,7 +2298,9 @@
       <c r="K6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="7"/>
+      <c r="L6" s="7" t="s">
+        <v>180</v>
+      </c>
       <c r="N6" s="9" t="s">
         <v>66</v>
       </c>
@@ -2239,7 +2322,9 @@
       <c r="K7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="7"/>
+      <c r="L7" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="N7" s="9"/>
       <c r="O7" s="14"/>
       <c r="P7" s="7"/>
@@ -2259,7 +2344,9 @@
       <c r="K8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="7"/>
+      <c r="L8" s="7" t="s">
+        <v>187</v>
+      </c>
       <c r="N8" s="9"/>
       <c r="O8" s="14"/>
       <c r="P8" s="7"/>
@@ -2279,7 +2366,9 @@
       <c r="K9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="7"/>
+      <c r="L9" s="7" t="s">
+        <v>187</v>
+      </c>
       <c r="N9" s="9"/>
       <c r="O9" s="14"/>
       <c r="P9" s="7"/>
@@ -2299,7 +2388,9 @@
       <c r="K10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="7"/>
+      <c r="L10" s="7" t="s">
+        <v>187</v>
+      </c>
       <c r="N10" s="9"/>
       <c r="O10" s="14"/>
       <c r="P10" s="7"/>
@@ -2319,7 +2410,9 @@
       <c r="K11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="7"/>
+      <c r="L11" s="7" t="s">
+        <v>187</v>
+      </c>
       <c r="N11" s="9"/>
       <c r="O11" s="14"/>
       <c r="P11" s="7"/>
@@ -2339,7 +2432,9 @@
       <c r="K12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L12" s="7"/>
+      <c r="L12" s="7" t="s">
+        <v>187</v>
+      </c>
       <c r="N12" s="9"/>
       <c r="O12" s="14"/>
       <c r="P12" s="7"/>
@@ -2359,7 +2454,9 @@
       <c r="K13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L13" s="7"/>
+      <c r="L13" s="7" t="s">
+        <v>187</v>
+      </c>
       <c r="N13" s="9"/>
       <c r="O13" s="14"/>
       <c r="P13" s="7"/>
@@ -2379,7 +2476,9 @@
       <c r="K14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="7"/>
+      <c r="L14" s="7" t="s">
+        <v>187</v>
+      </c>
       <c r="N14" s="9"/>
       <c r="O14" s="14"/>
       <c r="P14" s="7"/>
@@ -2399,7 +2498,9 @@
       <c r="K15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L15" s="7"/>
+      <c r="L15" s="7" t="s">
+        <v>187</v>
+      </c>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
       <c r="P15" s="7"/>
@@ -2419,7 +2520,9 @@
       <c r="K16" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="L16" s="7"/>
+      <c r="L16" s="7" t="s">
+        <v>187</v>
+      </c>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
       <c r="P16" s="7"/>
@@ -2439,7 +2542,9 @@
       <c r="K17" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="L17" s="7"/>
+      <c r="L17" s="7" t="s">
+        <v>187</v>
+      </c>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>
       <c r="P17" s="7"/>
@@ -3526,7 +3631,7 @@
         <v>15</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>177</v>
+        <v>15</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>15</v>
@@ -3572,10 +3677,10 @@
         <v>37</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>177</v>
+        <v>15</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>177</v>
+        <v>15</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>15</v>
@@ -3624,10 +3729,10 @@
         <v>15</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>15</v>
+        <v>177</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>177</v>
+        <v>15</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="9" t="s">
@@ -4585,7 +4690,7 @@
         <v>61</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>177</v>
+        <v>15</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>177</v>
@@ -4603,15 +4708,11 @@
       <c r="N3" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="O3" s="14" t="s">
-        <v>177</v>
-      </c>
+      <c r="O3" s="14"/>
       <c r="P3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>189</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="Q3" s="7"/>
       <c r="S3" s="9" t="s">
         <v>68</v>
       </c>
@@ -5616,11 +5717,11 @@
         <v>17</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="7" t="s">
-        <v>177</v>
+        <v>15</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>15</v>
@@ -5644,15 +5745,11 @@
       <c r="O3" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="P3" s="14" t="s">
-        <v>9</v>
-      </c>
+      <c r="P3" s="14"/>
       <c r="Q3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>182</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="R3" s="7"/>
       <c r="T3" s="9" t="s">
         <v>68</v>
       </c>
@@ -5674,7 +5771,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="7" t="s">
@@ -5728,7 +5825,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="7" t="s">
@@ -5771,7 +5868,7 @@
         <v>23</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="7" t="s">
@@ -5814,7 +5911,7 @@
         <v>23</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="7" t="s">
@@ -5854,10 +5951,10 @@
         <v>43</v>
       </c>
       <c r="C8" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>195</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>196</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="7" t="s">
@@ -5900,7 +5997,7 @@
         <v>22</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="7" t="s">
@@ -5943,7 +6040,7 @@
         <v>26</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="7" t="s">
@@ -5983,10 +6080,10 @@
         <v>46</v>
       </c>
       <c r="C11" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="D11" s="18" t="s">
         <v>199</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>200</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="7" t="s">
@@ -6155,10 +6252,10 @@
         <v>117</v>
       </c>
       <c r="C15" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="D15" s="18" t="s">
         <v>201</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>202</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="7" t="s">
@@ -6198,7 +6295,7 @@
         <v>118</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>187</v>
@@ -6316,7 +6413,7 @@
         <v>24</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>15</v>
@@ -6342,7 +6439,7 @@
         <v>48</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>187</v>
@@ -6490,7 +6587,7 @@
         <v>13</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>15</v>
@@ -6577,7 +6674,7 @@
         <v>22</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>15</v>
@@ -6838,7 +6935,7 @@
         <v>15</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>15</v>
@@ -7001,11 +7098,11 @@
         <v>17</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="7" t="s">
-        <v>177</v>
+        <v>15</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>15</v>
@@ -7055,11 +7152,11 @@
         <v>17</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="7" t="s">
-        <v>177</v>
+        <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>15</v>
@@ -7083,20 +7180,16 @@
       <c r="O4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="14" t="s">
-        <v>187</v>
-      </c>
+      <c r="P4" s="14"/>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>187</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="R4" s="7"/>
       <c r="T4" s="9" t="s">
         <v>69</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>13</v>
+        <v>177</v>
       </c>
       <c r="V4" s="6" t="s">
         <v>35</v>
@@ -7113,7 +7206,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="7" t="s">
@@ -7156,7 +7249,7 @@
         <v>23</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="7" t="s">
@@ -7199,7 +7292,7 @@
         <v>23</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="7" t="s">
@@ -7222,7 +7315,7 @@
         <v>21</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="O7" s="9"/>
       <c r="P7" s="14"/>
@@ -7239,10 +7332,10 @@
         <v>43</v>
       </c>
       <c r="C8" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>195</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>196</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="7" t="s">
@@ -7285,7 +7378,7 @@
         <v>22</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="7" t="s">
@@ -7328,7 +7421,7 @@
         <v>26</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="7" t="s">
@@ -7368,10 +7461,10 @@
         <v>46</v>
       </c>
       <c r="C11" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="D11" s="18" t="s">
         <v>199</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>200</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="7" t="s">
@@ -7540,10 +7633,10 @@
         <v>117</v>
       </c>
       <c r="C15" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="D15" s="18" t="s">
         <v>201</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>202</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="7" t="s">
@@ -7583,7 +7676,7 @@
         <v>118</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>187</v>
@@ -7701,7 +7794,7 @@
         <v>24</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>15</v>
@@ -7727,7 +7820,7 @@
         <v>48</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>187</v>
@@ -7875,7 +7968,7 @@
         <v>13</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>15</v>
@@ -7962,7 +8055,7 @@
         <v>22</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>15</v>
@@ -8223,7 +8316,7 @@
         <v>15</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>15</v>
@@ -8391,10 +8484,10 @@
         <v>177</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>15</v>
+        <v>177</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>177</v>
+        <v>15</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="9" t="s">
@@ -8409,11 +8502,15 @@
       <c r="O3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="P3" s="14"/>
+      <c r="P3" s="14" t="s">
+        <v>16</v>
+      </c>
       <c r="Q3" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="R3" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="T3" s="9" t="s">
         <v>68</v>
       </c>
@@ -8436,13 +8533,13 @@
         <v>37</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>15</v>
+        <v>177</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>177</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>15</v>
+        <v>177</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="9" t="s">
@@ -8979,7 +9076,7 @@
         <v>15</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>15</v>
+        <v>177</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>15</v>
@@ -9033,10 +9130,10 @@
         <v>37</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>15</v>
+        <v>177</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>15</v>
+        <v>177</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>15</v>
